--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="91">
   <si>
     <t>Doi</t>
   </si>
@@ -446,6 +446,155 @@
   </si>
   <si>
     <t>2020-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
+ We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
+Methods
+id="Par2"&gt;A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
+ Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
+ The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
+ Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
+ Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
+ Clinical usage was evaluated by decision curve analysis and nomogram.
+Results
+id="Par3"&gt;Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
+ Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
+ Lung score presents no significant difference (p = 0.417).
+ Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
+ The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
+Conclusions
+id="Par4"&gt;Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+ A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
+Key Points
+id="Par5"&gt;
+            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,  Yanyan%Tang%NULL%1,  Yongkang%Mo%NULL%1,  Shengkai%Li%NULL%1,  Daiying%Lin%NULL%1,  Zhijian%Yang%NULL%1,  Zhiqi%Yang%NULL%1,  Hongfu%Sun%NULL%1,  Jinming%Qiu%NULL%1,  Yuting%Liao%NULL%1,  Jianning%Xiao%NULL%1,  Xiangguang%Chen%NULL%1,  Xianheng%Wu%NULL%1,  Renhua%Wu%NULL%1,  Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
+ We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
+Methods
+A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
+ Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
+ The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
+ Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
+ Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
+ Clinical usage was evaluated by decision curve analysis and nomogram.
+Results
+id="Par3"&gt;Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
+ Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
+ Lung score presents no significant difference (p = 0.417).
+ Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
+ The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
+Conclusions
+id="Par4"&gt;Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+ A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
+Key Points
+id="Par5"&gt;
+            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,   Yanyan%Tang%NULL%1,   Yongkang%Mo%NULL%1,   Shengkai%Li%NULL%1,   Daiying%Lin%NULL%1,   Zhijian%Yang%NULL%1,   Zhiqi%Yang%NULL%1,   Hongfu%Sun%NULL%1,   Jinming%Qiu%NULL%1,   Yuting%Liao%NULL%1,   Jianning%Xiao%NULL%1,   Xiangguang%Chen%NULL%1,   Xianheng%Wu%NULL%1,   Renhua%Wu%NULL%1,   Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
+ We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
+Methods
+A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
+ Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
+ The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
+ Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
+ Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
+ Clinical usage was evaluated by decision curve analysis and nomogram.
+Results
+Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
+ Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
+ Lung score presents no significant difference (p = 0.417).
+ Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
+ The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
+Conclusions
+id="Par4"&gt;Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+ A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
+Key Points
+id="Par5"&gt;
+            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,    Yanyan%Tang%NULL%1,    Yongkang%Mo%NULL%1,    Shengkai%Li%NULL%1,    Daiying%Lin%NULL%1,    Zhijian%Yang%NULL%1,    Zhiqi%Yang%NULL%1,    Hongfu%Sun%NULL%1,    Jinming%Qiu%NULL%1,    Yuting%Liao%NULL%1,    Jianning%Xiao%NULL%1,    Xiangguang%Chen%NULL%1,    Xianheng%Wu%NULL%1,    Renhua%Wu%NULL%1,    Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
+ We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
+Methods
+A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
+ Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
+ The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
+ Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
+ Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
+ Clinical usage was evaluated by decision curve analysis and nomogram.
+Results
+Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
+ Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
+ Lung score presents no significant difference (p = 0.417).
+ Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
+ The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
+Conclusions
+Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+ A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
+Key Points
+id="Par5"&gt;
+            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,     Yanyan%Tang%NULL%1,     Yongkang%Mo%NULL%1,     Shengkai%Li%NULL%1,     Daiying%Lin%NULL%1,     Zhijian%Yang%NULL%1,     Zhiqi%Yang%NULL%1,     Hongfu%Sun%NULL%1,     Jinming%Qiu%NULL%1,     Yuting%Liao%NULL%1,     Jianning%Xiao%NULL%1,     Xiangguang%Chen%NULL%1,     Xianheng%Wu%NULL%1,     Renhua%Wu%NULL%1,     Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
+ We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
+Methods
+A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
+ Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
+ The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
+ Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
+ Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
+ Clinical usage was evaluated by decision curve analysis and nomogram.
+Results
+Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
+ Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
+ Lung score presents no significant difference (p = 0.417).
+ Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
+ The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
+Conclusions
+Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+ A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
+Key Points
+            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,      Yanyan%Tang%NULL%1,      Yongkang%Mo%NULL%1,      Shengkai%Li%NULL%1,      Daiying%Lin%NULL%1,      Zhijian%Yang%NULL%1,      Zhiqi%Yang%NULL%1,      Hongfu%Sun%NULL%1,      Jinming%Qiu%NULL%1,      Yuting%Liao%NULL%1,      Jianning%Xiao%NULL%1,      Xiangguang%Chen%NULL%1,      Xianheng%Wu%NULL%1,      Renhua%Wu%NULL%1,      Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -906,10 +1055,10 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>

--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="81">
   <si>
     <t>Doi</t>
   </si>
@@ -446,155 +446,6 @@
   </si>
   <si>
     <t>2020-04-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
- We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
-Methods
-id="Par2"&gt;A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
- Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
- The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
- Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
- Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
- Clinical usage was evaluated by decision curve analysis and nomogram.
-Results
-id="Par3"&gt;Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
- Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
- Lung score presents no significant difference (p = 0.417).
- Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
- The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
-Conclusions
-id="Par4"&gt;Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
- A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
-Key Points
-id="Par5"&gt;
-            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%0,  Yanyan%Tang%NULL%1,  Yongkang%Mo%NULL%1,  Shengkai%Li%NULL%1,  Daiying%Lin%NULL%1,  Zhijian%Yang%NULL%1,  Zhiqi%Yang%NULL%1,  Hongfu%Sun%NULL%1,  Jinming%Qiu%NULL%1,  Yuting%Liao%NULL%1,  Jianning%Xiao%NULL%1,  Xiangguang%Chen%NULL%1,  Xianheng%Wu%NULL%1,  Renhua%Wu%NULL%1,  Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
- We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
-Methods
-A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
- Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
- The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
- Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
- Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
- Clinical usage was evaluated by decision curve analysis and nomogram.
-Results
-id="Par3"&gt;Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
- Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
- Lung score presents no significant difference (p = 0.417).
- Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
- The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
-Conclusions
-id="Par4"&gt;Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
- A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
-Key Points
-id="Par5"&gt;
-            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%0,   Yanyan%Tang%NULL%1,   Yongkang%Mo%NULL%1,   Shengkai%Li%NULL%1,   Daiying%Lin%NULL%1,   Zhijian%Yang%NULL%1,   Zhiqi%Yang%NULL%1,   Hongfu%Sun%NULL%1,   Jinming%Qiu%NULL%1,   Yuting%Liao%NULL%1,   Jianning%Xiao%NULL%1,   Xiangguang%Chen%NULL%1,   Xianheng%Wu%NULL%1,   Renhua%Wu%NULL%1,   Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
- We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
-Methods
-A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
- Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
- The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
- Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
- Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
- Clinical usage was evaluated by decision curve analysis and nomogram.
-Results
-Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
- Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
- Lung score presents no significant difference (p = 0.417).
- Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
- The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
-Conclusions
-id="Par4"&gt;Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
- A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
-Key Points
-id="Par5"&gt;
-            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%0,    Yanyan%Tang%NULL%1,    Yongkang%Mo%NULL%1,    Shengkai%Li%NULL%1,    Daiying%Lin%NULL%1,    Zhijian%Yang%NULL%1,    Zhiqi%Yang%NULL%1,    Hongfu%Sun%NULL%1,    Jinming%Qiu%NULL%1,    Yuting%Liao%NULL%1,    Jianning%Xiao%NULL%1,    Xiangguang%Chen%NULL%1,    Xianheng%Wu%NULL%1,    Renhua%Wu%NULL%1,    Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
- We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
-Methods
-A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
- Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
- The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
- Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
- Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
- Clinical usage was evaluated by decision curve analysis and nomogram.
-Results
-Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
- Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
- Lung score presents no significant difference (p = 0.417).
- Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
- The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
-Conclusions
-Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
- A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
-Key Points
-id="Par5"&gt;
-            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%0,     Yanyan%Tang%NULL%1,     Yongkang%Mo%NULL%1,     Shengkai%Li%NULL%1,     Daiying%Lin%NULL%1,     Zhijian%Yang%NULL%1,     Zhiqi%Yang%NULL%1,     Hongfu%Sun%NULL%1,     Jinming%Qiu%NULL%1,     Yuting%Liao%NULL%1,     Jianning%Xiao%NULL%1,     Xiangguang%Chen%NULL%1,     Xianheng%Wu%NULL%1,     Renhua%Wu%NULL%1,     Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
- We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
-Methods
-A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
- Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
- The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
- Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
- Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
- Clinical usage was evaluated by decision curve analysis and nomogram.
-Results
-Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
- Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
- Lung score presents no significant difference (p = 0.417).
- Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
- The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
-Conclusions
-Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
- A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
-Key Points
-            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Xiaofeng%Chen%NULL%0,      Yanyan%Tang%NULL%1,      Yongkang%Mo%NULL%1,      Shengkai%Li%NULL%1,      Daiying%Lin%NULL%1,      Zhijian%Yang%NULL%1,      Zhiqi%Yang%NULL%1,      Hongfu%Sun%NULL%1,      Jinming%Qiu%NULL%1,      Yuting%Liao%NULL%1,      Jianning%Xiao%NULL%1,      Xiangguang%Chen%NULL%1,      Xianheng%Wu%NULL%1,      Renhua%Wu%NULL%1,      Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +906,10 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>

--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B0B197-36C3-40AE-A980-33DC6741FE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="11115" yWindow="1545" windowWidth="17250" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>Doi</t>
   </si>
@@ -36,9 +43,6 @@
     <t>10.1007/s00330-020-06829-2</t>
   </si>
   <si>
-    <t>doi.org/10.1148/radiol.2020201237</t>
-  </si>
-  <si>
     <t>10.1007/s11604-020-00958-w</t>
   </si>
   <si>
@@ -69,28 +73,19 @@
     <t>Authors</t>
   </si>
   <si>
-    <t>Unknown Title</t>
-  </si>
-  <si>
-    <t>Unknown Abstract</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>ID Format</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>not found</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Date Accepted</t>
+  </si>
+  <si>
+    <t>10.1148/radiol.2020201237</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
   </si>
   <si>
     <t>Correlation of Chest CT and RT-PCR Testing in Coronavirus Disease 2019 (COVID-19) in China: A Report of 1014 Cases</t>
@@ -116,7 +111,7 @@
 </t>
   </si>
   <si>
-    <t>[Tao%Ai%NULL%1, Zhenlu%Yang%NULL%2, Zhenlu%Yang%NULL%0, Hongyan%Hou%NULL%2, Hongyan%Hou%NULL%0, Chenao%Zhan%NULL%1, Chong%Chen%NULL%1, Wenzhi%Lv%NULL%2, Wenzhi%Lv%NULL%0, Qian%Tao%NULL%2, Qian%Tao%NULL%0, Ziyong%Sun%NULL%2, Ziyong%Sun%NULL%0, Liming%Xia%xialiming2017@outlook.com%1]</t>
+    <t>[Tao%Ai%NULL%0, Zhenlu%Yang%NULL%2, Zhenlu%Yang%NULL%0, Hongyan%Hou%NULL%2, Hongyan%Hou%NULL%0, Chenao%Zhan%NULL%1, Chong%Chen%NULL%1, Wenzhi%Lv%NULL%2, Wenzhi%Lv%NULL%0, Qian%Tao%NULL%2, Qian%Tao%NULL%0, Ziyong%Sun%NULL%2, Ziyong%Sun%NULL%0, Liming%Xia%xialiming2017@outlook.com%1]</t>
   </si>
   <si>
     <t>PMC7233399</t>
@@ -126,6 +121,9 @@
   </si>
   <si>
     <t>1970-01-01</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Performance of radiologists in differentiating COVID-19 from viral pneumonia on chest CT</t>
@@ -166,6 +164,21 @@
     <t>PMC7233414</t>
   </si>
   <si>
+    <t>Unknown Title</t>
+  </si>
+  <si>
+    <t>Unknown Abstract</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>not found</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Extension of Coronavirus Disease 2019 on Chest CT and Implications for Chest Radiographic Interpretation</t>
   </si>
   <si>
@@ -238,6 +251,40 @@
     <t>2020-03-23</t>
   </si>
   <si>
+    <t>_Springer</t>
+  </si>
+  <si>
+    <t>Chest CT Features of COVID-19 in Rome, Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The standard for diagnosis of SARS-CoV-2 virus is reverse transcription polymerase chain reaction (RT-PCR) test, but chest CT may play a complimentary role in the early detection of COVID-19 pneumonia.
+Purpose
+To investigate CT features of patients with COVID-19 in Rome, Italy, and to compare the accuracy of CT with RT-PCR.
+Methods
+In this prospective study from March 4, 2020, until March 19, 2020, consecutive patients with suspected COVID-19 infection and respiratory symptoms were enrolled.
+ Exclusion criteria were: chest CT with contrast medium performed for vascular indications, patients who refused chest CT or hospitalization, and severe CT motion artifact.
+ All patients underwent RT-PCR and chest CT.
+ Diagnostic performance of CT was calculated using RT-PCR as reference.
+ Chest CT features were calculated in a subgroup of RT-PCR-positive and CT-positive patients.
+ CT features of hospitalized patients and patient in home isolation were compared by using Pearson chi squared test.
+Results
+Our study population comprised 158 consecutive study participants (83 male and 75 female, mean age 57 y ±17).
+ Fever was observed in 97/158 (61%), cough in 88/158 (56%), dyspnea in 52/158 (33%), lymphocytopenia in 95/158 (60%), increased C-reactive protein level in 139/158 (88%), and elevated lactate dehydrogenase in 128/158 (81%) study participants.
+ Sensitivity, specificity, and accuracy of CT were 97% (60/62)[95% IC, 88-99%], 56% (54/96)[95% IC,45-66%] and 72% (114/158)[95% IC 64-78%], respectively.
+ In the subgroup of RT-PCR-positive and CT-positive patients, ground-glass opacities (GGO) were present in 58/58 (100%), multilobe and posterior involvement were both present in 54/58 (93%), bilateral pneumonia in 53/58 (91%), and subsegmental vessel enlargement (&amp;gt; 3 mm) in 52/58 (89%) of study participants.
+Conclusion
+The typical pattern of COVID-19 pneumonia in Rome, Italy, was peripherally ground-glass opacities with multilobe and posterior involvement, bilateral distribution, and subsegmental vessel enlargement (&amp;gt; 3 mm).
+ Chest CT sensitivity was high (97%) but with lower specificity (56%).
+</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0, Marta%Zerunian%NULL%2, Marta%Zerunian%NULL%0, Michela%Polici%NULL%2, Michela%Polici%NULL%0, Francesco%Pucciarelli%NULL%2, Francesco%Pucciarelli%NULL%0, Tiziano%Polidori%NULL%2, Tiziano%Polidori%NULL%0, Carlotta%Rucci%NULL%2, Carlotta%Rucci%NULL%0, Gisella%Guido%NULL%2, Gisella%Guido%NULL%0, Benedetta%Bracci%NULL%2, Benedetta%Bracci%NULL%0, Chiara%de Dominicis%NULL%2, Chiara%de Dominicis%NULL%0, Andrea%Laghi%andrea.laghi@uniroma1.it%2, Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>PMC7194020</t>
+  </si>
+  <si>
     <t>Diagnostic performance of chest CT to differentiate COVID-19 pneumonia in non-high-epidemic area in Japan</t>
   </si>
   <si>
@@ -280,6 +327,9 @@
   </si>
   <si>
     <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>_elsevier</t>
   </si>
   <si>
     <t>Early chest computed tomography to diagnose COVID-19 from suspected patients: A multicenter retrospective study</t>
@@ -305,7 +355,7 @@
 </t>
   </si>
   <si>
-    <t>[Congliang%Miao%NULL%1, Mengdi%Jin%NULL%1, Li%Miao%NULL%1, Xinying%Yang%NULL%1, Peng%Huang%NULL%1, Huanwen%Xiong%NULL%1, Peijie%Huang%NULL%1, Qi%Zhao%NULL%1, Jiang%Du%NULL%1, Jiang%Hong%NULL%1]</t>
+    <t>[Congliang%Miao%NULL%1, Mengdi%Jin%NULL%1, Li%Miao%NULL%1, Xinying%Yang%NULL%1, Peng%Huang%NULL%1, Huanwen%Xiong%NULL%1, Peijie%Huang%NULL%1, Qi%Zhao%NULL%1, Jiang%Du%NULL%0, Jiang%Hong%NULL%1]</t>
   </si>
   <si>
     <t>PMC7166306</t>
@@ -336,7 +386,7 @@
 </t>
   </si>
   <si>
-    <t>[Zeying%Wen%NULL%1, Yonge%Chi%NULL%2, Yonge%Chi%NULL%0, Liang%Zhang%NULL%2, Liang%Zhang%NULL%0, Huan%Liu%NULL%2, Huan%Liu%NULL%0, Kun%Du%NULL%1, Zhengxing%Li%NULL%2, Zhengxing%Li%NULL%0, Jie%Chen%NULL%2, Jie%Chen%NULL%0, Liuhui%Cheng%NULL%2, Liuhui%Cheng%NULL%0, Daoqing%Wang%wangdaoqing1215@126.com%2, Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+    <t>[Zeying%Wen%NULL%1, Yonge%Chi%NULL%2, Yonge%Chi%NULL%0, Liang%Zhang%NULL%2, Liang%Zhang%NULL%0, Huan%Liu%NULL%2, Huan%Liu%NULL%0, Kun%Du%NULL%1, Zhengxing%Li%NULL%2, Zhengxing%Li%NULL%0, Jie%Chen%NULL%0, Jie%Chen%NULL%0, Liuhui%Cheng%NULL%2, Liuhui%Cheng%NULL%0, Daoqing%Wang%wangdaoqing1215@126.com%2, Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
   </si>
   <si>
     <t>PMC7194021</t>
@@ -451,39 +501,43 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="mmm d yyyy"/>
-    <numFmt numFmtId="165" formatCode="mmmm d, yyyy"/>
-    <numFmt numFmtId="166" formatCode="d mmmm yyyy"/>
-    <numFmt numFmtId="167" formatCode="mmmm yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm\ d\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="d\ mmmm\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -491,7 +545,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -507,62 +561,56 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -752,20 +800,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,357 +826,417 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>43887.0</v>
+        <v>43887</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>43900.0</v>
+        <v>43900</v>
       </c>
       <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>43888</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5">
-        <v>43888.0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>43920.0</v>
+        <v>43920</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
-        <v>43937.0</v>
+      <c r="B6" s="6">
+        <v>43937</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43924</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
-        <v>43924.0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B8" s="6">
+        <v>43920</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7">
-        <v>43920.0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="8">
+        <v>43952</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9">
-        <v>43952.0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="8">
+        <v>44348</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9">
-        <v>44348.0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B11" s="3">
+        <v>43927</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>44013</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3">
-        <v>43927.0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9">
-        <v>44013.0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="s">
+      <c r="B13" s="10">
+        <v>43903</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="11">
-        <v>43903.0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="B14" s="3">
-        <v>43942.0</v>
+        <v>43942</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A5"/>
-    <hyperlink r:id="rId4" ref="A7"/>
-    <hyperlink r:id="rId5" ref="A9"/>
-    <hyperlink r:id="rId6" ref="A10"/>
-    <hyperlink r:id="rId7" ref="A11"/>
-    <hyperlink r:id="rId8" ref="A12"/>
-    <hyperlink r:id="rId9" ref="A13"/>
-    <hyperlink r:id="rId10" ref="A14"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A7" r:id="rId4" display="doi.org/10.1148/radiol.2020201237" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="104">
   <si>
     <t>Doi</t>
   </si>
@@ -496,6 +496,51 @@
   </si>
   <si>
     <t>2020-04-16</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,  Zhenlu%Yang%NULL%2,  Zhenlu%Yang%NULL%0,  Hongyan%Hou%NULL%2,  Hongyan%Hou%NULL%0,  Chenao%Zhan%NULL%1,  Chong%Chen%NULL%1,  Wenzhi%Lv%NULL%2,  Wenzhi%Lv%NULL%0,  Qian%Tao%NULL%2,  Qian%Tao%NULL%0,  Ziyong%Sun%NULL%2,  Ziyong%Sun%NULL%0,  Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,  Ben%Hsieh%NULL%1,  Zeng%Xiong%NULL%2,  Zeng%Xiong%NULL%0,  Kasey%Halsey%NULL%2,  Kasey%Halsey%NULL%0,  Ji Whae%Choi%NULL%2,  Ji Whae%Choi%NULL%0,  Thi My Linh%Tran%NULL%2,  Thi My Linh%Tran%NULL%0,  Ian%Pan%NULL%2,  Ian%Pan%NULL%0,  Lin-Bo%Shi%NULL%2,  Lin-Bo%Shi%NULL%0,  Dong-Cui%Wang%NULL%1,  Ji%Mei%NULL%2,  Ji%Mei%NULL%0,  Xiao-Long%Jiang%NULL%1,  Qiu-Hua%Zeng%NULL%1,  Thomas K.%Egglin%NULL%1,  Ping-Feng%Hu%NULL%2,  Ping-Feng%Hu%NULL%0,  Saurabh%Agarwal%NULL%1,  Fangfang%Xie%NULL%2,  Fangfang%Xie%NULL%0,  Sha%Li%NULL%1,  Terrance%Healey%NULL%2,  Terrance%Healey%NULL%0,  Michael K.%Atalay%NULL%1,  Wei-Hua%Liao%liaoweihua2017@163.com%2,  Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,  Xiaolong%Qi%NULL%2,  Xiaolong%Qi%NULL%0,  Soon Ho%Yoon%yshoka@gmail.com%2,  Soon Ho%Yoon%yshoka@gmail.com%0,  Sang Joon%Park%NULL%2,  Sang Joon%Park%NULL%0,  Kyung Hee%Lee%NULL%2,  Kyung Hee%Lee%NULL%0,  Jin Yong%Kim%NULL%2,  Jin Yong%Kim%NULL%0,  Young Kyung%Lee%NULL%2,  Young Kyung%Lee%NULL%0,  Hongseok%Ko%NULL%2,  Hongseok%Ko%NULL%0,  Ki Hwan%Kim%NULL%2,  Ki Hwan%Kim%NULL%0,  Chang Min%Park%NULL%2,  Chang Min%Park%NULL%0,  Yun-Hyeon%Kim%NULL%2,  Yun-Hyeon%Kim%NULL%0,  Junqiang%Lei%NULL%2,  Junqiang%Lei%NULL%0,  Jung Hee%Hong%NULL%2,  Jung Hee%Hong%NULL%0,  Hyungjin%Kim%NULL%2,  Hyungjin%Kim%NULL%0,  Eui Jin%Hwang%NULL%2,  Eui Jin%Hwang%NULL%0,  Seung Jin%Yoo%NULL%2,  Seung Jin%Yoo%NULL%0,  Ju Gang%Nam%NULL%2,  Ju Gang%Nam%NULL%0,  Chang Hyun%Lee%NULL%2,  Chang Hyun%Lee%NULL%0,  Jin Mo%Goo%NULL%2,  Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,  Yanyan%Tang%NULL%1,  Yongkang%Mo%NULL%1,  Shengkai%Li%NULL%1,  Daiying%Lin%NULL%1,  Zhijian%Yang%NULL%1,  Zhiqi%Yang%NULL%1,  Hongfu%Sun%NULL%1,  Jinming%Qiu%NULL%1,  Yuting%Liao%NULL%1,  Jianning%Xiao%NULL%1,  Xiangguang%Chen%NULL%1,  Xianheng%Wu%NULL%1,  Renhua%Wu%NULL%1,  Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>_Springer_PMC</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,  Marta%Zerunian%NULL%2,  Marta%Zerunian%NULL%0,  Michela%Polici%NULL%2,  Michela%Polici%NULL%0,  Francesco%Pucciarelli%NULL%2,  Francesco%Pucciarelli%NULL%0,  Tiziano%Polidori%NULL%2,  Tiziano%Polidori%NULL%0,  Carlotta%Rucci%NULL%2,  Carlotta%Rucci%NULL%0,  Gisella%Guido%NULL%2,  Gisella%Guido%NULL%0,  Benedetta%Bracci%NULL%2,  Benedetta%Bracci%NULL%0,  Chiara%de Dominicis%NULL%2,  Chiara%de Dominicis%NULL%0,  Andrea%Laghi%andrea.laghi@uniroma1.it%2,  Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,  Akihiko%Sakata%NULL%1,  Mitsuhiro%Kirita%NULL%1,  Takashi%Hiroi%NULL%1,  Ken-ichiro%Kobayashi%NULL%1,  Kenji%Kubo%NULL%1,  Hyunjin%Kim%NULL%1,  Azusa%Nishimoto%NULL%1,  Chikara%Maeda%NULL%1,  Akira%Kawamura%NULL%1,  Nobuhiro%Komiya%NULL%1,  Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,  Huaxiang%Xu%NULL%1,  Qinglin%Shen%NULL%1,  Xianghai%Zhang%NULL%1,  Bing%Fan%26171381@qq.com%1,  Chuanhong%Wang%NULL%1,  Bingliang%Zeng%NULL%1,  Zicong%Li%NULL%1,  Xiaofen%Li%NULL%1,  Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>_elsevier_PMC</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%1,  Mengdi%Jin%NULL%1,  Li%Miao%NULL%1,  Xinying%Yang%NULL%1,  Peng%Huang%NULL%1,  Huanwen%Xiong%NULL%1,  Peijie%Huang%NULL%1,  Qi%Zhao%NULL%1,  Jiang%Du%NULL%1,  Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%1,  Yonge%Chi%NULL%2,  Yonge%Chi%NULL%0,  Liang%Zhang%NULL%2,  Liang%Zhang%NULL%0,  Huan%Liu%NULL%2,  Huan%Liu%NULL%0,  Kun%Du%NULL%1,  Zhengxing%Li%NULL%2,  Zhengxing%Li%NULL%0,  Jie%Chen%NULL%2,  Jie%Chen%NULL%0,  Liuhui%Cheng%NULL%2,  Liuhui%Cheng%NULL%0,  Daoqing%Wang%wangdaoqing1215@126.com%2,  Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,  Guoqiang%Sun%NULL%1,  Fei%Tang%NULL%1,  Min%Peng%NULL%1,  Ying%Gao%NULL%1,  Jing%Peng%NULL%1,  Hui%Xie%NULL%1,  Yun%Zhao%NULL%1,  Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,  Kai%Xie%NULL%2,  Kai%Xie%NULL%0,  Hui%Lu%NULL%1,  Lei%Xu%bayinhexl@126.com%1,  Shusheng%Zhou%zhouss108@163.com%1,  Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,  Christopher%Gieraerts%NULL%0,  Christopher%Gieraerts%NULL%0,  Yves%De Bruecker%NULL%0,  Yves%De Bruecker%NULL%0,  Lode%Janssen%NULL%0,  Lode%Janssen%NULL%0,  Hanne%Valgaeren%NULL%0,  Hanne%Valgaeren%NULL%0,  Dagmar%Obbels%NULL%0,  Dagmar%Obbels%NULL%0,  Marc%Gillis%NULL%0,  Marc%Gillis%NULL%0,  Marc%Van Ranst%NULL%0,  Marc%Van Ranst%NULL%0,  Johan%Frans%NULL%0,  Annick%Demeyere%NULL%0,  Annick%Demeyere%NULL%0,  Rolf%Symons%rolf.symons@imelda.be%0,  Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -861,7 +906,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -873,7 +918,7 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -890,7 +935,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -902,7 +947,7 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -948,7 +993,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -960,7 +1005,7 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -977,7 +1022,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -989,7 +1034,7 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1006,7 +1051,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1018,7 +1063,7 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1035,7 +1080,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1047,7 +1092,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1064,7 +1109,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1076,7 +1121,7 @@
         <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1093,7 +1138,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1105,7 +1150,7 @@
         <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1122,7 +1167,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1134,7 +1179,7 @@
         <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1151,7 +1196,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1163,7 +1208,7 @@
         <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1180,7 +1225,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1192,7 +1237,7 @@
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1209,7 +1254,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>
@@ -1221,7 +1266,7 @@
         <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="152">
   <si>
     <t>Doi</t>
   </si>
@@ -541,6 +541,150 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,  Christopher%Gieraerts%NULL%0,  Christopher%Gieraerts%NULL%0,  Yves%De Bruecker%NULL%0,  Yves%De Bruecker%NULL%0,  Lode%Janssen%NULL%0,  Lode%Janssen%NULL%0,  Hanne%Valgaeren%NULL%0,  Hanne%Valgaeren%NULL%0,  Dagmar%Obbels%NULL%0,  Dagmar%Obbels%NULL%0,  Marc%Gillis%NULL%0,  Marc%Gillis%NULL%0,  Marc%Van Ranst%NULL%0,  Marc%Van Ranst%NULL%0,  Johan%Frans%NULL%0,  Annick%Demeyere%NULL%0,  Annick%Demeyere%NULL%0,  Rolf%Symons%rolf.symons@imelda.be%0,  Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,   Zhenlu%Yang%NULL%2,   Zhenlu%Yang%NULL%0,   Hongyan%Hou%NULL%2,   Hongyan%Hou%NULL%0,   Chenao%Zhan%NULL%1,   Chong%Chen%NULL%1,   Wenzhi%Lv%NULL%2,   Wenzhi%Lv%NULL%0,   Qian%Tao%NULL%2,   Qian%Tao%NULL%0,   Ziyong%Sun%NULL%0,   Ziyong%Sun%NULL%0,   Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,   Ben%Hsieh%NULL%1,   Zeng%Xiong%NULL%2,   Zeng%Xiong%NULL%0,   Kasey%Halsey%NULL%2,   Kasey%Halsey%NULL%0,   Ji Whae%Choi%NULL%2,   Ji Whae%Choi%NULL%0,   Thi My Linh%Tran%NULL%2,   Thi My Linh%Tran%NULL%0,   Ian%Pan%NULL%2,   Ian%Pan%NULL%0,   Lin-Bo%Shi%NULL%2,   Lin-Bo%Shi%NULL%0,   Dong-Cui%Wang%NULL%1,   Ji%Mei%NULL%2,   Ji%Mei%NULL%0,   Xiao-Long%Jiang%NULL%1,   Qiu-Hua%Zeng%NULL%1,   Thomas K.%Egglin%NULL%1,   Ping-Feng%Hu%NULL%2,   Ping-Feng%Hu%NULL%0,   Saurabh%Agarwal%NULL%1,   Fangfang%Xie%NULL%2,   Fangfang%Xie%NULL%0,   Sha%Li%NULL%1,   Terrance%Healey%NULL%2,   Terrance%Healey%NULL%0,   Michael K.%Atalay%NULL%1,   Wei-Hua%Liao%liaoweihua2017@163.com%2,   Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,   Xiaolong%Qi%NULL%0,   Xiaolong%Qi%NULL%0,   Soon Ho%Yoon%yshoka@gmail.com%2,   Soon Ho%Yoon%yshoka@gmail.com%0,   Sang Joon%Park%NULL%2,   Sang Joon%Park%NULL%0,   Kyung Hee%Lee%NULL%2,   Kyung Hee%Lee%NULL%0,   Jin Yong%Kim%NULL%0,   Jin Yong%Kim%NULL%0,   Young Kyung%Lee%NULL%2,   Young Kyung%Lee%NULL%0,   Hongseok%Ko%NULL%2,   Hongseok%Ko%NULL%0,   Ki Hwan%Kim%NULL%2,   Ki Hwan%Kim%NULL%0,   Chang Min%Park%NULL%2,   Chang Min%Park%NULL%0,   Yun-Hyeon%Kim%NULL%2,   Yun-Hyeon%Kim%NULL%0,   Junqiang%Lei%NULL%2,   Junqiang%Lei%NULL%0,   Jung Hee%Hong%NULL%2,   Jung Hee%Hong%NULL%0,   Hyungjin%Kim%NULL%2,   Hyungjin%Kim%NULL%0,   Eui Jin%Hwang%NULL%2,   Eui Jin%Hwang%NULL%0,   Seung Jin%Yoo%NULL%2,   Seung Jin%Yoo%NULL%0,   Ju Gang%Nam%NULL%2,   Ju Gang%Nam%NULL%0,   Chang Hyun%Lee%NULL%2,   Chang Hyun%Lee%NULL%0,   Jin Mo%Goo%NULL%2,   Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,   Yanyan%Tang%NULL%1,   Yongkang%Mo%NULL%1,   Shengkai%Li%NULL%1,   Daiying%Lin%NULL%1,   Zhijian%Yang%NULL%1,   Zhiqi%Yang%NULL%1,   Hongfu%Sun%NULL%1,   Jinming%Qiu%NULL%1,   Yuting%Liao%NULL%1,   Jianning%Xiao%NULL%1,   Xiangguang%Chen%NULL%1,   Xianheng%Wu%NULL%1,   Renhua%Wu%NULL%1,   Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,   Marta%Zerunian%NULL%2,   Marta%Zerunian%NULL%0,   Michela%Polici%NULL%2,   Michela%Polici%NULL%0,   Francesco%Pucciarelli%NULL%2,   Francesco%Pucciarelli%NULL%0,   Tiziano%Polidori%NULL%2,   Tiziano%Polidori%NULL%0,   Carlotta%Rucci%NULL%2,   Carlotta%Rucci%NULL%0,   Gisella%Guido%NULL%2,   Gisella%Guido%NULL%0,   Benedetta%Bracci%NULL%2,   Benedetta%Bracci%NULL%0,   Chiara%de Dominicis%NULL%2,   Chiara%de Dominicis%NULL%0,   Andrea%Laghi%andrea.laghi@uniroma1.it%2,   Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,   Akihiko%Sakata%NULL%1,   Mitsuhiro%Kirita%NULL%1,   Takashi%Hiroi%NULL%1,   Ken-ichiro%Kobayashi%NULL%1,   Kenji%Kubo%NULL%1,   Hyunjin%Kim%NULL%1,   Azusa%Nishimoto%NULL%1,   Chikara%Maeda%NULL%1,   Akira%Kawamura%NULL%1,   Nobuhiro%Komiya%NULL%1,   Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,   Huaxiang%Xu%NULL%1,   Qinglin%Shen%NULL%1,   Xianghai%Zhang%NULL%1,   Bing%Fan%26171381@qq.com%0,   Chuanhong%Wang%NULL%1,   Bingliang%Zeng%NULL%1,   Zicong%Li%NULL%1,   Xiaofen%Li%NULL%1,   Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%1,   Mengdi%Jin%NULL%1,   Li%Miao%NULL%1,   Xinying%Yang%NULL%1,   Peng%Huang%NULL%0,   Huanwen%Xiong%NULL%1,   Peijie%Huang%NULL%1,   Qi%Zhao%NULL%1,   Jiang%Du%NULL%1,   Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%1,   Yonge%Chi%NULL%2,   Yonge%Chi%NULL%0,   Liang%Zhang%NULL%2,   Liang%Zhang%NULL%0,   Huan%Liu%NULL%0,   Huan%Liu%NULL%0,   Kun%Du%NULL%1,   Zhengxing%Li%NULL%2,   Zhengxing%Li%NULL%0,   Jie%Chen%NULL%2,   Jie%Chen%NULL%0,   Liuhui%Cheng%NULL%2,   Liuhui%Cheng%NULL%0,   Daoqing%Wang%wangdaoqing1215@126.com%2,   Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,   Guoqiang%Sun%NULL%0,   Fei%Tang%NULL%1,   Min%Peng%NULL%0,   Ying%Gao%NULL%1,   Jing%Peng%NULL%1,   Hui%Xie%NULL%0,   Yun%Zhao%NULL%1,   Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,   Kai%Xie%NULL%0,   Kai%Xie%NULL%0,   Hui%Lu%NULL%0,   Lei%Xu%bayinhexl@126.com%0,   Shusheng%Zhou%zhouss108@163.com%0,   Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,   Christopher%Gieraerts%NULL%2,   Christopher%Gieraerts%NULL%0,   Yves%De Bruecker%NULL%2,   Yves%De Bruecker%NULL%0,   Lode%Janssen%NULL%2,   Lode%Janssen%NULL%0,   Hanne%Valgaeren%NULL%2,   Hanne%Valgaeren%NULL%0,   Dagmar%Obbels%NULL%2,   Dagmar%Obbels%NULL%0,   Marc%Gillis%NULL%2,   Marc%Gillis%NULL%0,   Marc%Van Ranst%NULL%0,   Marc%Van Ranst%NULL%0,   Johan%Frans%NULL%0,   Annick%Demeyere%NULL%2,   Annick%Demeyere%NULL%0,   Rolf%Symons%rolf.symons@imelda.be%0,   Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,    Zhenlu%Yang%NULL%2,    Zhenlu%Yang%NULL%0,    Hongyan%Hou%NULL%2,    Hongyan%Hou%NULL%0,    Chenao%Zhan%NULL%1,    Chong%Chen%NULL%1,    Wenzhi%Lv%NULL%2,    Wenzhi%Lv%NULL%0,    Qian%Tao%NULL%2,    Qian%Tao%NULL%0,    Ziyong%Sun%NULL%0,    Ziyong%Sun%NULL%0,    Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,    Ben%Hsieh%NULL%1,    Zeng%Xiong%NULL%2,    Zeng%Xiong%NULL%0,    Kasey%Halsey%NULL%2,    Kasey%Halsey%NULL%0,    Ji Whae%Choi%NULL%2,    Ji Whae%Choi%NULL%0,    Thi My Linh%Tran%NULL%2,    Thi My Linh%Tran%NULL%0,    Ian%Pan%NULL%2,    Ian%Pan%NULL%0,    Lin-Bo%Shi%NULL%2,    Lin-Bo%Shi%NULL%0,    Dong-Cui%Wang%NULL%1,    Ji%Mei%NULL%2,    Ji%Mei%NULL%0,    Xiao-Long%Jiang%NULL%1,    Qiu-Hua%Zeng%NULL%1,    Thomas K.%Egglin%NULL%1,    Ping-Feng%Hu%NULL%2,    Ping-Feng%Hu%NULL%0,    Saurabh%Agarwal%NULL%1,    Fangfang%Xie%NULL%2,    Fangfang%Xie%NULL%0,    Sha%Li%NULL%1,    Terrance%Healey%NULL%2,    Terrance%Healey%NULL%0,    Michael K.%Atalay%NULL%1,    Wei-Hua%Liao%liaoweihua2017@163.com%2,    Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,    Xiaolong%Qi%NULL%0,    Xiaolong%Qi%NULL%0,    Soon Ho%Yoon%yshoka@gmail.com%2,    Soon Ho%Yoon%yshoka@gmail.com%0,    Sang Joon%Park%NULL%2,    Sang Joon%Park%NULL%0,    Kyung Hee%Lee%NULL%2,    Kyung Hee%Lee%NULL%0,    Jin Yong%Kim%NULL%0,    Jin Yong%Kim%NULL%0,    Young Kyung%Lee%NULL%2,    Young Kyung%Lee%NULL%0,    Hongseok%Ko%NULL%2,    Hongseok%Ko%NULL%0,    Ki Hwan%Kim%NULL%2,    Ki Hwan%Kim%NULL%0,    Chang Min%Park%NULL%2,    Chang Min%Park%NULL%0,    Yun-Hyeon%Kim%NULL%2,    Yun-Hyeon%Kim%NULL%0,    Junqiang%Lei%NULL%2,    Junqiang%Lei%NULL%0,    Jung Hee%Hong%NULL%2,    Jung Hee%Hong%NULL%0,    Hyungjin%Kim%NULL%2,    Hyungjin%Kim%NULL%0,    Eui Jin%Hwang%NULL%2,    Eui Jin%Hwang%NULL%0,    Seung Jin%Yoo%NULL%2,    Seung Jin%Yoo%NULL%0,    Ju Gang%Nam%NULL%2,    Ju Gang%Nam%NULL%0,    Chang Hyun%Lee%NULL%2,    Chang Hyun%Lee%NULL%0,    Jin Mo%Goo%NULL%2,    Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,    Yanyan%Tang%NULL%1,    Yongkang%Mo%NULL%1,    Shengkai%Li%NULL%1,    Daiying%Lin%NULL%1,    Zhijian%Yang%NULL%1,    Zhiqi%Yang%NULL%1,    Hongfu%Sun%NULL%1,    Jinming%Qiu%NULL%1,    Yuting%Liao%NULL%1,    Jianning%Xiao%NULL%1,    Xiangguang%Chen%NULL%1,    Xianheng%Wu%NULL%1,    Renhua%Wu%NULL%1,    Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,    Marta%Zerunian%NULL%2,    Marta%Zerunian%NULL%0,    Michela%Polici%NULL%2,    Michela%Polici%NULL%0,    Francesco%Pucciarelli%NULL%2,    Francesco%Pucciarelli%NULL%0,    Tiziano%Polidori%NULL%2,    Tiziano%Polidori%NULL%0,    Carlotta%Rucci%NULL%2,    Carlotta%Rucci%NULL%0,    Gisella%Guido%NULL%2,    Gisella%Guido%NULL%0,    Benedetta%Bracci%NULL%2,    Benedetta%Bracci%NULL%0,    Chiara%de Dominicis%NULL%2,    Chiara%de Dominicis%NULL%0,    Andrea%Laghi%andrea.laghi@uniroma1.it%2,    Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,    Akihiko%Sakata%NULL%1,    Mitsuhiro%Kirita%NULL%1,    Takashi%Hiroi%NULL%1,    Ken-ichiro%Kobayashi%NULL%1,    Kenji%Kubo%NULL%1,    Hyunjin%Kim%NULL%1,    Azusa%Nishimoto%NULL%1,    Chikara%Maeda%NULL%1,    Akira%Kawamura%NULL%1,    Nobuhiro%Komiya%NULL%1,    Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,    Huaxiang%Xu%NULL%1,    Qinglin%Shen%NULL%1,    Xianghai%Zhang%NULL%1,    Bing%Fan%26171381@qq.com%0,    Chuanhong%Wang%NULL%1,    Bingliang%Zeng%NULL%1,    Zicong%Li%NULL%1,    Xiaofen%Li%NULL%1,    Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%1,    Mengdi%Jin%NULL%1,    Li%Miao%NULL%1,    Xinying%Yang%NULL%1,    Peng%Huang%NULL%0,    Huanwen%Xiong%NULL%1,    Peijie%Huang%NULL%1,    Qi%Zhao%NULL%1,    Jiang%Du%NULL%1,    Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%1,    Yonge%Chi%NULL%2,    Yonge%Chi%NULL%0,    Liang%Zhang%NULL%2,    Liang%Zhang%NULL%0,    Huan%Liu%NULL%0,    Huan%Liu%NULL%0,    Kun%Du%NULL%1,    Zhengxing%Li%NULL%2,    Zhengxing%Li%NULL%0,    Jie%Chen%NULL%2,    Jie%Chen%NULL%0,    Liuhui%Cheng%NULL%2,    Liuhui%Cheng%NULL%0,    Daoqing%Wang%wangdaoqing1215@126.com%2,    Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,    Guoqiang%Sun%NULL%0,    Fei%Tang%NULL%1,    Min%Peng%NULL%0,    Ying%Gao%NULL%1,    Jing%Peng%NULL%1,    Hui%Xie%NULL%0,    Yun%Zhao%NULL%1,    Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,    Kai%Xie%NULL%0,    Kai%Xie%NULL%0,    Hui%Lu%NULL%0,    Lei%Xu%bayinhexl@126.com%0,    Shusheng%Zhou%zhouss108@163.com%0,    Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,    Christopher%Gieraerts%NULL%2,    Christopher%Gieraerts%NULL%0,    Yves%De Bruecker%NULL%2,    Yves%De Bruecker%NULL%0,    Lode%Janssen%NULL%2,    Lode%Janssen%NULL%0,    Hanne%Valgaeren%NULL%2,    Hanne%Valgaeren%NULL%0,    Dagmar%Obbels%NULL%2,    Dagmar%Obbels%NULL%0,    Marc%Gillis%NULL%2,    Marc%Gillis%NULL%0,    Marc%Van Ranst%NULL%0,    Marc%Van Ranst%NULL%0,    Johan%Frans%NULL%0,    Annick%Demeyere%NULL%2,    Annick%Demeyere%NULL%0,    Rolf%Symons%rolf.symons@imelda.be%0,    Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,     Zhenlu%Yang%NULL%2,     Zhenlu%Yang%NULL%0,     Hongyan%Hou%NULL%2,     Hongyan%Hou%NULL%0,     Chenao%Zhan%NULL%1,     Chong%Chen%NULL%1,     Wenzhi%Lv%NULL%2,     Wenzhi%Lv%NULL%0,     Qian%Tao%NULL%2,     Qian%Tao%NULL%0,     Ziyong%Sun%NULL%0,     Ziyong%Sun%NULL%0,     Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,     Ben%Hsieh%NULL%1,     Zeng%Xiong%NULL%2,     Zeng%Xiong%NULL%0,     Kasey%Halsey%NULL%2,     Kasey%Halsey%NULL%0,     Ji Whae%Choi%NULL%2,     Ji Whae%Choi%NULL%0,     Thi My Linh%Tran%NULL%2,     Thi My Linh%Tran%NULL%0,     Ian%Pan%NULL%2,     Ian%Pan%NULL%0,     Lin-Bo%Shi%NULL%2,     Lin-Bo%Shi%NULL%0,     Dong-Cui%Wang%NULL%1,     Ji%Mei%NULL%2,     Ji%Mei%NULL%0,     Xiao-Long%Jiang%NULL%1,     Qiu-Hua%Zeng%NULL%1,     Thomas K.%Egglin%NULL%1,     Ping-Feng%Hu%NULL%2,     Ping-Feng%Hu%NULL%0,     Saurabh%Agarwal%NULL%1,     Fangfang%Xie%NULL%2,     Fangfang%Xie%NULL%0,     Sha%Li%NULL%1,     Terrance%Healey%NULL%2,     Terrance%Healey%NULL%0,     Michael K.%Atalay%NULL%1,     Wei-Hua%Liao%liaoweihua2017@163.com%2,     Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,     Xiaolong%Qi%NULL%0,     Xiaolong%Qi%NULL%0,     Soon Ho%Yoon%yshoka@gmail.com%2,     Soon Ho%Yoon%yshoka@gmail.com%0,     Sang Joon%Park%NULL%2,     Sang Joon%Park%NULL%0,     Kyung Hee%Lee%NULL%2,     Kyung Hee%Lee%NULL%0,     Jin Yong%Kim%NULL%0,     Jin Yong%Kim%NULL%0,     Young Kyung%Lee%NULL%2,     Young Kyung%Lee%NULL%0,     Hongseok%Ko%NULL%2,     Hongseok%Ko%NULL%0,     Ki Hwan%Kim%NULL%2,     Ki Hwan%Kim%NULL%0,     Chang Min%Park%NULL%2,     Chang Min%Park%NULL%0,     Yun-Hyeon%Kim%NULL%2,     Yun-Hyeon%Kim%NULL%0,     Junqiang%Lei%NULL%2,     Junqiang%Lei%NULL%0,     Jung Hee%Hong%NULL%2,     Jung Hee%Hong%NULL%0,     Hyungjin%Kim%NULL%2,     Hyungjin%Kim%NULL%0,     Eui Jin%Hwang%NULL%2,     Eui Jin%Hwang%NULL%0,     Seung Jin%Yoo%NULL%2,     Seung Jin%Yoo%NULL%0,     Ju Gang%Nam%NULL%2,     Ju Gang%Nam%NULL%0,     Chang Hyun%Lee%NULL%2,     Chang Hyun%Lee%NULL%0,     Jin Mo%Goo%NULL%2,     Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,     Yanyan%Tang%NULL%1,     Yongkang%Mo%NULL%1,     Shengkai%Li%NULL%1,     Daiying%Lin%NULL%1,     Zhijian%Yang%NULL%1,     Zhiqi%Yang%NULL%1,     Hongfu%Sun%NULL%1,     Jinming%Qiu%NULL%1,     Yuting%Liao%NULL%1,     Jianning%Xiao%NULL%1,     Xiangguang%Chen%NULL%1,     Xianheng%Wu%NULL%1,     Renhua%Wu%NULL%1,     Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,     Marta%Zerunian%NULL%2,     Marta%Zerunian%NULL%0,     Michela%Polici%NULL%2,     Michela%Polici%NULL%0,     Francesco%Pucciarelli%NULL%2,     Francesco%Pucciarelli%NULL%0,     Tiziano%Polidori%NULL%2,     Tiziano%Polidori%NULL%0,     Carlotta%Rucci%NULL%2,     Carlotta%Rucci%NULL%0,     Gisella%Guido%NULL%2,     Gisella%Guido%NULL%0,     Benedetta%Bracci%NULL%2,     Benedetta%Bracci%NULL%0,     Chiara%de Dominicis%NULL%2,     Chiara%de Dominicis%NULL%0,     Andrea%Laghi%andrea.laghi@uniroma1.it%2,     Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,     Akihiko%Sakata%NULL%1,     Mitsuhiro%Kirita%NULL%1,     Takashi%Hiroi%NULL%1,     Ken-ichiro%Kobayashi%NULL%1,     Kenji%Kubo%NULL%1,     Hyunjin%Kim%NULL%1,     Azusa%Nishimoto%NULL%1,     Chikara%Maeda%NULL%1,     Akira%Kawamura%NULL%1,     Nobuhiro%Komiya%NULL%1,     Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,     Huaxiang%Xu%NULL%1,     Qinglin%Shen%NULL%1,     Xianghai%Zhang%NULL%1,     Bing%Fan%26171381@qq.com%0,     Chuanhong%Wang%NULL%1,     Bingliang%Zeng%NULL%1,     Zicong%Li%NULL%1,     Xiaofen%Li%NULL%1,     Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%1,     Mengdi%Jin%NULL%1,     Li%Miao%NULL%1,     Xinying%Yang%NULL%1,     Peng%Huang%NULL%1,     Huanwen%Xiong%NULL%1,     Peijie%Huang%NULL%1,     Qi%Zhao%NULL%1,     Jiang%Du%NULL%1,     Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%1,     Yonge%Chi%NULL%2,     Yonge%Chi%NULL%0,     Liang%Zhang%NULL%2,     Liang%Zhang%NULL%0,     Huan%Liu%NULL%0,     Huan%Liu%NULL%0,     Kun%Du%NULL%1,     Zhengxing%Li%NULL%2,     Zhengxing%Li%NULL%0,     Jie%Chen%NULL%2,     Jie%Chen%NULL%0,     Liuhui%Cheng%NULL%2,     Liuhui%Cheng%NULL%0,     Daoqing%Wang%wangdaoqing1215@126.com%2,     Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,     Guoqiang%Sun%NULL%0,     Fei%Tang%NULL%1,     Min%Peng%NULL%0,     Ying%Gao%NULL%1,     Jing%Peng%NULL%1,     Hui%Xie%NULL%0,     Yun%Zhao%NULL%1,     Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,     Kai%Xie%NULL%0,     Kai%Xie%NULL%0,     Hui%Lu%NULL%0,     Lei%Xu%bayinhexl@126.com%0,     Shusheng%Zhou%zhouss108@163.com%0,     Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,     Christopher%Gieraerts%NULL%2,     Christopher%Gieraerts%NULL%0,     Yves%De Bruecker%NULL%2,     Yves%De Bruecker%NULL%0,     Lode%Janssen%NULL%2,     Lode%Janssen%NULL%0,     Hanne%Valgaeren%NULL%2,     Hanne%Valgaeren%NULL%0,     Dagmar%Obbels%NULL%2,     Dagmar%Obbels%NULL%0,     Marc%Gillis%NULL%2,     Marc%Gillis%NULL%0,     Marc%Van Ranst%NULL%0,     Marc%Van Ranst%NULL%0,     Johan%Frans%NULL%0,     Annick%Demeyere%NULL%2,     Annick%Demeyere%NULL%0,     Rolf%Symons%rolf.symons@imelda.be%0,     Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,      Zhenlu%Yang%NULL%2,      Zhenlu%Yang%NULL%0,      Hongyan%Hou%NULL%2,      Hongyan%Hou%NULL%0,      Chenao%Zhan%NULL%1,      Chong%Chen%NULL%1,      Wenzhi%Lv%NULL%2,      Wenzhi%Lv%NULL%0,      Qian%Tao%NULL%2,      Qian%Tao%NULL%0,      Ziyong%Sun%NULL%0,      Ziyong%Sun%NULL%0,      Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,      Ben%Hsieh%NULL%1,      Zeng%Xiong%NULL%2,      Zeng%Xiong%NULL%0,      Kasey%Halsey%NULL%2,      Kasey%Halsey%NULL%0,      Ji Whae%Choi%NULL%2,      Ji Whae%Choi%NULL%0,      Thi My Linh%Tran%NULL%2,      Thi My Linh%Tran%NULL%0,      Ian%Pan%NULL%2,      Ian%Pan%NULL%0,      Lin-Bo%Shi%NULL%2,      Lin-Bo%Shi%NULL%0,      Dong-Cui%Wang%NULL%1,      Ji%Mei%NULL%2,      Ji%Mei%NULL%0,      Xiao-Long%Jiang%NULL%1,      Qiu-Hua%Zeng%NULL%1,      Thomas K.%Egglin%NULL%1,      Ping-Feng%Hu%NULL%2,      Ping-Feng%Hu%NULL%0,      Saurabh%Agarwal%NULL%1,      Fangfang%Xie%NULL%2,      Fangfang%Xie%NULL%0,      Sha%Li%NULL%1,      Terrance%Healey%NULL%2,      Terrance%Healey%NULL%0,      Michael K.%Atalay%NULL%1,      Wei-Hua%Liao%liaoweihua2017@163.com%2,      Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,      Xiaolong%Qi%NULL%0,      Xiaolong%Qi%NULL%0,      Soon Ho%Yoon%yshoka@gmail.com%2,      Soon Ho%Yoon%yshoka@gmail.com%0,      Sang Joon%Park%NULL%2,      Sang Joon%Park%NULL%0,      Kyung Hee%Lee%NULL%2,      Kyung Hee%Lee%NULL%0,      Jin Yong%Kim%NULL%0,      Jin Yong%Kim%NULL%0,      Young Kyung%Lee%NULL%2,      Young Kyung%Lee%NULL%0,      Hongseok%Ko%NULL%2,      Hongseok%Ko%NULL%0,      Ki Hwan%Kim%NULL%2,      Ki Hwan%Kim%NULL%0,      Chang Min%Park%NULL%2,      Chang Min%Park%NULL%0,      Yun-Hyeon%Kim%NULL%2,      Yun-Hyeon%Kim%NULL%0,      Junqiang%Lei%NULL%2,      Junqiang%Lei%NULL%0,      Jung Hee%Hong%NULL%2,      Jung Hee%Hong%NULL%0,      Hyungjin%Kim%NULL%2,      Hyungjin%Kim%NULL%0,      Eui Jin%Hwang%NULL%2,      Eui Jin%Hwang%NULL%0,      Seung Jin%Yoo%NULL%2,      Seung Jin%Yoo%NULL%0,      Ju Gang%Nam%NULL%2,      Ju Gang%Nam%NULL%0,      Chang Hyun%Lee%NULL%2,      Chang Hyun%Lee%NULL%0,      Jin Mo%Goo%NULL%2,      Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,      Yanyan%Tang%NULL%1,      Yongkang%Mo%NULL%1,      Shengkai%Li%NULL%1,      Daiying%Lin%NULL%1,      Zhijian%Yang%NULL%1,      Zhiqi%Yang%NULL%1,      Hongfu%Sun%NULL%1,      Jinming%Qiu%NULL%1,      Yuting%Liao%NULL%1,      Jianning%Xiao%NULL%1,      Xiangguang%Chen%NULL%1,      Xianheng%Wu%NULL%1,      Renhua%Wu%NULL%1,      Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,      Marta%Zerunian%NULL%2,      Marta%Zerunian%NULL%0,      Michela%Polici%NULL%2,      Michela%Polici%NULL%0,      Francesco%Pucciarelli%NULL%2,      Francesco%Pucciarelli%NULL%0,      Tiziano%Polidori%NULL%2,      Tiziano%Polidori%NULL%0,      Carlotta%Rucci%NULL%2,      Carlotta%Rucci%NULL%0,      Gisella%Guido%NULL%2,      Gisella%Guido%NULL%0,      Benedetta%Bracci%NULL%2,      Benedetta%Bracci%NULL%0,      Chiara%de Dominicis%NULL%2,      Chiara%de Dominicis%NULL%0,      Andrea%Laghi%andrea.laghi@uniroma1.it%2,      Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,      Akihiko%Sakata%NULL%1,      Mitsuhiro%Kirita%NULL%1,      Takashi%Hiroi%NULL%1,      Ken-ichiro%Kobayashi%NULL%1,      Kenji%Kubo%NULL%1,      Hyunjin%Kim%NULL%1,      Azusa%Nishimoto%NULL%1,      Chikara%Maeda%NULL%1,      Akira%Kawamura%NULL%1,      Nobuhiro%Komiya%NULL%1,      Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,      Huaxiang%Xu%NULL%1,      Qinglin%Shen%NULL%1,      Xianghai%Zhang%NULL%1,      Bing%Fan%26171381@qq.com%0,      Chuanhong%Wang%NULL%1,      Bingliang%Zeng%NULL%1,      Zicong%Li%NULL%1,      Xiaofen%Li%NULL%1,      Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%1,      Mengdi%Jin%NULL%1,      Li%Miao%NULL%1,      Xinying%Yang%NULL%1,      Peng%Huang%NULL%1,      Huanwen%Xiong%NULL%1,      Peijie%Huang%NULL%1,      Qi%Zhao%NULL%1,      Jiang%Du%NULL%1,      Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%1,      Yonge%Chi%NULL%2,      Yonge%Chi%NULL%0,      Liang%Zhang%NULL%2,      Liang%Zhang%NULL%0,      Huan%Liu%NULL%0,      Huan%Liu%NULL%0,      Kun%Du%NULL%1,      Zhengxing%Li%NULL%2,      Zhengxing%Li%NULL%0,      Jie%Chen%NULL%2,      Jie%Chen%NULL%0,      Liuhui%Cheng%NULL%2,      Liuhui%Cheng%NULL%0,      Daoqing%Wang%wangdaoqing1215@126.com%2,      Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,      Guoqiang%Sun%NULL%0,      Fei%Tang%NULL%1,      Min%Peng%NULL%0,      Ying%Gao%NULL%1,      Jing%Peng%NULL%1,      Hui%Xie%NULL%0,      Yun%Zhao%NULL%1,      Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,      Kai%Xie%NULL%0,      Kai%Xie%NULL%0,      Hui%Lu%NULL%0,      Lei%Xu%bayinhexl@126.com%0,      Shusheng%Zhou%zhouss108@163.com%0,      Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,      Christopher%Gieraerts%NULL%2,      Christopher%Gieraerts%NULL%0,      Yves%De Bruecker%NULL%2,      Yves%De Bruecker%NULL%0,      Lode%Janssen%NULL%2,      Lode%Janssen%NULL%0,      Hanne%Valgaeren%NULL%2,      Hanne%Valgaeren%NULL%0,      Dagmar%Obbels%NULL%2,      Dagmar%Obbels%NULL%0,      Marc%Gillis%NULL%2,      Marc%Gillis%NULL%0,      Marc%Van Ranst%NULL%0,      Marc%Van Ranst%NULL%0,      Johan%Frans%NULL%0,      Annick%Demeyere%NULL%2,      Annick%Demeyere%NULL%0,      Rolf%Symons%rolf.symons@imelda.be%0,      Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -906,7 +1050,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -935,7 +1079,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -993,7 +1137,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1022,7 +1166,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1051,7 +1195,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1080,7 +1224,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1109,7 +1253,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1138,7 +1282,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1167,7 +1311,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1196,7 +1340,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1225,7 +1369,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1254,7 +1398,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="181">
   <si>
     <t>Doi</t>
   </si>
@@ -685,6 +685,93 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,      Christopher%Gieraerts%NULL%2,      Christopher%Gieraerts%NULL%0,      Yves%De Bruecker%NULL%2,      Yves%De Bruecker%NULL%0,      Lode%Janssen%NULL%2,      Lode%Janssen%NULL%0,      Hanne%Valgaeren%NULL%2,      Hanne%Valgaeren%NULL%0,      Dagmar%Obbels%NULL%2,      Dagmar%Obbels%NULL%0,      Marc%Gillis%NULL%2,      Marc%Gillis%NULL%0,      Marc%Van Ranst%NULL%0,      Marc%Van Ranst%NULL%0,      Johan%Frans%NULL%0,      Annick%Demeyere%NULL%2,      Annick%Demeyere%NULL%0,      Rolf%Symons%rolf.symons@imelda.be%0,      Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,       Zhenlu%Yang%NULL%2,       Zhenlu%Yang%NULL%0,       Hongyan%Hou%NULL%2,       Hongyan%Hou%NULL%0,       Chenao%Zhan%NULL%1,       Chong%Chen%NULL%1,       Wenzhi%Lv%NULL%2,       Wenzhi%Lv%NULL%0,       Qian%Tao%NULL%2,       Qian%Tao%NULL%0,       Ziyong%Sun%NULL%0,       Ziyong%Sun%NULL%0,       Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,       Ben%Hsieh%NULL%1,       Zeng%Xiong%NULL%2,       Zeng%Xiong%NULL%0,       Kasey%Halsey%NULL%2,       Kasey%Halsey%NULL%0,       Ji Whae%Choi%NULL%2,       Ji Whae%Choi%NULL%0,       Thi My Linh%Tran%NULL%2,       Thi My Linh%Tran%NULL%0,       Ian%Pan%NULL%2,       Ian%Pan%NULL%0,       Lin-Bo%Shi%NULL%2,       Lin-Bo%Shi%NULL%0,       Dong-Cui%Wang%NULL%1,       Ji%Mei%NULL%2,       Ji%Mei%NULL%0,       Xiao-Long%Jiang%NULL%1,       Qiu-Hua%Zeng%NULL%1,       Thomas K.%Egglin%NULL%1,       Ping-Feng%Hu%NULL%2,       Ping-Feng%Hu%NULL%0,       Saurabh%Agarwal%NULL%1,       Fangfang%Xie%NULL%2,       Fangfang%Xie%NULL%0,       Sha%Li%NULL%1,       Terrance%Healey%NULL%2,       Terrance%Healey%NULL%0,       Michael K.%Atalay%NULL%1,       Wei-Hua%Liao%liaoweihua2017@163.com%2,       Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>"Clinical Features and Chest CT Manifestations of Coronavirus Disease 2019 (COVID-19) in a Single-Center Study in Shanghai, China"</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%1, Yong%Lu%xref no email%1, Qiqi%Cao%xref no email%1, Le%Qin%xref no email%1, Zilai%Pan%xref no email%1, Fuhua%Yan%xref no email%1, Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-09</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,       Xiaolong%Qi%NULL%0,       Xiaolong%Qi%NULL%0,       Soon Ho%Yoon%yshoka@gmail.com%2,       Soon Ho%Yoon%yshoka@gmail.com%0,       Sang Joon%Park%NULL%2,       Sang Joon%Park%NULL%0,       Kyung Hee%Lee%NULL%2,       Kyung Hee%Lee%NULL%0,       Jin Yong%Kim%NULL%0,       Jin Yong%Kim%NULL%0,       Young Kyung%Lee%NULL%2,       Young Kyung%Lee%NULL%0,       Hongseok%Ko%NULL%2,       Hongseok%Ko%NULL%0,       Ki Hwan%Kim%NULL%2,       Ki Hwan%Kim%NULL%0,       Chang Min%Park%NULL%2,       Chang Min%Park%NULL%0,       Yun-Hyeon%Kim%NULL%2,       Yun-Hyeon%Kim%NULL%0,       Junqiang%Lei%NULL%2,       Junqiang%Lei%NULL%0,       Jung Hee%Hong%NULL%2,       Jung Hee%Hong%NULL%0,       Hyungjin%Kim%NULL%2,       Hyungjin%Kim%NULL%0,       Eui Jin%Hwang%NULL%2,       Eui Jin%Hwang%NULL%0,       Seung Jin%Yoo%NULL%2,       Seung Jin%Yoo%NULL%0,       Ju Gang%Nam%NULL%2,       Ju Gang%Nam%NULL%0,       Chang Hyun%Lee%NULL%2,       Chang Hyun%Lee%NULL%0,       Jin Mo%Goo%NULL%2,       Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,       Yanyan%Tang%NULL%1,       Yongkang%Mo%NULL%1,       Shengkai%Li%NULL%1,       Daiying%Lin%NULL%1,       Zhijian%Yang%NULL%1,       Zhiqi%Yang%NULL%1,       Hongfu%Sun%NULL%1,       Jinming%Qiu%NULL%1,       Yuting%Liao%NULL%1,       Jianning%Xiao%NULL%1,       Xiangguang%Chen%NULL%1,       Xianheng%Wu%NULL%1,       Renhua%Wu%NULL%1,       Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,       Marta%Zerunian%NULL%2,       Marta%Zerunian%NULL%0,       Michela%Polici%NULL%2,       Michela%Polici%NULL%0,       Francesco%Pucciarelli%NULL%2,       Francesco%Pucciarelli%NULL%0,       Tiziano%Polidori%NULL%2,       Tiziano%Polidori%NULL%0,       Carlotta%Rucci%NULL%2,       Carlotta%Rucci%NULL%0,       Gisella%Guido%NULL%2,       Gisella%Guido%NULL%0,       Benedetta%Bracci%NULL%2,       Benedetta%Bracci%NULL%0,       Chiara%de Dominicis%NULL%2,       Chiara%de Dominicis%NULL%0,       Andrea%Laghi%andrea.laghi@uniroma1.it%2,       Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,       Akihiko%Sakata%NULL%1,       Mitsuhiro%Kirita%NULL%1,       Takashi%Hiroi%NULL%1,       Ken-ichiro%Kobayashi%NULL%1,       Kenji%Kubo%NULL%1,       Hyunjin%Kim%NULL%1,       Azusa%Nishimoto%NULL%1,       Chikara%Maeda%NULL%1,       Akira%Kawamura%NULL%1,       Nobuhiro%Komiya%NULL%1,       Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,       Huaxiang%Xu%NULL%1,       Qinglin%Shen%NULL%1,       Xianghai%Zhang%NULL%1,       Bing%Fan%26171381@qq.com%0,       Chuanhong%Wang%NULL%1,       Bingliang%Zeng%NULL%1,       Zicong%Li%NULL%1,       Xiaofen%Li%NULL%1,       Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%1,       Mengdi%Jin%NULL%1,       Li%Miao%NULL%1,       Xinying%Yang%NULL%1,       Peng%Huang%NULL%1,       Huanwen%Xiong%NULL%1,       Peijie%Huang%NULL%1,       Qi%Zhao%NULL%1,       Jiang%Du%NULL%1,       Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%1,       Yonge%Chi%NULL%2,       Yonge%Chi%NULL%0,       Liang%Zhang%NULL%2,       Liang%Zhang%NULL%0,       Huan%Liu%NULL%0,       Huan%Liu%NULL%0,       Kun%Du%NULL%1,       Zhengxing%Li%NULL%2,       Zhengxing%Li%NULL%0,       Jie%Chen%NULL%2,       Jie%Chen%NULL%0,       Liuhui%Cheng%NULL%2,       Liuhui%Cheng%NULL%0,       Daoqing%Wang%wangdaoqing1215@126.com%2,       Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,       Guoqiang%Sun%NULL%0,       Fei%Tang%NULL%1,       Min%Peng%NULL%0,       Ying%Gao%NULL%1,       Jing%Peng%NULL%1,       Hui%Xie%NULL%0,       Yun%Zhao%NULL%1,       Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,       Kai%Xie%NULL%0,       Kai%Xie%NULL%0,       Hui%Lu%NULL%0,       Lei%Xu%bayinhexl@126.com%0,       Shusheng%Zhou%zhouss108@163.com%0,       Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,       Christopher%Gieraerts%NULL%2,       Christopher%Gieraerts%NULL%0,       Yves%De Bruecker%NULL%2,       Yves%De Bruecker%NULL%0,       Lode%Janssen%NULL%2,       Lode%Janssen%NULL%0,       Hanne%Valgaeren%NULL%2,       Hanne%Valgaeren%NULL%0,       Dagmar%Obbels%NULL%2,       Dagmar%Obbels%NULL%0,       Marc%Gillis%NULL%2,       Marc%Gillis%NULL%0,       Marc%Van Ranst%NULL%0,       Marc%Van Ranst%NULL%0,       Johan%Frans%NULL%0,       Annick%Demeyere%NULL%2,       Annick%Demeyere%NULL%0,       Rolf%Symons%rolf.symons@imelda.be%0,       Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,        Zhenlu%Yang%NULL%2,        Zhenlu%Yang%NULL%0,        Hongyan%Hou%NULL%2,        Hongyan%Hou%NULL%0,        Chenao%Zhan%NULL%1,        Chong%Chen%NULL%1,        Wenzhi%Lv%NULL%2,        Wenzhi%Lv%NULL%0,        Qian%Tao%NULL%2,        Qian%Tao%NULL%0,        Ziyong%Sun%NULL%0,        Ziyong%Sun%NULL%0,        Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,        Ben%Hsieh%NULL%1,        Zeng%Xiong%NULL%2,        Zeng%Xiong%NULL%0,        Kasey%Halsey%NULL%2,        Kasey%Halsey%NULL%0,        Ji Whae%Choi%NULL%2,        Ji Whae%Choi%NULL%0,        Thi My Linh%Tran%NULL%2,        Thi My Linh%Tran%NULL%0,        Ian%Pan%NULL%2,        Ian%Pan%NULL%0,        Lin-Bo%Shi%NULL%2,        Lin-Bo%Shi%NULL%0,        Dong-Cui%Wang%NULL%1,        Ji%Mei%NULL%2,        Ji%Mei%NULL%0,        Xiao-Long%Jiang%NULL%1,        Qiu-Hua%Zeng%NULL%1,        Thomas K.%Egglin%NULL%1,        Ping-Feng%Hu%NULL%2,        Ping-Feng%Hu%NULL%0,        Saurabh%Agarwal%NULL%1,        Fangfang%Xie%NULL%2,        Fangfang%Xie%NULL%0,        Sha%Li%NULL%1,        Terrance%Healey%NULL%2,        Terrance%Healey%NULL%0,        Michael K.%Atalay%NULL%1,        Wei-Hua%Liao%liaoweihua2017@163.com%2,        Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%1,  Yong%Lu%xref no email%1,  Qiqi%Cao%xref no email%1,  Le%Qin%xref no email%1,  Zilai%Pan%xref no email%1,  Fuhua%Yan%xref no email%1,  Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,        Xiaolong%Qi%NULL%0,        Xiaolong%Qi%NULL%0,        Soon Ho%Yoon%yshoka@gmail.com%2,        Soon Ho%Yoon%yshoka@gmail.com%0,        Sang Joon%Park%NULL%2,        Sang Joon%Park%NULL%0,        Kyung Hee%Lee%NULL%2,        Kyung Hee%Lee%NULL%0,        Jin Yong%Kim%NULL%0,        Jin Yong%Kim%NULL%0,        Young Kyung%Lee%NULL%2,        Young Kyung%Lee%NULL%0,        Hongseok%Ko%NULL%2,        Hongseok%Ko%NULL%0,        Ki Hwan%Kim%NULL%2,        Ki Hwan%Kim%NULL%0,        Chang Min%Park%NULL%2,        Chang Min%Park%NULL%0,        Yun-Hyeon%Kim%NULL%2,        Yun-Hyeon%Kim%NULL%0,        Junqiang%Lei%NULL%2,        Junqiang%Lei%NULL%0,        Jung Hee%Hong%NULL%2,        Jung Hee%Hong%NULL%0,        Hyungjin%Kim%NULL%2,        Hyungjin%Kim%NULL%0,        Eui Jin%Hwang%NULL%2,        Eui Jin%Hwang%NULL%0,        Seung Jin%Yoo%NULL%2,        Seung Jin%Yoo%NULL%0,        Ju Gang%Nam%NULL%2,        Ju Gang%Nam%NULL%0,        Chang Hyun%Lee%NULL%2,        Chang Hyun%Lee%NULL%0,        Jin Mo%Goo%NULL%2,        Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,        Yanyan%Tang%NULL%1,        Yongkang%Mo%NULL%1,        Shengkai%Li%NULL%1,        Daiying%Lin%NULL%1,        Zhijian%Yang%NULL%1,        Zhiqi%Yang%NULL%1,        Hongfu%Sun%NULL%1,        Jinming%Qiu%NULL%1,        Yuting%Liao%NULL%1,        Jianning%Xiao%NULL%1,        Xiangguang%Chen%NULL%1,        Xianheng%Wu%NULL%1,        Renhua%Wu%NULL%1,        Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,        Marta%Zerunian%NULL%2,        Marta%Zerunian%NULL%0,        Michela%Polici%NULL%2,        Michela%Polici%NULL%0,        Francesco%Pucciarelli%NULL%2,        Francesco%Pucciarelli%NULL%0,        Tiziano%Polidori%NULL%2,        Tiziano%Polidori%NULL%0,        Carlotta%Rucci%NULL%2,        Carlotta%Rucci%NULL%0,        Gisella%Guido%NULL%2,        Gisella%Guido%NULL%0,        Benedetta%Bracci%NULL%2,        Benedetta%Bracci%NULL%0,        Chiara%de Dominicis%NULL%2,        Chiara%de Dominicis%NULL%0,        Andrea%Laghi%andrea.laghi@uniroma1.it%2,        Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,        Akihiko%Sakata%NULL%1,        Mitsuhiro%Kirita%NULL%1,        Takashi%Hiroi%NULL%1,        Ken-ichiro%Kobayashi%NULL%1,        Kenji%Kubo%NULL%1,        Hyunjin%Kim%NULL%1,        Azusa%Nishimoto%NULL%1,        Chikara%Maeda%NULL%1,        Akira%Kawamura%NULL%1,        Nobuhiro%Komiya%NULL%1,        Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,        Huaxiang%Xu%NULL%1,        Qinglin%Shen%NULL%1,        Xianghai%Zhang%NULL%1,        Bing%Fan%26171381@qq.com%0,        Chuanhong%Wang%NULL%1,        Bingliang%Zeng%NULL%1,        Zicong%Li%NULL%1,        Xiaofen%Li%NULL%1,        Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%1,        Mengdi%Jin%NULL%1,        Li%Miao%NULL%1,        Xinying%Yang%NULL%1,        Peng%Huang%NULL%1,        Huanwen%Xiong%NULL%1,        Peijie%Huang%NULL%1,        Qi%Zhao%NULL%1,        Jiang%Du%NULL%1,        Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%1,        Yonge%Chi%NULL%2,        Yonge%Chi%NULL%0,        Liang%Zhang%NULL%2,        Liang%Zhang%NULL%0,        Huan%Liu%NULL%0,        Huan%Liu%NULL%0,        Kun%Du%NULL%1,        Zhengxing%Li%NULL%2,        Zhengxing%Li%NULL%0,        Jie%Chen%NULL%2,        Jie%Chen%NULL%0,        Liuhui%Cheng%NULL%2,        Liuhui%Cheng%NULL%0,        Daoqing%Wang%wangdaoqing1215@126.com%2,        Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,        Guoqiang%Sun%NULL%0,        Fei%Tang%NULL%1,        Min%Peng%NULL%0,        Ying%Gao%NULL%1,        Jing%Peng%NULL%1,        Hui%Xie%NULL%0,        Yun%Zhao%NULL%1,        Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,        Kai%Xie%NULL%0,        Kai%Xie%NULL%0,        Hui%Lu%NULL%0,        Lei%Xu%bayinhexl@126.com%0,        Shusheng%Zhou%zhouss108@163.com%0,        Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,        Christopher%Gieraerts%NULL%2,        Christopher%Gieraerts%NULL%0,        Yves%De Bruecker%NULL%2,        Yves%De Bruecker%NULL%0,        Lode%Janssen%NULL%2,        Lode%Janssen%NULL%0,        Hanne%Valgaeren%NULL%2,        Hanne%Valgaeren%NULL%0,        Dagmar%Obbels%NULL%2,        Dagmar%Obbels%NULL%0,        Marc%Gillis%NULL%2,        Marc%Gillis%NULL%0,        Marc%Van Ranst%NULL%0,        Marc%Van Ranst%NULL%0,        Johan%Frans%NULL%0,        Annick%Demeyere%NULL%2,        Annick%Demeyere%NULL%0,        Rolf%Symons%rolf.symons@imelda.be%0,        Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1137,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1079,7 +1166,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1102,22 +1189,22 @@
         <v>43888</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="I4" t="s">
         <v>28</v>
@@ -1137,7 +1224,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1166,7 +1253,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1195,7 +1282,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1224,7 +1311,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1253,7 +1340,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1282,7 +1369,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1311,7 +1398,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1340,7 +1427,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1369,7 +1456,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1398,7 +1485,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="207">
   <si>
     <t>Doi</t>
   </si>
@@ -772,6 +772,84 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,        Christopher%Gieraerts%NULL%2,        Christopher%Gieraerts%NULL%0,        Yves%De Bruecker%NULL%2,        Yves%De Bruecker%NULL%0,        Lode%Janssen%NULL%2,        Lode%Janssen%NULL%0,        Hanne%Valgaeren%NULL%2,        Hanne%Valgaeren%NULL%0,        Dagmar%Obbels%NULL%2,        Dagmar%Obbels%NULL%0,        Marc%Gillis%NULL%2,        Marc%Gillis%NULL%0,        Marc%Van Ranst%NULL%0,        Marc%Van Ranst%NULL%0,        Johan%Frans%NULL%0,        Annick%Demeyere%NULL%2,        Annick%Demeyere%NULL%0,        Rolf%Symons%rolf.symons@imelda.be%0,        Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,         Zhenlu%Yang%NULL%2,         Zhenlu%Yang%NULL%0,         Hongyan%Hou%NULL%2,         Hongyan%Hou%NULL%0,         Chenao%Zhan%NULL%1,         Chong%Chen%NULL%1,         Wenzhi%Lv%NULL%2,         Wenzhi%Lv%NULL%0,         Qian%Tao%NULL%2,         Qian%Tao%NULL%0,         Ziyong%Sun%NULL%0,         Ziyong%Sun%NULL%0,         Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,         Ben%Hsieh%NULL%1,         Zeng%Xiong%NULL%2,         Zeng%Xiong%NULL%0,         Kasey%Halsey%NULL%2,         Kasey%Halsey%NULL%0,         Ji Whae%Choi%NULL%2,         Ji Whae%Choi%NULL%0,         Thi My Linh%Tran%NULL%2,         Thi My Linh%Tran%NULL%0,         Ian%Pan%NULL%2,         Ian%Pan%NULL%0,         Lin-Bo%Shi%NULL%2,         Lin-Bo%Shi%NULL%0,         Dong-Cui%Wang%NULL%1,         Ji%Mei%NULL%2,         Ji%Mei%NULL%0,         Xiao-Long%Jiang%NULL%1,         Qiu-Hua%Zeng%NULL%1,         Thomas K.%Egglin%NULL%1,         Ping-Feng%Hu%NULL%2,         Ping-Feng%Hu%NULL%0,         Saurabh%Agarwal%NULL%1,         Fangfang%Xie%NULL%2,         Fangfang%Xie%NULL%0,         Sha%Li%NULL%1,         Terrance%Healey%NULL%2,         Terrance%Healey%NULL%0,         Michael K.%Atalay%NULL%1,         Wei-Hua%Liao%liaoweihua2017@163.com%2,         Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%1,   Yong%Lu%xref no email%1,   Qiqi%Cao%xref no email%1,   Le%Qin%xref no email%1,   Zilai%Pan%xref no email%1,   Fuhua%Yan%xref no email%1,   Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,         Xiaolong%Qi%NULL%0,         Xiaolong%Qi%NULL%0,         Soon Ho%Yoon%yshoka@gmail.com%2,         Soon Ho%Yoon%yshoka@gmail.com%0,         Sang Joon%Park%NULL%2,         Sang Joon%Park%NULL%0,         Kyung Hee%Lee%NULL%2,         Kyung Hee%Lee%NULL%0,         Jin Yong%Kim%NULL%0,         Jin Yong%Kim%NULL%0,         Young Kyung%Lee%NULL%2,         Young Kyung%Lee%NULL%0,         Hongseok%Ko%NULL%2,         Hongseok%Ko%NULL%0,         Ki Hwan%Kim%NULL%2,         Ki Hwan%Kim%NULL%0,         Chang Min%Park%NULL%2,         Chang Min%Park%NULL%0,         Yun-Hyeon%Kim%NULL%2,         Yun-Hyeon%Kim%NULL%0,         Junqiang%Lei%NULL%2,         Junqiang%Lei%NULL%0,         Jung Hee%Hong%NULL%2,         Jung Hee%Hong%NULL%0,         Hyungjin%Kim%NULL%2,         Hyungjin%Kim%NULL%0,         Eui Jin%Hwang%NULL%2,         Eui Jin%Hwang%NULL%0,         Seung Jin%Yoo%NULL%2,         Seung Jin%Yoo%NULL%0,         Ju Gang%Nam%NULL%2,         Ju Gang%Nam%NULL%0,         Chang Hyun%Lee%NULL%2,         Chang Hyun%Lee%NULL%0,         Jin Mo%Goo%NULL%2,         Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,         Yanyan%Tang%NULL%1,         Yongkang%Mo%NULL%1,         Shengkai%Li%NULL%1,         Daiying%Lin%NULL%1,         Zhijian%Yang%NULL%1,         Zhiqi%Yang%NULL%1,         Hongfu%Sun%NULL%1,         Jinming%Qiu%NULL%1,         Yuting%Liao%NULL%1,         Jianning%Xiao%NULL%1,         Xiangguang%Chen%NULL%1,         Xianheng%Wu%NULL%1,         Renhua%Wu%NULL%1,         Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,         Marta%Zerunian%NULL%2,         Marta%Zerunian%NULL%0,         Michela%Polici%NULL%2,         Michela%Polici%NULL%0,         Francesco%Pucciarelli%NULL%2,         Francesco%Pucciarelli%NULL%0,         Tiziano%Polidori%NULL%2,         Tiziano%Polidori%NULL%0,         Carlotta%Rucci%NULL%2,         Carlotta%Rucci%NULL%0,         Gisella%Guido%NULL%2,         Gisella%Guido%NULL%0,         Benedetta%Bracci%NULL%2,         Benedetta%Bracci%NULL%0,         Chiara%de Dominicis%NULL%2,         Chiara%de Dominicis%NULL%0,         Andrea%Laghi%andrea.laghi@uniroma1.it%2,         Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,         Akihiko%Sakata%NULL%1,         Mitsuhiro%Kirita%NULL%1,         Takashi%Hiroi%NULL%1,         Ken-ichiro%Kobayashi%NULL%1,         Kenji%Kubo%NULL%1,         Hyunjin%Kim%NULL%1,         Azusa%Nishimoto%NULL%1,         Chikara%Maeda%NULL%1,         Akira%Kawamura%NULL%1,         Nobuhiro%Komiya%NULL%1,         Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,         Huaxiang%Xu%NULL%1,         Qinglin%Shen%NULL%1,         Xianghai%Zhang%NULL%1,         Bing%Fan%26171381@qq.com%0,         Chuanhong%Wang%NULL%1,         Bingliang%Zeng%NULL%1,         Zicong%Li%NULL%1,         Xiaofen%Li%NULL%1,         Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%1,         Mengdi%Jin%NULL%1,         Li%Miao%NULL%1,         Xinying%Yang%NULL%1,         Peng%Huang%NULL%1,         Huanwen%Xiong%NULL%1,         Peijie%Huang%NULL%1,         Qi%Zhao%NULL%1,         Jiang%Du%NULL%1,         Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%1,         Yonge%Chi%NULL%2,         Yonge%Chi%NULL%0,         Liang%Zhang%NULL%2,         Liang%Zhang%NULL%0,         Huan%Liu%NULL%0,         Huan%Liu%NULL%0,         Kun%Du%NULL%1,         Zhengxing%Li%NULL%2,         Zhengxing%Li%NULL%0,         Jie%Chen%NULL%2,         Jie%Chen%NULL%0,         Liuhui%Cheng%NULL%2,         Liuhui%Cheng%NULL%0,         Daoqing%Wang%wangdaoqing1215@126.com%2,         Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,         Guoqiang%Sun%NULL%0,         Fei%Tang%NULL%1,         Min%Peng%NULL%0,         Ying%Gao%NULL%1,         Jing%Peng%NULL%1,         Hui%Xie%NULL%0,         Yun%Zhao%NULL%1,         Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,         Kai%Xie%NULL%0,         Kai%Xie%NULL%0,         Hui%Lu%NULL%0,         Lei%Xu%bayinhexl@126.com%0,         Shusheng%Zhou%zhouss108@163.com%0,         Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,         Christopher%Gieraerts%NULL%2,         Christopher%Gieraerts%NULL%0,         Yves%De Bruecker%NULL%2,         Yves%De Bruecker%NULL%0,         Lode%Janssen%NULL%2,         Lode%Janssen%NULL%0,         Hanne%Valgaeren%NULL%2,         Hanne%Valgaeren%NULL%0,         Dagmar%Obbels%NULL%2,         Dagmar%Obbels%NULL%0,         Marc%Gillis%NULL%2,         Marc%Gillis%NULL%0,         Marc%Van Ranst%NULL%0,         Marc%Van Ranst%NULL%0,         Johan%Frans%NULL%0,         Annick%Demeyere%NULL%2,         Annick%Demeyere%NULL%0,         Rolf%Symons%rolf.symons@imelda.be%0,         Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,          Zhenlu%Yang%NULL%2,          Zhenlu%Yang%NULL%0,          Hongyan%Hou%NULL%2,          Hongyan%Hou%NULL%0,          Chenao%Zhan%NULL%1,          Chong%Chen%NULL%1,          Wenzhi%Lv%NULL%2,          Wenzhi%Lv%NULL%0,          Qian%Tao%NULL%2,          Qian%Tao%NULL%0,          Ziyong%Sun%NULL%0,          Ziyong%Sun%NULL%0,          Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,          Ben%Hsieh%NULL%1,          Zeng%Xiong%NULL%2,          Zeng%Xiong%NULL%0,          Kasey%Halsey%NULL%2,          Kasey%Halsey%NULL%0,          Ji Whae%Choi%NULL%2,          Ji Whae%Choi%NULL%0,          Thi My Linh%Tran%NULL%2,          Thi My Linh%Tran%NULL%0,          Ian%Pan%NULL%2,          Ian%Pan%NULL%0,          Lin-Bo%Shi%NULL%2,          Lin-Bo%Shi%NULL%0,          Dong-Cui%Wang%NULL%1,          Ji%Mei%NULL%2,          Ji%Mei%NULL%0,          Xiao-Long%Jiang%NULL%1,          Qiu-Hua%Zeng%NULL%1,          Thomas K.%Egglin%NULL%1,          Ping-Feng%Hu%NULL%2,          Ping-Feng%Hu%NULL%0,          Saurabh%Agarwal%NULL%1,          Fangfang%Xie%NULL%2,          Fangfang%Xie%NULL%0,          Sha%Li%NULL%1,          Terrance%Healey%NULL%2,          Terrance%Healey%NULL%0,          Michael K.%Atalay%NULL%1,          Wei-Hua%Liao%liaoweihua2017@163.com%2,          Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%1,    Yong%Lu%xref no email%1,    Qiqi%Cao%xref no email%1,    Le%Qin%xref no email%1,    Zilai%Pan%xref no email%1,    Fuhua%Yan%xref no email%1,    Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,          Xiaolong%Qi%NULL%0,          Xiaolong%Qi%NULL%0,          Soon Ho%Yoon%yshoka@gmail.com%2,          Soon Ho%Yoon%yshoka@gmail.com%0,          Sang Joon%Park%NULL%2,          Sang Joon%Park%NULL%0,          Kyung Hee%Lee%NULL%2,          Kyung Hee%Lee%NULL%0,          Jin Yong%Kim%NULL%0,          Jin Yong%Kim%NULL%0,          Young Kyung%Lee%NULL%2,          Young Kyung%Lee%NULL%0,          Hongseok%Ko%NULL%2,          Hongseok%Ko%NULL%0,          Ki Hwan%Kim%NULL%2,          Ki Hwan%Kim%NULL%0,          Chang Min%Park%NULL%2,          Chang Min%Park%NULL%0,          Yun-Hyeon%Kim%NULL%2,          Yun-Hyeon%Kim%NULL%0,          Junqiang%Lei%NULL%2,          Junqiang%Lei%NULL%0,          Jung Hee%Hong%NULL%2,          Jung Hee%Hong%NULL%0,          Hyungjin%Kim%NULL%2,          Hyungjin%Kim%NULL%0,          Eui Jin%Hwang%NULL%2,          Eui Jin%Hwang%NULL%0,          Seung Jin%Yoo%NULL%2,          Seung Jin%Yoo%NULL%0,          Ju Gang%Nam%NULL%2,          Ju Gang%Nam%NULL%0,          Chang Hyun%Lee%NULL%2,          Chang Hyun%Lee%NULL%0,          Jin Mo%Goo%NULL%2,          Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,          Yanyan%Tang%NULL%1,          Yongkang%Mo%NULL%1,          Shengkai%Li%NULL%1,          Daiying%Lin%NULL%1,          Zhijian%Yang%NULL%1,          Zhiqi%Yang%NULL%1,          Hongfu%Sun%NULL%1,          Jinming%Qiu%NULL%1,          Yuting%Liao%NULL%1,          Jianning%Xiao%NULL%1,          Xiangguang%Chen%NULL%1,          Xianheng%Wu%NULL%1,          Renhua%Wu%NULL%1,          Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,          Marta%Zerunian%NULL%2,          Marta%Zerunian%NULL%0,          Michela%Polici%NULL%2,          Michela%Polici%NULL%0,          Francesco%Pucciarelli%NULL%2,          Francesco%Pucciarelli%NULL%0,          Tiziano%Polidori%NULL%2,          Tiziano%Polidori%NULL%0,          Carlotta%Rucci%NULL%2,          Carlotta%Rucci%NULL%0,          Gisella%Guido%NULL%2,          Gisella%Guido%NULL%0,          Benedetta%Bracci%NULL%2,          Benedetta%Bracci%NULL%0,          Chiara%de Dominicis%NULL%2,          Chiara%de Dominicis%NULL%0,          Andrea%Laghi%andrea.laghi@uniroma1.it%2,          Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,          Akihiko%Sakata%NULL%1,          Mitsuhiro%Kirita%NULL%1,          Takashi%Hiroi%NULL%1,          Ken-ichiro%Kobayashi%NULL%1,          Kenji%Kubo%NULL%1,          Hyunjin%Kim%NULL%1,          Azusa%Nishimoto%NULL%1,          Chikara%Maeda%NULL%1,          Akira%Kawamura%NULL%1,          Nobuhiro%Komiya%NULL%1,          Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,          Huaxiang%Xu%NULL%1,          Qinglin%Shen%NULL%1,          Xianghai%Zhang%NULL%1,          Bing%Fan%26171381@qq.com%0,          Chuanhong%Wang%NULL%1,          Bingliang%Zeng%NULL%1,          Zicong%Li%NULL%1,          Xiaofen%Li%NULL%1,          Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%1,          Mengdi%Jin%NULL%1,          Li%Miao%NULL%1,          Xinying%Yang%NULL%1,          Peng%Huang%NULL%1,          Huanwen%Xiong%NULL%1,          Peijie%Huang%NULL%1,          Qi%Zhao%NULL%1,          Jiang%Du%NULL%1,          Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%1,          Yonge%Chi%NULL%2,          Yonge%Chi%NULL%0,          Liang%Zhang%NULL%2,          Liang%Zhang%NULL%0,          Huan%Liu%NULL%0,          Huan%Liu%NULL%0,          Kun%Du%NULL%1,          Zhengxing%Li%NULL%2,          Zhengxing%Li%NULL%0,          Jie%Chen%NULL%2,          Jie%Chen%NULL%0,          Liuhui%Cheng%NULL%2,          Liuhui%Cheng%NULL%0,          Daoqing%Wang%wangdaoqing1215@126.com%2,          Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,          Guoqiang%Sun%NULL%0,          Fei%Tang%NULL%1,          Min%Peng%NULL%0,          Ying%Gao%NULL%1,          Jing%Peng%NULL%1,          Hui%Xie%NULL%0,          Yun%Zhao%NULL%1,          Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,          Kai%Xie%NULL%0,          Kai%Xie%NULL%0,          Hui%Lu%NULL%0,          Lei%Xu%bayinhexl@126.com%0,          Shusheng%Zhou%zhouss108@163.com%0,          Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,          Christopher%Gieraerts%NULL%2,          Christopher%Gieraerts%NULL%0,          Yves%De Bruecker%NULL%2,          Yves%De Bruecker%NULL%0,          Lode%Janssen%NULL%2,          Lode%Janssen%NULL%0,          Hanne%Valgaeren%NULL%2,          Hanne%Valgaeren%NULL%0,          Dagmar%Obbels%NULL%2,          Dagmar%Obbels%NULL%0,          Marc%Gillis%NULL%2,          Marc%Gillis%NULL%0,          Marc%Van Ranst%NULL%0,          Marc%Van Ranst%NULL%0,          Johan%Frans%NULL%0,          Annick%Demeyere%NULL%2,          Annick%Demeyere%NULL%0,          Rolf%Symons%rolf.symons@imelda.be%0,          Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1215,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1166,7 +1244,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1195,7 +1273,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1224,7 +1302,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1253,7 +1331,7 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1282,7 +1360,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1311,7 +1389,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1340,7 +1418,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1369,7 +1447,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1398,7 +1476,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1427,7 +1505,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1456,7 +1534,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1485,7 +1563,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="235">
   <si>
     <t>Doi</t>
   </si>
@@ -850,6 +850,125 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,          Christopher%Gieraerts%NULL%2,          Christopher%Gieraerts%NULL%0,          Yves%De Bruecker%NULL%2,          Yves%De Bruecker%NULL%0,          Lode%Janssen%NULL%2,          Lode%Janssen%NULL%0,          Hanne%Valgaeren%NULL%2,          Hanne%Valgaeren%NULL%0,          Dagmar%Obbels%NULL%2,          Dagmar%Obbels%NULL%0,          Marc%Gillis%NULL%2,          Marc%Gillis%NULL%0,          Marc%Van Ranst%NULL%0,          Marc%Van Ranst%NULL%0,          Johan%Frans%NULL%0,          Annick%Demeyere%NULL%2,          Annick%Demeyere%NULL%0,          Rolf%Symons%rolf.symons@imelda.be%0,          Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,           Zhenlu%Yang%NULL%2,           Zhenlu%Yang%NULL%0,           Hongyan%Hou%NULL%2,           Hongyan%Hou%NULL%0,           Chenao%Zhan%NULL%1,           Chong%Chen%NULL%1,           Wenzhi%Lv%NULL%2,           Wenzhi%Lv%NULL%0,           Qian%Tao%NULL%2,           Qian%Tao%NULL%0,           Ziyong%Sun%NULL%0,           Ziyong%Sun%NULL%0,           Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,           Ben%Hsieh%NULL%1,           Zeng%Xiong%NULL%2,           Zeng%Xiong%NULL%0,           Kasey%Halsey%NULL%2,           Kasey%Halsey%NULL%0,           Ji Whae%Choi%NULL%2,           Ji Whae%Choi%NULL%0,           Thi My Linh%Tran%NULL%2,           Thi My Linh%Tran%NULL%0,           Ian%Pan%NULL%2,           Ian%Pan%NULL%0,           Lin-Bo%Shi%NULL%2,           Lin-Bo%Shi%NULL%0,           Dong-Cui%Wang%NULL%1,           Ji%Mei%NULL%2,           Ji%Mei%NULL%0,           Xiao-Long%Jiang%NULL%1,           Qiu-Hua%Zeng%NULL%1,           Thomas K.%Egglin%NULL%1,           Ping-Feng%Hu%NULL%2,           Ping-Feng%Hu%NULL%0,           Saurabh%Agarwal%NULL%1,           Fangfang%Xie%NULL%2,           Fangfang%Xie%NULL%0,           Sha%Li%NULL%1,           Terrance%Healey%NULL%2,           Terrance%Healey%NULL%0,           Michael K.%Atalay%NULL%1,           Wei-Hua%Liao%liaoweihua2017@163.com%2,           Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%1,     Yong%Lu%xref no email%1,     Qiqi%Cao%xref no email%1,     Le%Qin%xref no email%1,     Zilai%Pan%xref no email%1,     Fuhua%Yan%xref no email%1,     Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,           Xiaolong%Qi%NULL%0,           Xiaolong%Qi%NULL%0,           Soon Ho%Yoon%yshoka@gmail.com%2,           Soon Ho%Yoon%yshoka@gmail.com%0,           Sang Joon%Park%NULL%2,           Sang Joon%Park%NULL%0,           Kyung Hee%Lee%NULL%2,           Kyung Hee%Lee%NULL%0,           Jin Yong%Kim%NULL%0,           Jin Yong%Kim%NULL%0,           Young Kyung%Lee%NULL%2,           Young Kyung%Lee%NULL%0,           Hongseok%Ko%NULL%2,           Hongseok%Ko%NULL%0,           Ki Hwan%Kim%NULL%2,           Ki Hwan%Kim%NULL%0,           Chang Min%Park%NULL%2,           Chang Min%Park%NULL%0,           Yun-Hyeon%Kim%NULL%2,           Yun-Hyeon%Kim%NULL%0,           Junqiang%Lei%NULL%2,           Junqiang%Lei%NULL%0,           Jung Hee%Hong%NULL%2,           Jung Hee%Hong%NULL%0,           Hyungjin%Kim%NULL%2,           Hyungjin%Kim%NULL%0,           Eui Jin%Hwang%NULL%2,           Eui Jin%Hwang%NULL%0,           Seung Jin%Yoo%NULL%2,           Seung Jin%Yoo%NULL%0,           Ju Gang%Nam%NULL%2,           Ju Gang%Nam%NULL%0,           Chang Hyun%Lee%NULL%2,           Chang Hyun%Lee%NULL%0,           Jin Mo%Goo%NULL%2,           Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+Rapid and accurate diagnosis of coronavirus disease 2019 (COVID-19) is critical during the epidemic.
+ We aim to identify differences in CT imaging and clinical manifestations between pneumonia patients with and without COVID-19, and to develop and validate a diagnostic model for COVID-19 based on radiological semantic and clinical features alone.
+Methods
+A consecutive cohort of 70 COVID-19 and 66 non-COVID-19 pneumonia patients were retrospectively recruited from five institutions.
+ Patients were divided into primary (n = 98) and validation (n = 38) cohorts.
+ The chi-square test, Student’s t test, and Kruskal-Wallis H test were performed, comparing 1745 lesions and 67 features in the two groups.
+ Three models were constructed using radiological semantic and clinical features through multivariate logistic regression.
+ Diagnostic efficacies of developed models were quantified by receiver operating characteristic curve.
+ Clinical usage was evaluated by decision curve analysis and nomogram.
+Results
+Eighteen radiological semantic features and seventeen clinical features were identified to be significantly different.
+ Besides ground-glass opacities (p = 0.032) and consolidation (p = 0.001) in the lung periphery, the lesion size (1–3 cm) is also significant for the diagnosis of COVID-19 (p = 0.027).
+ Lung score presents no significant difference (p = 0.417).
+ Three diagnostic models achieved an area under the curve value as high as 0.986 (95% CI 0.966~1.000).
+ The clinical and radiological semantic models provided a better diagnostic performance and more considerable net benefits.
+Conclusions
+Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+ A model composed of radiological semantic and clinical features has an excellent performance for the diagnosis of COVID-19.
+Key Points
+            • Based on CT imaging and clinical manifestations alone, the pneumonia patients with and without COVID-19 can be distinguished.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06829-2) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,           Yanyan%Tang%NULL%1,           Yongkang%Mo%NULL%1,           Shengkai%Li%NULL%1,           Daiying%Lin%NULL%1,           Zhijian%Yang%NULL%1,           Zhiqi%Yang%NULL%1,           Hongfu%Sun%NULL%1,           Jinming%Qiu%NULL%1,           Yuting%Liao%NULL%1,           Jianning%Xiao%NULL%1,           Xiangguang%Chen%NULL%1,           Xianheng%Wu%NULL%1,           Renhua%Wu%NULL%1,           Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,           Marta%Zerunian%NULL%2,           Marta%Zerunian%NULL%0,           Michela%Polici%NULL%2,           Michela%Polici%NULL%0,           Francesco%Pucciarelli%NULL%2,           Francesco%Pucciarelli%NULL%0,           Tiziano%Polidori%NULL%2,           Tiziano%Polidori%NULL%0,           Carlotta%Rucci%NULL%2,           Carlotta%Rucci%NULL%0,           Gisella%Guido%NULL%2,           Gisella%Guido%NULL%0,           Benedetta%Bracci%NULL%2,           Benedetta%Bracci%NULL%0,           Chiara%de Dominicis%NULL%2,           Chiara%de Dominicis%NULL%0,           Andrea%Laghi%andrea.laghi@uniroma1.it%2,           Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose
+To evaluate the diagnostic performance of chest CT to differentiate coronavirus disease 2019 (COVID-19) pneumonia in non-high-epidemic area in Japan.
+Materials and methods
+This retrospective study included 21 patients clinically suspected COVID-19 pneumonia and underwent chest CT more than 3 days after the symptom onset: six patients confirmed COVID-19 pneumonia by real-time reverse-transcription polymerase chain reaction (RT-PCR) and 15 patients proved uninfected.
+ Using a Likert scale and its receiver operating characteristic curve analysis, two radiologists (R1/R2) evaluated the diagnostic performance of the five CT criteria: (1) ground glass opacity (GGO)-predominant lesions, (2) GGO- and peripheral-predominant lesions, (3) bilateral GGO-predominant lesions; (4) bilateral GGO- and peripheral-predominant lesions, and (5) bilateral GGO- and peripheral-predominant lesions without nodules, airway abnormalities, pleural effusion, and mediastinal lymphadenopathy.
+Results
+All patients confirmed COVID-19 pneumonia had bilateral GGO- and peripheral-predominant lesions without airway abnormalities, mediastinal lymphadenopathy, and pleural effusion.
+ The five CT criteria showed moderate to excellent diagnostic performance with area under the curves (AUCs) ranging 0.77–0.88 for R1 and 0.78–0.92 for R2. The criterion (e) showed the highest AUC.
+Conclusion
+Chest CT would play a supplemental role to differentiate COVID-19 pneumonia from other respiratory diseases presenting with similar symptoms in a clinical setting.
+Electronic supplementary material
+The online version of this article (10.1007/s11604-020-00958-w) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,           Akihiko%Sakata%NULL%1,           Mitsuhiro%Kirita%NULL%1,           Takashi%Hiroi%NULL%1,           Ken-ichiro%Kobayashi%NULL%1,           Kenji%Kubo%NULL%1,           Hyunjin%Kim%NULL%1,           Azusa%Nishimoto%NULL%1,           Chikara%Maeda%NULL%1,           Akira%Kawamura%NULL%1,           Nobuhiro%Komiya%NULL%1,           Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,           Huaxiang%Xu%NULL%1,           Qinglin%Shen%NULL%1,           Xianghai%Zhang%NULL%1,           Bing%Fan%26171381@qq.com%0,           Chuanhong%Wang%NULL%1,           Bingliang%Zeng%NULL%1,           Zicong%Li%NULL%1,           Xiaofen%Li%NULL%1,           Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%1,           Mengdi%Jin%NULL%1,           Li%Miao%NULL%1,           Xinying%Yang%NULL%1,           Peng%Huang%NULL%1,           Huanwen%Xiong%NULL%1,           Peijie%Huang%NULL%1,           Qi%Zhao%NULL%1,           Jiang%Du%NULL%1,           Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%1,           Yonge%Chi%NULL%2,           Yonge%Chi%NULL%0,           Liang%Zhang%NULL%2,           Liang%Zhang%NULL%0,           Huan%Liu%NULL%0,           Huan%Liu%NULL%0,           Kun%Du%NULL%1,           Zhengxing%Li%NULL%2,           Zhengxing%Li%NULL%0,           Jie%Chen%NULL%2,           Jie%Chen%NULL%0,           Liuhui%Cheng%NULL%2,           Liuhui%Cheng%NULL%0,           Daoqing%Wang%wangdaoqing1215@126.com%2,           Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,           Guoqiang%Sun%NULL%0,           Fei%Tang%NULL%1,           Min%Peng%NULL%0,           Ying%Gao%NULL%1,           Jing%Peng%NULL%1,           Hui%Xie%NULL%1,           Yun%Zhao%NULL%1,           Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,           Kai%Xie%NULL%0,           Kai%Xie%NULL%0,           Hui%Lu%NULL%0,           Lei%Xu%bayinhexl@126.com%0,           Shusheng%Zhou%zhouss108@163.com%0,           Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,           Christopher%Gieraerts%NULL%2,           Christopher%Gieraerts%NULL%0,           Yves%De Bruecker%NULL%2,           Yves%De Bruecker%NULL%0,           Lode%Janssen%NULL%2,           Lode%Janssen%NULL%0,           Hanne%Valgaeren%NULL%2,           Hanne%Valgaeren%NULL%0,           Dagmar%Obbels%NULL%2,           Dagmar%Obbels%NULL%0,           Marc%Gillis%NULL%2,           Marc%Gillis%NULL%0,           Marc%Van Ranst%NULL%0,           Marc%Van Ranst%NULL%0,           Johan%Frans%NULL%0,           Annick%Demeyere%NULL%2,           Annick%Demeyere%NULL%0,           Rolf%Symons%rolf.symons@imelda.be%0,           Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,            Zhenlu%Yang%NULL%2,            Zhenlu%Yang%NULL%0,            Hongyan%Hou%NULL%2,            Hongyan%Hou%NULL%0,            Chenao%Zhan%NULL%1,            Chong%Chen%NULL%1,            Wenzhi%Lv%NULL%2,            Wenzhi%Lv%NULL%0,            Qian%Tao%NULL%2,            Qian%Tao%NULL%0,            Ziyong%Sun%NULL%0,            Ziyong%Sun%NULL%0,            Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,            Ben%Hsieh%NULL%1,            Zeng%Xiong%NULL%2,            Zeng%Xiong%NULL%0,            Kasey%Halsey%NULL%2,            Kasey%Halsey%NULL%0,            Ji Whae%Choi%NULL%2,            Ji Whae%Choi%NULL%0,            Thi My Linh%Tran%NULL%2,            Thi My Linh%Tran%NULL%0,            Ian%Pan%NULL%2,            Ian%Pan%NULL%0,            Lin-Bo%Shi%NULL%2,            Lin-Bo%Shi%NULL%0,            Dong-Cui%Wang%NULL%1,            Ji%Mei%NULL%2,            Ji%Mei%NULL%0,            Xiao-Long%Jiang%NULL%1,            Qiu-Hua%Zeng%NULL%1,            Thomas K.%Egglin%NULL%1,            Ping-Feng%Hu%NULL%2,            Ping-Feng%Hu%NULL%0,            Saurabh%Agarwal%NULL%1,            Fangfang%Xie%NULL%2,            Fangfang%Xie%NULL%0,            Sha%Li%NULL%1,            Terrance%Healey%NULL%2,            Terrance%Healey%NULL%0,            Michael K.%Atalay%NULL%1,            Wei-Hua%Liao%liaoweihua2017@163.com%2,            Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%1,      Yong%Lu%xref no email%1,      Qiqi%Cao%xref no email%1,      Le%Qin%xref no email%1,      Zilai%Pan%xref no email%1,      Fuhua%Yan%xref no email%1,      Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,            Xiaolong%Qi%NULL%0,            Xiaolong%Qi%NULL%0,            Soon Ho%Yoon%yshoka@gmail.com%2,            Soon Ho%Yoon%yshoka@gmail.com%0,            Sang Joon%Park%NULL%2,            Sang Joon%Park%NULL%0,            Kyung Hee%Lee%NULL%2,            Kyung Hee%Lee%NULL%0,            Jin Yong%Kim%NULL%0,            Jin Yong%Kim%NULL%0,            Young Kyung%Lee%NULL%2,            Young Kyung%Lee%NULL%0,            Hongseok%Ko%NULL%2,            Hongseok%Ko%NULL%0,            Ki Hwan%Kim%NULL%2,            Ki Hwan%Kim%NULL%0,            Chang Min%Park%NULL%2,            Chang Min%Park%NULL%0,            Yun-Hyeon%Kim%NULL%2,            Yun-Hyeon%Kim%NULL%0,            Junqiang%Lei%NULL%2,            Junqiang%Lei%NULL%0,            Jung Hee%Hong%NULL%2,            Jung Hee%Hong%NULL%0,            Hyungjin%Kim%NULL%2,            Hyungjin%Kim%NULL%0,            Eui Jin%Hwang%NULL%2,            Eui Jin%Hwang%NULL%0,            Seung Jin%Yoo%NULL%2,            Seung Jin%Yoo%NULL%0,            Ju Gang%Nam%NULL%2,            Ju Gang%Nam%NULL%0,            Chang Hyun%Lee%NULL%2,            Chang Hyun%Lee%NULL%0,            Jin Mo%Goo%NULL%2,            Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,            Yanyan%Tang%NULL%1,            Yongkang%Mo%NULL%1,            Shengkai%Li%NULL%1,            Daiying%Lin%NULL%1,            Zhijian%Yang%NULL%1,            Zhiqi%Yang%NULL%1,            Hongfu%Sun%NULL%1,            Jinming%Qiu%NULL%1,            Yuting%Liao%NULL%1,            Jianning%Xiao%NULL%1,            Xiangguang%Chen%NULL%1,            Xianheng%Wu%NULL%1,            Renhua%Wu%NULL%1,            Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,            Marta%Zerunian%NULL%2,            Marta%Zerunian%NULL%0,            Michela%Polici%NULL%2,            Michela%Polici%NULL%0,            Francesco%Pucciarelli%NULL%2,            Francesco%Pucciarelli%NULL%0,            Tiziano%Polidori%NULL%2,            Tiziano%Polidori%NULL%0,            Carlotta%Rucci%NULL%2,            Carlotta%Rucci%NULL%0,            Gisella%Guido%NULL%2,            Gisella%Guido%NULL%0,            Benedetta%Bracci%NULL%2,            Benedetta%Bracci%NULL%0,            Chiara%de Dominicis%NULL%2,            Chiara%de Dominicis%NULL%0,            Andrea%Laghi%andrea.laghi@uniroma1.it%2,            Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,            Akihiko%Sakata%NULL%1,            Mitsuhiro%Kirita%NULL%1,            Takashi%Hiroi%NULL%1,            Ken-ichiro%Kobayashi%NULL%1,            Kenji%Kubo%NULL%1,            Hyunjin%Kim%NULL%1,            Azusa%Nishimoto%NULL%1,            Chikara%Maeda%NULL%1,            Akira%Kawamura%NULL%1,            Nobuhiro%Komiya%NULL%1,            Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,            Huaxiang%Xu%NULL%1,            Qinglin%Shen%NULL%1,            Xianghai%Zhang%NULL%1,            Bing%Fan%26171381@qq.com%0,            Chuanhong%Wang%NULL%1,            Bingliang%Zeng%NULL%1,            Zicong%Li%NULL%1,            Xiaofen%Li%NULL%1,            Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%1,            Mengdi%Jin%NULL%1,            Li%Miao%NULL%1,            Xinying%Yang%NULL%1,            Peng%Huang%NULL%1,            Huanwen%Xiong%NULL%1,            Peijie%Huang%NULL%1,            Qi%Zhao%NULL%1,            Jiang%Du%NULL%1,            Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%1,            Yonge%Chi%NULL%2,            Yonge%Chi%NULL%0,            Liang%Zhang%NULL%2,            Liang%Zhang%NULL%0,            Huan%Liu%NULL%0,            Huan%Liu%NULL%0,            Kun%Du%NULL%1,            Zhengxing%Li%NULL%2,            Zhengxing%Li%NULL%0,            Jie%Chen%NULL%2,            Jie%Chen%NULL%0,            Liuhui%Cheng%NULL%2,            Liuhui%Cheng%NULL%0,            Daoqing%Wang%wangdaoqing1215@126.com%2,            Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,            Guoqiang%Sun%NULL%0,            Fei%Tang%NULL%1,            Min%Peng%NULL%0,            Ying%Gao%NULL%1,            Jing%Peng%NULL%1,            Hui%Xie%NULL%1,            Yun%Zhao%NULL%1,            Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,            Kai%Xie%NULL%0,            Kai%Xie%NULL%0,            Hui%Lu%NULL%0,            Lei%Xu%bayinhexl@126.com%0,            Shusheng%Zhou%zhouss108@163.com%0,            Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,            Christopher%Gieraerts%NULL%2,            Christopher%Gieraerts%NULL%0,            Yves%De Bruecker%NULL%2,            Yves%De Bruecker%NULL%0,            Lode%Janssen%NULL%2,            Lode%Janssen%NULL%0,            Hanne%Valgaeren%NULL%2,            Hanne%Valgaeren%NULL%0,            Dagmar%Obbels%NULL%2,            Dagmar%Obbels%NULL%0,            Marc%Gillis%NULL%2,            Marc%Gillis%NULL%0,            Marc%Van Ranst%NULL%0,            Marc%Van Ranst%NULL%0,            Johan%Frans%NULL%0,            Annick%Demeyere%NULL%2,            Annick%Demeyere%NULL%0,            Rolf%Symons%rolf.symons@imelda.be%0,            Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1334,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1244,7 +1363,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1273,7 +1392,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1302,7 +1421,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1328,10 +1447,10 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1360,7 +1479,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1386,10 +1505,10 @@
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1418,7 +1537,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1447,7 +1566,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1476,7 +1595,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1505,7 +1624,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1534,7 +1653,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1563,7 +1682,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="248">
   <si>
     <t>Doi</t>
   </si>
@@ -969,6 +969,45 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,            Christopher%Gieraerts%NULL%2,            Christopher%Gieraerts%NULL%0,            Yves%De Bruecker%NULL%2,            Yves%De Bruecker%NULL%0,            Lode%Janssen%NULL%2,            Lode%Janssen%NULL%0,            Hanne%Valgaeren%NULL%2,            Hanne%Valgaeren%NULL%0,            Dagmar%Obbels%NULL%2,            Dagmar%Obbels%NULL%0,            Marc%Gillis%NULL%2,            Marc%Gillis%NULL%0,            Marc%Van Ranst%NULL%0,            Marc%Van Ranst%NULL%0,            Johan%Frans%NULL%0,            Annick%Demeyere%NULL%2,            Annick%Demeyere%NULL%0,            Rolf%Symons%rolf.symons@imelda.be%0,            Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,             Zhenlu%Yang%NULL%2,             Zhenlu%Yang%NULL%0,             Hongyan%Hou%NULL%2,             Hongyan%Hou%NULL%0,             Chenao%Zhan%NULL%1,             Chong%Chen%NULL%1,             Wenzhi%Lv%NULL%2,             Wenzhi%Lv%NULL%0,             Qian%Tao%NULL%2,             Qian%Tao%NULL%0,             Ziyong%Sun%NULL%0,             Ziyong%Sun%NULL%0,             Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,             Ben%Hsieh%NULL%1,             Zeng%Xiong%NULL%2,             Zeng%Xiong%NULL%0,             Kasey%Halsey%NULL%2,             Kasey%Halsey%NULL%0,             Ji Whae%Choi%NULL%2,             Ji Whae%Choi%NULL%0,             Thi My Linh%Tran%NULL%2,             Thi My Linh%Tran%NULL%0,             Ian%Pan%NULL%2,             Ian%Pan%NULL%0,             Lin-Bo%Shi%NULL%2,             Lin-Bo%Shi%NULL%0,             Dong-Cui%Wang%NULL%1,             Ji%Mei%NULL%2,             Ji%Mei%NULL%0,             Xiao-Long%Jiang%NULL%1,             Qiu-Hua%Zeng%NULL%1,             Thomas K.%Egglin%NULL%1,             Ping-Feng%Hu%NULL%2,             Ping-Feng%Hu%NULL%0,             Saurabh%Agarwal%NULL%1,             Fangfang%Xie%NULL%2,             Fangfang%Xie%NULL%0,             Sha%Li%NULL%1,             Terrance%Healey%NULL%2,             Terrance%Healey%NULL%0,             Michael K.%Atalay%NULL%1,             Wei-Hua%Liao%liaoweihua2017@163.com%2,             Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%1,       Yong%Lu%xref no email%1,       Qiqi%Cao%xref no email%1,       Le%Qin%xref no email%1,       Zilai%Pan%xref no email%1,       Fuhua%Yan%xref no email%1,       Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,             Xiaolong%Qi%NULL%0,             Xiaolong%Qi%NULL%0,             Soon Ho%Yoon%yshoka@gmail.com%2,             Soon Ho%Yoon%yshoka@gmail.com%0,             Sang Joon%Park%NULL%2,             Sang Joon%Park%NULL%0,             Kyung Hee%Lee%NULL%2,             Kyung Hee%Lee%NULL%0,             Jin Yong%Kim%NULL%0,             Jin Yong%Kim%NULL%0,             Young Kyung%Lee%NULL%2,             Young Kyung%Lee%NULL%0,             Hongseok%Ko%NULL%2,             Hongseok%Ko%NULL%0,             Ki Hwan%Kim%NULL%2,             Ki Hwan%Kim%NULL%0,             Chang Min%Park%NULL%2,             Chang Min%Park%NULL%0,             Yun-Hyeon%Kim%NULL%2,             Yun-Hyeon%Kim%NULL%0,             Junqiang%Lei%NULL%2,             Junqiang%Lei%NULL%0,             Jung Hee%Hong%NULL%2,             Jung Hee%Hong%NULL%0,             Hyungjin%Kim%NULL%2,             Hyungjin%Kim%NULL%0,             Eui Jin%Hwang%NULL%2,             Eui Jin%Hwang%NULL%0,             Seung Jin%Yoo%NULL%2,             Seung Jin%Yoo%NULL%0,             Ju Gang%Nam%NULL%2,             Ju Gang%Nam%NULL%0,             Chang Hyun%Lee%NULL%2,             Chang Hyun%Lee%NULL%0,             Jin Mo%Goo%NULL%2,             Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,             Yanyan%Tang%NULL%1,             Yongkang%Mo%NULL%1,             Shengkai%Li%NULL%1,             Daiying%Lin%NULL%1,             Zhijian%Yang%NULL%1,             Zhiqi%Yang%NULL%1,             Hongfu%Sun%NULL%1,             Jinming%Qiu%NULL%1,             Yuting%Liao%NULL%1,             Jianning%Xiao%NULL%1,             Xiangguang%Chen%NULL%1,             Xianheng%Wu%NULL%1,             Renhua%Wu%NULL%1,             Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,             Marta%Zerunian%NULL%2,             Marta%Zerunian%NULL%0,             Michela%Polici%NULL%2,             Michela%Polici%NULL%0,             Francesco%Pucciarelli%NULL%2,             Francesco%Pucciarelli%NULL%0,             Tiziano%Polidori%NULL%2,             Tiziano%Polidori%NULL%0,             Carlotta%Rucci%NULL%2,             Carlotta%Rucci%NULL%0,             Gisella%Guido%NULL%2,             Gisella%Guido%NULL%0,             Benedetta%Bracci%NULL%2,             Benedetta%Bracci%NULL%0,             Chiara%de Dominicis%NULL%2,             Chiara%de Dominicis%NULL%0,             Andrea%Laghi%andrea.laghi@uniroma1.it%2,             Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,             Akihiko%Sakata%NULL%1,             Mitsuhiro%Kirita%NULL%1,             Takashi%Hiroi%NULL%1,             Ken-ichiro%Kobayashi%NULL%1,             Kenji%Kubo%NULL%1,             Hyunjin%Kim%NULL%1,             Azusa%Nishimoto%NULL%1,             Chikara%Maeda%NULL%1,             Akira%Kawamura%NULL%1,             Nobuhiro%Komiya%NULL%1,             Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,             Huaxiang%Xu%NULL%1,             Qinglin%Shen%NULL%1,             Xianghai%Zhang%NULL%1,             Bing%Fan%26171381@qq.com%0,             Chuanhong%Wang%NULL%1,             Bingliang%Zeng%NULL%1,             Zicong%Li%NULL%1,             Xiaofen%Li%NULL%1,             Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%1,             Mengdi%Jin%NULL%1,             Li%Miao%NULL%1,             Xinying%Yang%NULL%1,             Peng%Huang%NULL%1,             Huanwen%Xiong%NULL%1,             Peijie%Huang%NULL%1,             Qi%Zhao%NULL%1,             Jiang%Du%NULL%1,             Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%1,             Yonge%Chi%NULL%2,             Yonge%Chi%NULL%0,             Liang%Zhang%NULL%2,             Liang%Zhang%NULL%0,             Huan%Liu%NULL%0,             Huan%Liu%NULL%0,             Kun%Du%NULL%1,             Zhengxing%Li%NULL%2,             Zhengxing%Li%NULL%0,             Jie%Chen%NULL%2,             Jie%Chen%NULL%0,             Liuhui%Cheng%NULL%2,             Liuhui%Cheng%NULL%0,             Daoqing%Wang%wangdaoqing1215@126.com%2,             Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,             Guoqiang%Sun%NULL%0,             Fei%Tang%NULL%1,             Min%Peng%NULL%0,             Ying%Gao%NULL%1,             Jing%Peng%NULL%1,             Hui%Xie%NULL%1,             Yun%Zhao%NULL%1,             Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,             Kai%Xie%NULL%0,             Kai%Xie%NULL%0,             Hui%Lu%NULL%0,             Lei%Xu%bayinhexl@126.com%0,             Shusheng%Zhou%zhouss108@163.com%0,             Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,             Christopher%Gieraerts%NULL%2,             Christopher%Gieraerts%NULL%0,             Yves%De Bruecker%NULL%2,             Yves%De Bruecker%NULL%0,             Lode%Janssen%NULL%2,             Lode%Janssen%NULL%0,             Hanne%Valgaeren%NULL%2,             Hanne%Valgaeren%NULL%0,             Dagmar%Obbels%NULL%2,             Dagmar%Obbels%NULL%0,             Marc%Gillis%NULL%2,             Marc%Gillis%NULL%0,             Marc%Van Ranst%NULL%0,             Marc%Van Ranst%NULL%0,             Johan%Frans%NULL%0,             Annick%Demeyere%NULL%2,             Annick%Demeyere%NULL%0,             Rolf%Symons%rolf.symons@imelda.be%0,             Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1373,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1363,7 +1402,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1392,7 +1431,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1421,7 +1460,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1450,7 +1489,7 @@
         <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1479,7 +1518,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1508,7 +1547,7 @@
         <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1537,7 +1576,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1566,7 +1605,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1595,7 +1634,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1624,7 +1663,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1653,7 +1692,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1682,7 +1721,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="261">
   <si>
     <t>Doi</t>
   </si>
@@ -1008,6 +1008,45 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,             Christopher%Gieraerts%NULL%2,             Christopher%Gieraerts%NULL%0,             Yves%De Bruecker%NULL%2,             Yves%De Bruecker%NULL%0,             Lode%Janssen%NULL%2,             Lode%Janssen%NULL%0,             Hanne%Valgaeren%NULL%2,             Hanne%Valgaeren%NULL%0,             Dagmar%Obbels%NULL%2,             Dagmar%Obbels%NULL%0,             Marc%Gillis%NULL%2,             Marc%Gillis%NULL%0,             Marc%Van Ranst%NULL%0,             Marc%Van Ranst%NULL%0,             Johan%Frans%NULL%0,             Annick%Demeyere%NULL%2,             Annick%Demeyere%NULL%0,             Rolf%Symons%rolf.symons@imelda.be%0,             Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,              Zhenlu%Yang%NULL%2,              Zhenlu%Yang%NULL%0,              Hongyan%Hou%NULL%2,              Hongyan%Hou%NULL%0,              Chenao%Zhan%NULL%1,              Chong%Chen%NULL%1,              Wenzhi%Lv%NULL%2,              Wenzhi%Lv%NULL%0,              Qian%Tao%NULL%2,              Qian%Tao%NULL%0,              Ziyong%Sun%NULL%0,              Ziyong%Sun%NULL%0,              Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,              Ben%Hsieh%NULL%1,              Zeng%Xiong%NULL%2,              Zeng%Xiong%NULL%0,              Kasey%Halsey%NULL%2,              Kasey%Halsey%NULL%0,              Ji Whae%Choi%NULL%2,              Ji Whae%Choi%NULL%0,              Thi My Linh%Tran%NULL%2,              Thi My Linh%Tran%NULL%0,              Ian%Pan%NULL%2,              Ian%Pan%NULL%0,              Lin-Bo%Shi%NULL%2,              Lin-Bo%Shi%NULL%0,              Dong-Cui%Wang%NULL%1,              Ji%Mei%NULL%2,              Ji%Mei%NULL%0,              Xiao-Long%Jiang%NULL%1,              Qiu-Hua%Zeng%NULL%1,              Thomas K.%Egglin%NULL%1,              Ping-Feng%Hu%NULL%2,              Ping-Feng%Hu%NULL%0,              Saurabh%Agarwal%NULL%1,              Fangfang%Xie%NULL%2,              Fangfang%Xie%NULL%0,              Sha%Li%NULL%1,              Terrance%Healey%NULL%2,              Terrance%Healey%NULL%0,              Michael K.%Atalay%NULL%1,              Wei-Hua%Liao%liaoweihua2017@163.com%2,              Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%2,        Yong%Lu%xref no email%1,        Qiqi%Cao%xref no email%1,        Le%Qin%xref no email%1,        Zilai%Pan%xref no email%1,        Fuhua%Yan%xref no email%1,        Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,              Xiaolong%Qi%NULL%0,              Xiaolong%Qi%NULL%0,              Soon Ho%Yoon%yshoka@gmail.com%2,              Soon Ho%Yoon%yshoka@gmail.com%0,              Sang Joon%Park%NULL%2,              Sang Joon%Park%NULL%0,              Kyung Hee%Lee%NULL%2,              Kyung Hee%Lee%NULL%0,              Jin Yong%Kim%NULL%0,              Jin Yong%Kim%NULL%0,              Young Kyung%Lee%NULL%2,              Young Kyung%Lee%NULL%0,              Hongseok%Ko%NULL%2,              Hongseok%Ko%NULL%0,              Ki Hwan%Kim%NULL%2,              Ki Hwan%Kim%NULL%0,              Chang Min%Park%NULL%2,              Chang Min%Park%NULL%0,              Yun-Hyeon%Kim%NULL%2,              Yun-Hyeon%Kim%NULL%0,              Junqiang%Lei%NULL%2,              Junqiang%Lei%NULL%0,              Jung Hee%Hong%NULL%2,              Jung Hee%Hong%NULL%0,              Hyungjin%Kim%NULL%2,              Hyungjin%Kim%NULL%0,              Eui Jin%Hwang%NULL%2,              Eui Jin%Hwang%NULL%0,              Seung Jin%Yoo%NULL%2,              Seung Jin%Yoo%NULL%0,              Ju Gang%Nam%NULL%2,              Ju Gang%Nam%NULL%0,              Chang Hyun%Lee%NULL%2,              Chang Hyun%Lee%NULL%0,              Jin Mo%Goo%NULL%2,              Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,              Yanyan%Tang%NULL%1,              Yongkang%Mo%NULL%1,              Shengkai%Li%NULL%1,              Daiying%Lin%NULL%1,              Zhijian%Yang%NULL%1,              Zhiqi%Yang%NULL%1,              Hongfu%Sun%NULL%1,              Jinming%Qiu%NULL%1,              Yuting%Liao%NULL%1,              Jianning%Xiao%NULL%1,              Xiangguang%Chen%NULL%1,              Xianheng%Wu%NULL%1,              Renhua%Wu%NULL%1,              Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,              Marta%Zerunian%NULL%2,              Marta%Zerunian%NULL%0,              Michela%Polici%NULL%2,              Michela%Polici%NULL%0,              Francesco%Pucciarelli%NULL%2,              Francesco%Pucciarelli%NULL%0,              Tiziano%Polidori%NULL%2,              Tiziano%Polidori%NULL%0,              Carlotta%Rucci%NULL%2,              Carlotta%Rucci%NULL%0,              Gisella%Guido%NULL%2,              Gisella%Guido%NULL%0,              Benedetta%Bracci%NULL%2,              Benedetta%Bracci%NULL%0,              Chiara%de Dominicis%NULL%2,              Chiara%de Dominicis%NULL%0,              Andrea%Laghi%andrea.laghi@uniroma1.it%2,              Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,              Akihiko%Sakata%NULL%1,              Mitsuhiro%Kirita%NULL%1,              Takashi%Hiroi%NULL%1,              Ken-ichiro%Kobayashi%NULL%1,              Kenji%Kubo%NULL%1,              Hyunjin%Kim%NULL%1,              Azusa%Nishimoto%NULL%1,              Chikara%Maeda%NULL%1,              Akira%Kawamura%NULL%1,              Nobuhiro%Komiya%NULL%1,              Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,              Huaxiang%Xu%NULL%1,              Qinglin%Shen%NULL%1,              Xianghai%Zhang%NULL%1,              Bing%Fan%26171381@qq.com%0,              Chuanhong%Wang%NULL%1,              Bingliang%Zeng%NULL%1,              Zicong%Li%NULL%1,              Xiaofen%Li%NULL%1,              Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%1,              Mengdi%Jin%NULL%1,              Li%Miao%NULL%1,              Xinying%Yang%NULL%1,              Peng%Huang%NULL%1,              Huanwen%Xiong%NULL%1,              Peijie%Huang%NULL%1,              Qi%Zhao%NULL%1,              Jiang%Du%NULL%1,              Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%1,              Yonge%Chi%NULL%2,              Yonge%Chi%NULL%0,              Liang%Zhang%NULL%2,              Liang%Zhang%NULL%0,              Huan%Liu%NULL%0,              Huan%Liu%NULL%0,              Kun%Du%NULL%1,              Zhengxing%Li%NULL%2,              Zhengxing%Li%NULL%0,              Jie%Chen%NULL%2,              Jie%Chen%NULL%0,              Liuhui%Cheng%NULL%2,              Liuhui%Cheng%NULL%0,              Daoqing%Wang%wangdaoqing1215@126.com%2,              Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,              Guoqiang%Sun%NULL%0,              Fei%Tang%NULL%1,              Min%Peng%NULL%0,              Ying%Gao%NULL%1,              Jing%Peng%NULL%1,              Hui%Xie%NULL%1,              Yun%Zhao%NULL%1,              Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,              Kai%Xie%NULL%0,              Kai%Xie%NULL%0,              Hui%Lu%NULL%0,              Lei%Xu%bayinhexl@126.com%0,              Shusheng%Zhou%zhouss108@163.com%0,              Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,              Christopher%Gieraerts%NULL%2,              Christopher%Gieraerts%NULL%0,              Yves%De Bruecker%NULL%2,              Yves%De Bruecker%NULL%0,              Lode%Janssen%NULL%2,              Lode%Janssen%NULL%0,              Hanne%Valgaeren%NULL%2,              Hanne%Valgaeren%NULL%0,              Dagmar%Obbels%NULL%2,              Dagmar%Obbels%NULL%0,              Marc%Gillis%NULL%2,              Marc%Gillis%NULL%0,              Marc%Van Ranst%NULL%0,              Marc%Van Ranst%NULL%0,              Johan%Frans%NULL%0,              Annick%Demeyere%NULL%2,              Annick%Demeyere%NULL%0,              Rolf%Symons%rolf.symons@imelda.be%0,              Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1412,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1402,7 +1441,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1431,7 +1470,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1460,7 +1499,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1489,7 +1528,7 @@
         <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1518,7 +1557,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1547,7 +1586,7 @@
         <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1576,7 +1615,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1605,7 +1644,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1634,7 +1673,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1663,7 +1702,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1692,7 +1731,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1721,7 +1760,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="287">
   <si>
     <t>Doi</t>
   </si>
@@ -1047,6 +1047,84 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,              Christopher%Gieraerts%NULL%2,              Christopher%Gieraerts%NULL%0,              Yves%De Bruecker%NULL%2,              Yves%De Bruecker%NULL%0,              Lode%Janssen%NULL%2,              Lode%Janssen%NULL%0,              Hanne%Valgaeren%NULL%2,              Hanne%Valgaeren%NULL%0,              Dagmar%Obbels%NULL%2,              Dagmar%Obbels%NULL%0,              Marc%Gillis%NULL%2,              Marc%Gillis%NULL%0,              Marc%Van Ranst%NULL%0,              Marc%Van Ranst%NULL%0,              Johan%Frans%NULL%0,              Annick%Demeyere%NULL%2,              Annick%Demeyere%NULL%0,              Rolf%Symons%rolf.symons@imelda.be%0,              Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,               Zhenlu%Yang%NULL%2,               Zhenlu%Yang%NULL%0,               Hongyan%Hou%NULL%2,               Hongyan%Hou%NULL%0,               Chenao%Zhan%NULL%1,               Chong%Chen%NULL%1,               Wenzhi%Lv%NULL%2,               Wenzhi%Lv%NULL%0,               Qian%Tao%NULL%2,               Qian%Tao%NULL%0,               Ziyong%Sun%NULL%0,               Ziyong%Sun%NULL%0,               Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,               Ben%Hsieh%NULL%1,               Zeng%Xiong%NULL%2,               Zeng%Xiong%NULL%0,               Kasey%Halsey%NULL%2,               Kasey%Halsey%NULL%0,               Ji Whae%Choi%NULL%2,               Ji Whae%Choi%NULL%0,               Thi My Linh%Tran%NULL%2,               Thi My Linh%Tran%NULL%0,               Ian%Pan%NULL%2,               Ian%Pan%NULL%0,               Lin-Bo%Shi%NULL%2,               Lin-Bo%Shi%NULL%0,               Dong-Cui%Wang%NULL%1,               Ji%Mei%NULL%2,               Ji%Mei%NULL%0,               Xiao-Long%Jiang%NULL%1,               Qiu-Hua%Zeng%NULL%1,               Thomas K.%Egglin%NULL%1,               Ping-Feng%Hu%NULL%2,               Ping-Feng%Hu%NULL%0,               Saurabh%Agarwal%NULL%1,               Fangfang%Xie%NULL%2,               Fangfang%Xie%NULL%0,               Sha%Li%NULL%1,               Terrance%Healey%NULL%2,               Terrance%Healey%NULL%0,               Michael K.%Atalay%NULL%1,               Wei-Hua%Liao%liaoweihua2017@163.com%2,               Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,         Yong%Lu%xref no email%1,         Qiqi%Cao%xref no email%1,         Le%Qin%xref no email%1,         Zilai%Pan%xref no email%1,         Fuhua%Yan%xref no email%1,         Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,               Xiaolong%Qi%NULL%0,               Xiaolong%Qi%NULL%0,               Soon Ho%Yoon%yshoka@gmail.com%2,               Soon Ho%Yoon%yshoka@gmail.com%0,               Sang Joon%Park%NULL%2,               Sang Joon%Park%NULL%0,               Kyung Hee%Lee%NULL%2,               Kyung Hee%Lee%NULL%0,               Jin Yong%Kim%NULL%0,               Jin Yong%Kim%NULL%0,               Young Kyung%Lee%NULL%2,               Young Kyung%Lee%NULL%0,               Hongseok%Ko%NULL%2,               Hongseok%Ko%NULL%0,               Ki Hwan%Kim%NULL%2,               Ki Hwan%Kim%NULL%0,               Chang Min%Park%NULL%2,               Chang Min%Park%NULL%0,               Yun-Hyeon%Kim%NULL%2,               Yun-Hyeon%Kim%NULL%0,               Junqiang%Lei%NULL%2,               Junqiang%Lei%NULL%0,               Jung Hee%Hong%NULL%2,               Jung Hee%Hong%NULL%0,               Hyungjin%Kim%NULL%2,               Hyungjin%Kim%NULL%0,               Eui Jin%Hwang%NULL%2,               Eui Jin%Hwang%NULL%0,               Seung Jin%Yoo%NULL%2,               Seung Jin%Yoo%NULL%0,               Ju Gang%Nam%NULL%2,               Ju Gang%Nam%NULL%0,               Chang Hyun%Lee%NULL%2,               Chang Hyun%Lee%NULL%0,               Jin Mo%Goo%NULL%2,               Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,               Yanyan%Tang%NULL%1,               Yongkang%Mo%NULL%1,               Shengkai%Li%NULL%1,               Daiying%Lin%NULL%1,               Zhijian%Yang%NULL%1,               Zhiqi%Yang%NULL%1,               Hongfu%Sun%NULL%1,               Jinming%Qiu%NULL%1,               Yuting%Liao%NULL%1,               Jianning%Xiao%NULL%1,               Xiangguang%Chen%NULL%1,               Xianheng%Wu%NULL%1,               Renhua%Wu%NULL%1,               Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,               Marta%Zerunian%NULL%2,               Marta%Zerunian%NULL%0,               Michela%Polici%NULL%2,               Michela%Polici%NULL%0,               Francesco%Pucciarelli%NULL%2,               Francesco%Pucciarelli%NULL%0,               Tiziano%Polidori%NULL%2,               Tiziano%Polidori%NULL%0,               Carlotta%Rucci%NULL%2,               Carlotta%Rucci%NULL%0,               Gisella%Guido%NULL%2,               Gisella%Guido%NULL%0,               Benedetta%Bracci%NULL%2,               Benedetta%Bracci%NULL%0,               Chiara%de Dominicis%NULL%2,               Chiara%de Dominicis%NULL%0,               Andrea%Laghi%andrea.laghi@uniroma1.it%2,               Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,               Akihiko%Sakata%NULL%1,               Mitsuhiro%Kirita%NULL%1,               Takashi%Hiroi%NULL%1,               Ken-ichiro%Kobayashi%NULL%1,               Kenji%Kubo%NULL%1,               Hyunjin%Kim%NULL%1,               Azusa%Nishimoto%NULL%1,               Chikara%Maeda%NULL%1,               Akira%Kawamura%NULL%1,               Nobuhiro%Komiya%NULL%1,               Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,               Huaxiang%Xu%NULL%1,               Qinglin%Shen%NULL%1,               Xianghai%Zhang%NULL%1,               Bing%Fan%26171381@qq.com%0,               Chuanhong%Wang%NULL%1,               Bingliang%Zeng%NULL%1,               Zicong%Li%NULL%1,               Xiaofen%Li%NULL%1,               Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%2,               Mengdi%Jin%NULL%1,               Li%Miao%NULL%1,               Xinying%Yang%NULL%1,               Peng%Huang%NULL%1,               Huanwen%Xiong%NULL%1,               Peijie%Huang%NULL%1,               Qi%Zhao%NULL%1,               Jiang%Du%NULL%1,               Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%2,               Yonge%Chi%NULL%2,               Yonge%Chi%NULL%0,               Liang%Zhang%NULL%2,               Liang%Zhang%NULL%0,               Huan%Liu%NULL%0,               Huan%Liu%NULL%0,               Kun%Du%NULL%1,               Zhengxing%Li%NULL%2,               Zhengxing%Li%NULL%0,               Jie%Chen%NULL%2,               Jie%Chen%NULL%0,               Liuhui%Cheng%NULL%2,               Liuhui%Cheng%NULL%0,               Daoqing%Wang%wangdaoqing1215@126.com%2,               Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,               Guoqiang%Sun%NULL%0,               Fei%Tang%NULL%1,               Min%Peng%NULL%0,               Ying%Gao%NULL%1,               Jing%Peng%NULL%1,               Hui%Xie%NULL%1,               Yun%Zhao%NULL%1,               Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,               Kai%Xie%NULL%0,               Kai%Xie%NULL%0,               Hui%Lu%NULL%0,               Lei%Xu%bayinhexl@126.com%0,               Shusheng%Zhou%zhouss108@163.com%0,               Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,               Christopher%Gieraerts%NULL%2,               Christopher%Gieraerts%NULL%0,               Yves%De Bruecker%NULL%2,               Yves%De Bruecker%NULL%0,               Lode%Janssen%NULL%2,               Lode%Janssen%NULL%0,               Hanne%Valgaeren%NULL%2,               Hanne%Valgaeren%NULL%0,               Dagmar%Obbels%NULL%2,               Dagmar%Obbels%NULL%0,               Marc%Gillis%NULL%2,               Marc%Gillis%NULL%0,               Marc%Van Ranst%NULL%0,               Marc%Van Ranst%NULL%0,               Johan%Frans%NULL%0,               Annick%Demeyere%NULL%2,               Annick%Demeyere%NULL%0,               Rolf%Symons%rolf.symons@imelda.be%0,               Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,                Zhenlu%Yang%NULL%2,                Zhenlu%Yang%NULL%0,                Hongyan%Hou%NULL%2,                Hongyan%Hou%NULL%0,                Chenao%Zhan%NULL%1,                Chong%Chen%NULL%1,                Wenzhi%Lv%NULL%2,                Wenzhi%Lv%NULL%0,                Qian%Tao%NULL%2,                Qian%Tao%NULL%0,                Ziyong%Sun%NULL%0,                Ziyong%Sun%NULL%0,                Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,                Ben%Hsieh%NULL%1,                Zeng%Xiong%NULL%2,                Zeng%Xiong%NULL%0,                Kasey%Halsey%NULL%2,                Kasey%Halsey%NULL%0,                Ji Whae%Choi%NULL%2,                Ji Whae%Choi%NULL%0,                Thi My Linh%Tran%NULL%2,                Thi My Linh%Tran%NULL%0,                Ian%Pan%NULL%2,                Ian%Pan%NULL%0,                Lin-Bo%Shi%NULL%2,                Lin-Bo%Shi%NULL%0,                Dong-Cui%Wang%NULL%1,                Ji%Mei%NULL%2,                Ji%Mei%NULL%0,                Xiao-Long%Jiang%NULL%1,                Qiu-Hua%Zeng%NULL%1,                Thomas K.%Egglin%NULL%1,                Ping-Feng%Hu%NULL%2,                Ping-Feng%Hu%NULL%0,                Saurabh%Agarwal%NULL%1,                Fangfang%Xie%NULL%2,                Fangfang%Xie%NULL%0,                Sha%Li%NULL%1,                Terrance%Healey%NULL%2,                Terrance%Healey%NULL%0,                Michael K.%Atalay%NULL%1,                Wei-Hua%Liao%liaoweihua2017@163.com%2,                Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,          Yong%Lu%xref no email%1,          Qiqi%Cao%xref no email%1,          Le%Qin%xref no email%1,          Zilai%Pan%xref no email%1,          Fuhua%Yan%xref no email%1,          Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,                Xiaolong%Qi%NULL%0,                Xiaolong%Qi%NULL%0,                Soon Ho%Yoon%yshoka@gmail.com%2,                Soon Ho%Yoon%yshoka@gmail.com%0,                Sang Joon%Park%NULL%2,                Sang Joon%Park%NULL%0,                Kyung Hee%Lee%NULL%2,                Kyung Hee%Lee%NULL%0,                Jin Yong%Kim%NULL%0,                Jin Yong%Kim%NULL%0,                Young Kyung%Lee%NULL%2,                Young Kyung%Lee%NULL%0,                Hongseok%Ko%NULL%2,                Hongseok%Ko%NULL%0,                Ki Hwan%Kim%NULL%2,                Ki Hwan%Kim%NULL%0,                Chang Min%Park%NULL%2,                Chang Min%Park%NULL%0,                Yun-Hyeon%Kim%NULL%2,                Yun-Hyeon%Kim%NULL%0,                Junqiang%Lei%NULL%2,                Junqiang%Lei%NULL%0,                Jung Hee%Hong%NULL%2,                Jung Hee%Hong%NULL%0,                Hyungjin%Kim%NULL%2,                Hyungjin%Kim%NULL%0,                Eui Jin%Hwang%NULL%2,                Eui Jin%Hwang%NULL%0,                Seung Jin%Yoo%NULL%2,                Seung Jin%Yoo%NULL%0,                Ju Gang%Nam%NULL%2,                Ju Gang%Nam%NULL%0,                Chang Hyun%Lee%NULL%2,                Chang Hyun%Lee%NULL%0,                Jin Mo%Goo%NULL%2,                Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,                Yanyan%Tang%NULL%1,                Yongkang%Mo%NULL%1,                Shengkai%Li%NULL%1,                Daiying%Lin%NULL%1,                Zhijian%Yang%NULL%1,                Zhiqi%Yang%NULL%1,                Hongfu%Sun%NULL%1,                Jinming%Qiu%NULL%1,                Yuting%Liao%NULL%1,                Jianning%Xiao%NULL%1,                Xiangguang%Chen%NULL%1,                Xianheng%Wu%NULL%1,                Renhua%Wu%NULL%1,                Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,                Marta%Zerunian%NULL%2,                Marta%Zerunian%NULL%0,                Michela%Polici%NULL%2,                Michela%Polici%NULL%0,                Francesco%Pucciarelli%NULL%2,                Francesco%Pucciarelli%NULL%0,                Tiziano%Polidori%NULL%2,                Tiziano%Polidori%NULL%0,                Carlotta%Rucci%NULL%2,                Carlotta%Rucci%NULL%0,                Gisella%Guido%NULL%2,                Gisella%Guido%NULL%0,                Benedetta%Bracci%NULL%2,                Benedetta%Bracci%NULL%0,                Chiara%de Dominicis%NULL%2,                Chiara%de Dominicis%NULL%0,                Andrea%Laghi%andrea.laghi@uniroma1.it%2,                Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,                Akihiko%Sakata%NULL%1,                Mitsuhiro%Kirita%NULL%1,                Takashi%Hiroi%NULL%1,                Ken-ichiro%Kobayashi%NULL%1,                Kenji%Kubo%NULL%1,                Hyunjin%Kim%NULL%1,                Azusa%Nishimoto%NULL%1,                Chikara%Maeda%NULL%1,                Akira%Kawamura%NULL%1,                Nobuhiro%Komiya%NULL%1,                Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,                Huaxiang%Xu%NULL%1,                Qinglin%Shen%NULL%1,                Xianghai%Zhang%NULL%1,                Bing%Fan%26171381@qq.com%0,                Chuanhong%Wang%NULL%1,                Bingliang%Zeng%NULL%1,                Zicong%Li%NULL%1,                Xiaofen%Li%NULL%1,                Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0,                Mengdi%Jin%NULL%1,                Li%Miao%NULL%1,                Xinying%Yang%NULL%1,                Peng%Huang%NULL%1,                Huanwen%Xiong%NULL%1,                Peijie%Huang%NULL%1,                Qi%Zhao%NULL%1,                Jiang%Du%NULL%1,                Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0,                Yonge%Chi%NULL%2,                Yonge%Chi%NULL%0,                Liang%Zhang%NULL%2,                Liang%Zhang%NULL%0,                Huan%Liu%NULL%0,                Huan%Liu%NULL%0,                Kun%Du%NULL%1,                Zhengxing%Li%NULL%2,                Zhengxing%Li%NULL%0,                Jie%Chen%NULL%2,                Jie%Chen%NULL%0,                Liuhui%Cheng%NULL%2,                Liuhui%Cheng%NULL%0,                Daoqing%Wang%wangdaoqing1215@126.com%2,                Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,                Guoqiang%Sun%NULL%0,                Fei%Tang%NULL%1,                Min%Peng%NULL%0,                Ying%Gao%NULL%1,                Jing%Peng%NULL%1,                Hui%Xie%NULL%1,                Yun%Zhao%NULL%1,                Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                Kai%Xie%NULL%0,                Kai%Xie%NULL%0,                Hui%Lu%NULL%0,                Lei%Xu%bayinhexl@126.com%0,                Shusheng%Zhou%zhouss108@163.com%0,                Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,                Christopher%Gieraerts%NULL%2,                Christopher%Gieraerts%NULL%0,                Yves%De Bruecker%NULL%2,                Yves%De Bruecker%NULL%0,                Lode%Janssen%NULL%2,                Lode%Janssen%NULL%0,                Hanne%Valgaeren%NULL%2,                Hanne%Valgaeren%NULL%0,                Dagmar%Obbels%NULL%2,                Dagmar%Obbels%NULL%0,                Marc%Gillis%NULL%2,                Marc%Gillis%NULL%0,                Marc%Van Ranst%NULL%0,                Marc%Van Ranst%NULL%0,                Johan%Frans%NULL%0,                Annick%Demeyere%NULL%2,                Annick%Demeyere%NULL%0,                Rolf%Symons%rolf.symons@imelda.be%0,                Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1412,7 +1490,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1441,7 +1519,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1470,7 +1548,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1499,7 +1577,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1528,7 +1606,7 @@
         <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1557,7 +1635,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1586,7 +1664,7 @@
         <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1615,7 +1693,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1644,7 +1722,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1673,7 +1751,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1702,7 +1780,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1731,7 +1809,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1760,7 +1838,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="300">
   <si>
     <t>Doi</t>
   </si>
@@ -1125,6 +1125,45 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,                Christopher%Gieraerts%NULL%2,                Christopher%Gieraerts%NULL%0,                Yves%De Bruecker%NULL%2,                Yves%De Bruecker%NULL%0,                Lode%Janssen%NULL%2,                Lode%Janssen%NULL%0,                Hanne%Valgaeren%NULL%2,                Hanne%Valgaeren%NULL%0,                Dagmar%Obbels%NULL%2,                Dagmar%Obbels%NULL%0,                Marc%Gillis%NULL%2,                Marc%Gillis%NULL%0,                Marc%Van Ranst%NULL%0,                Marc%Van Ranst%NULL%0,                Johan%Frans%NULL%0,                Annick%Demeyere%NULL%2,                Annick%Demeyere%NULL%0,                Rolf%Symons%rolf.symons@imelda.be%0,                Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,                 Zhenlu%Yang%NULL%2,                 Zhenlu%Yang%NULL%0,                 Hongyan%Hou%NULL%2,                 Hongyan%Hou%NULL%0,                 Chenao%Zhan%NULL%1,                 Chong%Chen%NULL%1,                 Wenzhi%Lv%NULL%2,                 Wenzhi%Lv%NULL%0,                 Qian%Tao%NULL%2,                 Qian%Tao%NULL%0,                 Ziyong%Sun%NULL%0,                 Ziyong%Sun%NULL%0,                 Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,                 Ben%Hsieh%NULL%1,                 Zeng%Xiong%NULL%2,                 Zeng%Xiong%NULL%0,                 Kasey%Halsey%NULL%2,                 Kasey%Halsey%NULL%0,                 Ji Whae%Choi%NULL%2,                 Ji Whae%Choi%NULL%0,                 Thi My Linh%Tran%NULL%2,                 Thi My Linh%Tran%NULL%0,                 Ian%Pan%NULL%2,                 Ian%Pan%NULL%0,                 Lin-Bo%Shi%NULL%2,                 Lin-Bo%Shi%NULL%0,                 Dong-Cui%Wang%NULL%1,                 Ji%Mei%NULL%2,                 Ji%Mei%NULL%0,                 Xiao-Long%Jiang%NULL%1,                 Qiu-Hua%Zeng%NULL%1,                 Thomas K.%Egglin%NULL%1,                 Ping-Feng%Hu%NULL%2,                 Ping-Feng%Hu%NULL%0,                 Saurabh%Agarwal%NULL%1,                 Fangfang%Xie%NULL%2,                 Fangfang%Xie%NULL%0,                 Sha%Li%NULL%1,                 Terrance%Healey%NULL%2,                 Terrance%Healey%NULL%0,                 Michael K.%Atalay%NULL%1,                 Wei-Hua%Liao%liaoweihua2017@163.com%2,                 Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,           Yong%Lu%xref no email%1,           Qiqi%Cao%xref no email%1,           Le%Qin%xref no email%1,           Zilai%Pan%xref no email%1,           Fuhua%Yan%xref no email%1,           Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,                 Xiaolong%Qi%NULL%0,                 Xiaolong%Qi%NULL%0,                 Soon Ho%Yoon%yshoka@gmail.com%2,                 Soon Ho%Yoon%yshoka@gmail.com%0,                 Sang Joon%Park%NULL%2,                 Sang Joon%Park%NULL%0,                 Kyung Hee%Lee%NULL%2,                 Kyung Hee%Lee%NULL%0,                 Jin Yong%Kim%NULL%0,                 Jin Yong%Kim%NULL%0,                 Young Kyung%Lee%NULL%2,                 Young Kyung%Lee%NULL%0,                 Hongseok%Ko%NULL%2,                 Hongseok%Ko%NULL%0,                 Ki Hwan%Kim%NULL%2,                 Ki Hwan%Kim%NULL%0,                 Chang Min%Park%NULL%2,                 Chang Min%Park%NULL%0,                 Yun-Hyeon%Kim%NULL%2,                 Yun-Hyeon%Kim%NULL%0,                 Junqiang%Lei%NULL%2,                 Junqiang%Lei%NULL%0,                 Jung Hee%Hong%NULL%2,                 Jung Hee%Hong%NULL%0,                 Hyungjin%Kim%NULL%2,                 Hyungjin%Kim%NULL%0,                 Eui Jin%Hwang%NULL%2,                 Eui Jin%Hwang%NULL%0,                 Seung Jin%Yoo%NULL%2,                 Seung Jin%Yoo%NULL%0,                 Ju Gang%Nam%NULL%2,                 Ju Gang%Nam%NULL%0,                 Chang Hyun%Lee%NULL%2,                 Chang Hyun%Lee%NULL%0,                 Jin Mo%Goo%NULL%2,                 Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,                 Yanyan%Tang%NULL%1,                 Yongkang%Mo%NULL%1,                 Shengkai%Li%NULL%1,                 Daiying%Lin%NULL%1,                 Zhijian%Yang%NULL%1,                 Zhiqi%Yang%NULL%1,                 Hongfu%Sun%NULL%1,                 Jinming%Qiu%NULL%1,                 Yuting%Liao%NULL%1,                 Jianning%Xiao%NULL%1,                 Xiangguang%Chen%NULL%1,                 Xianheng%Wu%NULL%1,                 Renhua%Wu%NULL%1,                 Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,                 Marta%Zerunian%NULL%2,                 Marta%Zerunian%NULL%0,                 Michela%Polici%NULL%2,                 Michela%Polici%NULL%0,                 Francesco%Pucciarelli%NULL%2,                 Francesco%Pucciarelli%NULL%0,                 Tiziano%Polidori%NULL%2,                 Tiziano%Polidori%NULL%0,                 Carlotta%Rucci%NULL%2,                 Carlotta%Rucci%NULL%0,                 Gisella%Guido%NULL%2,                 Gisella%Guido%NULL%0,                 Benedetta%Bracci%NULL%2,                 Benedetta%Bracci%NULL%0,                 Chiara%de Dominicis%NULL%2,                 Chiara%de Dominicis%NULL%0,                 Andrea%Laghi%andrea.laghi@uniroma1.it%2,                 Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,                 Akihiko%Sakata%NULL%1,                 Mitsuhiro%Kirita%NULL%1,                 Takashi%Hiroi%NULL%1,                 Ken-ichiro%Kobayashi%NULL%1,                 Kenji%Kubo%NULL%1,                 Hyunjin%Kim%NULL%1,                 Azusa%Nishimoto%NULL%1,                 Chikara%Maeda%NULL%1,                 Akira%Kawamura%NULL%1,                 Nobuhiro%Komiya%NULL%1,                 Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,                 Huaxiang%Xu%NULL%1,                 Qinglin%Shen%NULL%1,                 Xianghai%Zhang%NULL%1,                 Bing%Fan%26171381@qq.com%0,                 Chuanhong%Wang%NULL%1,                 Bingliang%Zeng%NULL%1,                 Zicong%Li%NULL%1,                 Xiaofen%Li%NULL%1,                 Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0,                 Mengdi%Jin%NULL%1,                 Li%Miao%NULL%1,                 Xinying%Yang%NULL%1,                 Peng%Huang%NULL%1,                 Huanwen%Xiong%NULL%1,                 Peijie%Huang%NULL%1,                 Qi%Zhao%NULL%1,                 Jiang%Du%NULL%1,                 Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0,                 Yonge%Chi%NULL%2,                 Yonge%Chi%NULL%0,                 Liang%Zhang%NULL%2,                 Liang%Zhang%NULL%0,                 Huan%Liu%NULL%0,                 Huan%Liu%NULL%0,                 Kun%Du%NULL%1,                 Zhengxing%Li%NULL%2,                 Zhengxing%Li%NULL%0,                 Jie%Chen%NULL%2,                 Jie%Chen%NULL%0,                 Liuhui%Cheng%NULL%2,                 Liuhui%Cheng%NULL%0,                 Daoqing%Wang%wangdaoqing1215@126.com%2,                 Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,                 Guoqiang%Sun%NULL%0,                 Fei%Tang%NULL%1,                 Min%Peng%NULL%0,                 Ying%Gao%NULL%1,                 Jing%Peng%NULL%1,                 Hui%Xie%NULL%1,                 Yun%Zhao%NULL%1,                 Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                 Kai%Xie%NULL%0,                 Kai%Xie%NULL%0,                 Hui%Lu%NULL%0,                 Lei%Xu%bayinhexl@126.com%0,                 Shusheng%Zhou%zhouss108@163.com%0,                 Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,                 Christopher%Gieraerts%NULL%2,                 Christopher%Gieraerts%NULL%0,                 Yves%De Bruecker%NULL%2,                 Yves%De Bruecker%NULL%0,                 Lode%Janssen%NULL%2,                 Lode%Janssen%NULL%0,                 Hanne%Valgaeren%NULL%2,                 Hanne%Valgaeren%NULL%0,                 Dagmar%Obbels%NULL%2,                 Dagmar%Obbels%NULL%0,                 Marc%Gillis%NULL%2,                 Marc%Gillis%NULL%0,                 Marc%Van Ranst%NULL%0,                 Marc%Van Ranst%NULL%0,                 Johan%Frans%NULL%0,                 Annick%Demeyere%NULL%2,                 Annick%Demeyere%NULL%0,                 Rolf%Symons%rolf.symons@imelda.be%0,                 Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1529,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1519,7 +1558,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1548,7 +1587,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1577,7 +1616,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1606,7 +1645,7 @@
         <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1635,7 +1674,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1664,7 +1703,7 @@
         <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1693,7 +1732,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1722,7 +1761,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1751,7 +1790,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1780,7 +1819,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1809,7 +1848,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1838,7 +1877,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="317">
   <si>
     <t>Doi</t>
   </si>
@@ -1164,6 +1164,57 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,                 Christopher%Gieraerts%NULL%2,                 Christopher%Gieraerts%NULL%0,                 Yves%De Bruecker%NULL%2,                 Yves%De Bruecker%NULL%0,                 Lode%Janssen%NULL%2,                 Lode%Janssen%NULL%0,                 Hanne%Valgaeren%NULL%2,                 Hanne%Valgaeren%NULL%0,                 Dagmar%Obbels%NULL%2,                 Dagmar%Obbels%NULL%0,                 Marc%Gillis%NULL%2,                 Marc%Gillis%NULL%0,                 Marc%Van Ranst%NULL%0,                 Marc%Van Ranst%NULL%0,                 Johan%Frans%NULL%0,                 Annick%Demeyere%NULL%2,                 Annick%Demeyere%NULL%0,                 Rolf%Symons%rolf.symons@imelda.be%0,                 Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,                  Zhenlu%Yang%NULL%2,                  Zhenlu%Yang%NULL%0,                  Hongyan%Hou%NULL%2,                  Hongyan%Hou%NULL%0,                  Chenao%Zhan%NULL%1,                  Chong%Chen%NULL%1,                  Wenzhi%Lv%NULL%2,                  Wenzhi%Lv%NULL%0,                  Qian%Tao%NULL%2,                  Qian%Tao%NULL%0,                  Ziyong%Sun%NULL%0,                  Ziyong%Sun%NULL%0,                  Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,                  Ben%Hsieh%NULL%1,                  Zeng%Xiong%NULL%2,                  Zeng%Xiong%NULL%0,                  Kasey%Halsey%NULL%2,                  Kasey%Halsey%NULL%0,                  Ji Whae%Choi%NULL%2,                  Ji Whae%Choi%NULL%0,                  Thi My Linh%Tran%NULL%2,                  Thi My Linh%Tran%NULL%0,                  Ian%Pan%NULL%2,                  Ian%Pan%NULL%0,                  Lin-Bo%Shi%NULL%2,                  Lin-Bo%Shi%NULL%0,                  Dong-Cui%Wang%NULL%1,                  Ji%Mei%NULL%2,                  Ji%Mei%NULL%0,                  Xiao-Long%Jiang%NULL%1,                  Qiu-Hua%Zeng%NULL%1,                  Thomas K.%Egglin%NULL%1,                  Ping-Feng%Hu%NULL%2,                  Ping-Feng%Hu%NULL%0,                  Saurabh%Agarwal%NULL%1,                  Fangfang%Xie%NULL%2,                  Fangfang%Xie%NULL%0,                  Sha%Li%NULL%1,                  Terrance%Healey%NULL%2,                  Terrance%Healey%NULL%0,                  Michael K.%Atalay%NULL%1,                  Wei-Hua%Liao%liaoweihua2017@163.com%2,                  Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,            Yong%Lu%xref no email%1,            Qiqi%Cao%xref no email%1,            Le%Qin%xref no email%1,            Zilai%Pan%xref no email%1,            Fuhua%Yan%xref no email%1,            Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,                  Xiaolong%Qi%NULL%0,                  Xiaolong%Qi%NULL%0,                  Soon Ho%Yoon%yshoka@gmail.com%2,                  Soon Ho%Yoon%yshoka@gmail.com%0,                  Sang Joon%Park%NULL%2,                  Sang Joon%Park%NULL%0,                  Kyung Hee%Lee%NULL%2,                  Kyung Hee%Lee%NULL%0,                  Jin Yong%Kim%NULL%0,                  Jin Yong%Kim%NULL%0,                  Young Kyung%Lee%NULL%2,                  Young Kyung%Lee%NULL%0,                  Hongseok%Ko%NULL%2,                  Hongseok%Ko%NULL%0,                  Ki Hwan%Kim%NULL%2,                  Ki Hwan%Kim%NULL%0,                  Chang Min%Park%NULL%2,                  Chang Min%Park%NULL%0,                  Yun-Hyeon%Kim%NULL%2,                  Yun-Hyeon%Kim%NULL%0,                  Junqiang%Lei%NULL%2,                  Junqiang%Lei%NULL%0,                  Jung Hee%Hong%NULL%2,                  Jung Hee%Hong%NULL%0,                  Hyungjin%Kim%NULL%2,                  Hyungjin%Kim%NULL%0,                  Eui Jin%Hwang%NULL%2,                  Eui Jin%Hwang%NULL%0,                  Seung Jin%Yoo%NULL%2,                  Seung Jin%Yoo%NULL%0,                  Ju Gang%Nam%NULL%2,                  Ju Gang%Nam%NULL%0,                  Chang Hyun%Lee%NULL%2,                  Chang Hyun%Lee%NULL%0,                  Jin Mo%Goo%NULL%2,                  Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,                  Yanyan%Tang%NULL%1,                  Yongkang%Mo%NULL%1,                  Shengkai%Li%NULL%1,                  Daiying%Lin%NULL%1,                  Zhijian%Yang%NULL%1,                  Zhiqi%Yang%NULL%1,                  Hongfu%Sun%NULL%1,                  Jinming%Qiu%NULL%1,                  Yuting%Liao%NULL%1,                  Jianning%Xiao%NULL%1,                  Xiangguang%Chen%NULL%1,                  Xianheng%Wu%NULL%1,                  Renhua%Wu%NULL%1,                  Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>_Springer_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,                  Marta%Zerunian%NULL%2,                  Marta%Zerunian%NULL%0,                  Michela%Polici%NULL%2,                  Michela%Polici%NULL%0,                  Francesco%Pucciarelli%NULL%2,                  Francesco%Pucciarelli%NULL%0,                  Tiziano%Polidori%NULL%2,                  Tiziano%Polidori%NULL%0,                  Carlotta%Rucci%NULL%2,                  Carlotta%Rucci%NULL%0,                  Gisella%Guido%NULL%2,                  Gisella%Guido%NULL%0,                  Benedetta%Bracci%NULL%2,                  Benedetta%Bracci%NULL%0,                  Chiara%de Dominicis%NULL%2,                  Chiara%de Dominicis%NULL%0,                  Andrea%Laghi%andrea.laghi@uniroma1.it%2,                  Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,                  Akihiko%Sakata%NULL%1,                  Mitsuhiro%Kirita%NULL%1,                  Takashi%Hiroi%NULL%1,                  Ken-ichiro%Kobayashi%NULL%1,                  Kenji%Kubo%NULL%1,                  Hyunjin%Kim%NULL%1,                  Azusa%Nishimoto%NULL%1,                  Chikara%Maeda%NULL%1,                  Akira%Kawamura%NULL%1,                  Nobuhiro%Komiya%NULL%1,                  Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,                  Huaxiang%Xu%NULL%1,                  Qinglin%Shen%NULL%1,                  Xianghai%Zhang%NULL%1,                  Bing%Fan%26171381@qq.com%0,                  Chuanhong%Wang%NULL%1,                  Bingliang%Zeng%NULL%1,                  Zicong%Li%NULL%1,                  Xiaofen%Li%NULL%1,                  Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>_elsevier_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0,                  Mengdi%Jin%NULL%1,                  Li%Miao%NULL%1,                  Xinying%Yang%NULL%1,                  Peng%Huang%NULL%1,                  Huanwen%Xiong%NULL%1,                  Peijie%Huang%NULL%1,                  Qi%Zhao%NULL%1,                  Jiang%Du%NULL%1,                  Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0,                  Yonge%Chi%NULL%2,                  Yonge%Chi%NULL%0,                  Liang%Zhang%NULL%2,                  Liang%Zhang%NULL%0,                  Huan%Liu%NULL%0,                  Huan%Liu%NULL%0,                  Kun%Du%NULL%1,                  Zhengxing%Li%NULL%2,                  Zhengxing%Li%NULL%0,                  Jie%Chen%NULL%2,                  Jie%Chen%NULL%0,                  Liuhui%Cheng%NULL%2,                  Liuhui%Cheng%NULL%0,                  Daoqing%Wang%wangdaoqing1215@126.com%2,                  Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,                  Guoqiang%Sun%NULL%0,                  Fei%Tang%NULL%1,                  Min%Peng%NULL%0,                  Ying%Gao%NULL%1,                  Jing%Peng%NULL%1,                  Hui%Xie%NULL%1,                  Yun%Zhao%NULL%1,                  Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                  Kai%Xie%NULL%0,                  Kai%Xie%NULL%0,                  Hui%Lu%NULL%0,                  Lei%Xu%bayinhexl@126.com%0,                  Shusheng%Zhou%zhouss108@163.com%0,                  Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,                  Christopher%Gieraerts%NULL%2,                  Christopher%Gieraerts%NULL%0,                  Yves%De Bruecker%NULL%2,                  Yves%De Bruecker%NULL%0,                  Lode%Janssen%NULL%2,                  Lode%Janssen%NULL%0,                  Hanne%Valgaeren%NULL%2,                  Hanne%Valgaeren%NULL%0,                  Dagmar%Obbels%NULL%2,                  Dagmar%Obbels%NULL%0,                  Marc%Gillis%NULL%2,                  Marc%Gillis%NULL%0,                  Marc%Van Ranst%NULL%0,                  Marc%Van Ranst%NULL%0,                  Johan%Frans%NULL%0,                  Annick%Demeyere%NULL%2,                  Annick%Demeyere%NULL%0,                  Rolf%Symons%rolf.symons@imelda.be%0,                  Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1580,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1541,7 +1592,7 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1558,7 +1609,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1570,7 +1621,7 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1587,7 +1638,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1599,7 +1650,7 @@
         <v>157</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1616,7 +1667,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1628,7 +1679,7 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1645,7 +1696,7 @@
         <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1657,7 +1708,7 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1674,7 +1725,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1686,7 +1737,7 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1703,7 +1754,7 @@
         <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1715,7 +1766,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1732,7 +1783,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1744,7 +1795,7 @@
         <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1761,7 +1812,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1773,7 +1824,7 @@
         <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1790,7 +1841,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1802,7 +1853,7 @@
         <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1819,7 +1870,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1831,7 +1882,7 @@
         <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1848,7 +1899,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1860,7 +1911,7 @@
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1877,7 +1928,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>
@@ -1889,7 +1940,7 @@
         <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="330">
   <si>
     <t>Doi</t>
   </si>
@@ -1215,6 +1215,45 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,                  Christopher%Gieraerts%NULL%2,                  Christopher%Gieraerts%NULL%0,                  Yves%De Bruecker%NULL%2,                  Yves%De Bruecker%NULL%0,                  Lode%Janssen%NULL%2,                  Lode%Janssen%NULL%0,                  Hanne%Valgaeren%NULL%2,                  Hanne%Valgaeren%NULL%0,                  Dagmar%Obbels%NULL%2,                  Dagmar%Obbels%NULL%0,                  Marc%Gillis%NULL%2,                  Marc%Gillis%NULL%0,                  Marc%Van Ranst%NULL%0,                  Marc%Van Ranst%NULL%0,                  Johan%Frans%NULL%0,                  Annick%Demeyere%NULL%2,                  Annick%Demeyere%NULL%0,                  Rolf%Symons%rolf.symons@imelda.be%0,                  Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,                   Zhenlu%Yang%NULL%2,                   Zhenlu%Yang%NULL%0,                   Hongyan%Hou%NULL%2,                   Hongyan%Hou%NULL%0,                   Chenao%Zhan%NULL%1,                   Chong%Chen%NULL%1,                   Wenzhi%Lv%NULL%2,                   Wenzhi%Lv%NULL%0,                   Qian%Tao%NULL%2,                   Qian%Tao%NULL%0,                   Ziyong%Sun%NULL%0,                   Ziyong%Sun%NULL%0,                   Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,                   Ben%Hsieh%NULL%1,                   Zeng%Xiong%NULL%2,                   Zeng%Xiong%NULL%0,                   Kasey%Halsey%NULL%2,                   Kasey%Halsey%NULL%0,                   Ji Whae%Choi%NULL%2,                   Ji Whae%Choi%NULL%0,                   Thi My Linh%Tran%NULL%2,                   Thi My Linh%Tran%NULL%0,                   Ian%Pan%NULL%2,                   Ian%Pan%NULL%0,                   Lin-Bo%Shi%NULL%2,                   Lin-Bo%Shi%NULL%0,                   Dong-Cui%Wang%NULL%1,                   Ji%Mei%NULL%2,                   Ji%Mei%NULL%0,                   Xiao-Long%Jiang%NULL%1,                   Qiu-Hua%Zeng%NULL%1,                   Thomas K.%Egglin%NULL%1,                   Ping-Feng%Hu%NULL%2,                   Ping-Feng%Hu%NULL%0,                   Saurabh%Agarwal%NULL%1,                   Fangfang%Xie%NULL%2,                   Fangfang%Xie%NULL%0,                   Sha%Li%NULL%1,                   Terrance%Healey%NULL%2,                   Terrance%Healey%NULL%0,                   Michael K.%Atalay%NULL%1,                   Wei-Hua%Liao%liaoweihua2017@163.com%2,                   Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,             Yong%Lu%xref no email%1,             Qiqi%Cao%xref no email%1,             Le%Qin%xref no email%1,             Zilai%Pan%xref no email%1,             Fuhua%Yan%xref no email%1,             Wenjie%Yang%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,                   Xiaolong%Qi%NULL%0,                   Xiaolong%Qi%NULL%0,                   Soon Ho%Yoon%yshoka@gmail.com%2,                   Soon Ho%Yoon%yshoka@gmail.com%0,                   Sang Joon%Park%NULL%2,                   Sang Joon%Park%NULL%0,                   Kyung Hee%Lee%NULL%2,                   Kyung Hee%Lee%NULL%0,                   Jin Yong%Kim%NULL%0,                   Jin Yong%Kim%NULL%0,                   Young Kyung%Lee%NULL%2,                   Young Kyung%Lee%NULL%0,                   Hongseok%Ko%NULL%2,                   Hongseok%Ko%NULL%0,                   Ki Hwan%Kim%NULL%2,                   Ki Hwan%Kim%NULL%0,                   Chang Min%Park%NULL%2,                   Chang Min%Park%NULL%0,                   Yun-Hyeon%Kim%NULL%2,                   Yun-Hyeon%Kim%NULL%0,                   Junqiang%Lei%NULL%2,                   Junqiang%Lei%NULL%0,                   Jung Hee%Hong%NULL%2,                   Jung Hee%Hong%NULL%0,                   Hyungjin%Kim%NULL%2,                   Hyungjin%Kim%NULL%0,                   Eui Jin%Hwang%NULL%2,                   Eui Jin%Hwang%NULL%0,                   Seung Jin%Yoo%NULL%2,                   Seung Jin%Yoo%NULL%0,                   Ju Gang%Nam%NULL%2,                   Ju Gang%Nam%NULL%0,                   Chang Hyun%Lee%NULL%2,                   Chang Hyun%Lee%NULL%0,                   Jin Mo%Goo%NULL%2,                   Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,                   Yanyan%Tang%NULL%1,                   Yongkang%Mo%NULL%1,                   Shengkai%Li%NULL%1,                   Daiying%Lin%NULL%1,                   Zhijian%Yang%NULL%1,                   Zhiqi%Yang%NULL%1,                   Hongfu%Sun%NULL%1,                   Jinming%Qiu%NULL%1,                   Yuting%Liao%NULL%1,                   Jianning%Xiao%NULL%1,                   Xiangguang%Chen%NULL%1,                   Xianheng%Wu%NULL%1,                   Renhua%Wu%NULL%1,                   Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,                   Marta%Zerunian%NULL%2,                   Marta%Zerunian%NULL%0,                   Michela%Polici%NULL%2,                   Michela%Polici%NULL%0,                   Francesco%Pucciarelli%NULL%2,                   Francesco%Pucciarelli%NULL%0,                   Tiziano%Polidori%NULL%2,                   Tiziano%Polidori%NULL%0,                   Carlotta%Rucci%NULL%2,                   Carlotta%Rucci%NULL%0,                   Gisella%Guido%NULL%2,                   Gisella%Guido%NULL%0,                   Benedetta%Bracci%NULL%2,                   Benedetta%Bracci%NULL%0,                   Chiara%de Dominicis%NULL%2,                   Chiara%de Dominicis%NULL%0,                   Andrea%Laghi%andrea.laghi@uniroma1.it%2,                   Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,                   Akihiko%Sakata%NULL%1,                   Mitsuhiro%Kirita%NULL%1,                   Takashi%Hiroi%NULL%1,                   Ken-ichiro%Kobayashi%NULL%1,                   Kenji%Kubo%NULL%1,                   Hyunjin%Kim%NULL%1,                   Azusa%Nishimoto%NULL%1,                   Chikara%Maeda%NULL%1,                   Akira%Kawamura%NULL%1,                   Nobuhiro%Komiya%NULL%1,                   Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,                   Huaxiang%Xu%NULL%1,                   Qinglin%Shen%NULL%1,                   Xianghai%Zhang%NULL%1,                   Bing%Fan%26171381@qq.com%0,                   Chuanhong%Wang%NULL%1,                   Bingliang%Zeng%NULL%1,                   Zicong%Li%NULL%1,                   Xiaofen%Li%NULL%1,                   Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0,                   Mengdi%Jin%NULL%1,                   Li%Miao%NULL%1,                   Xinying%Yang%NULL%1,                   Peng%Huang%NULL%1,                   Huanwen%Xiong%NULL%1,                   Peijie%Huang%NULL%1,                   Qi%Zhao%NULL%1,                   Jiang%Du%NULL%1,                   Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0,                   Yonge%Chi%NULL%2,                   Yonge%Chi%NULL%0,                   Liang%Zhang%NULL%2,                   Liang%Zhang%NULL%0,                   Huan%Liu%NULL%0,                   Huan%Liu%NULL%0,                   Kun%Du%NULL%1,                   Zhengxing%Li%NULL%2,                   Zhengxing%Li%NULL%0,                   Jie%Chen%NULL%2,                   Jie%Chen%NULL%0,                   Liuhui%Cheng%NULL%2,                   Liuhui%Cheng%NULL%0,                   Daoqing%Wang%wangdaoqing1215@126.com%2,                   Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,                   Guoqiang%Sun%NULL%0,                   Fei%Tang%NULL%1,                   Min%Peng%NULL%0,                   Ying%Gao%NULL%1,                   Jing%Peng%NULL%1,                   Hui%Xie%NULL%1,                   Yun%Zhao%NULL%1,                   Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                   Kai%Xie%NULL%0,                   Kai%Xie%NULL%0,                   Hui%Lu%NULL%0,                   Lei%Xu%bayinhexl@126.com%0,                   Shusheng%Zhou%zhouss108@163.com%0,                   Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,                   Christopher%Gieraerts%NULL%2,                   Christopher%Gieraerts%NULL%0,                   Yves%De Bruecker%NULL%2,                   Yves%De Bruecker%NULL%0,                   Lode%Janssen%NULL%2,                   Lode%Janssen%NULL%0,                   Hanne%Valgaeren%NULL%2,                   Hanne%Valgaeren%NULL%0,                   Dagmar%Obbels%NULL%2,                   Dagmar%Obbels%NULL%0,                   Marc%Gillis%NULL%2,                   Marc%Gillis%NULL%0,                   Marc%Van Ranst%NULL%0,                   Marc%Van Ranst%NULL%0,                   Johan%Frans%NULL%0,                   Annick%Demeyere%NULL%2,                   Annick%Demeyere%NULL%0,                   Rolf%Symons%rolf.symons@imelda.be%0,                   Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1619,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1609,7 +1648,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1638,7 +1677,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1667,7 +1706,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1696,7 +1735,7 @@
         <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1725,7 +1764,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1754,7 +1793,7 @@
         <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1783,7 +1822,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1812,7 +1851,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1841,7 +1880,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1870,7 +1909,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1899,7 +1938,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1928,7 +1967,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>

--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="398">
   <si>
     <t>Doi</t>
   </si>
@@ -1254,6 +1254,210 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,                   Christopher%Gieraerts%NULL%2,                   Christopher%Gieraerts%NULL%0,                   Yves%De Bruecker%NULL%2,                   Yves%De Bruecker%NULL%0,                   Lode%Janssen%NULL%2,                   Lode%Janssen%NULL%0,                   Hanne%Valgaeren%NULL%2,                   Hanne%Valgaeren%NULL%0,                   Dagmar%Obbels%NULL%2,                   Dagmar%Obbels%NULL%0,                   Marc%Gillis%NULL%2,                   Marc%Gillis%NULL%0,                   Marc%Van Ranst%NULL%0,                   Marc%Van Ranst%NULL%0,                   Johan%Frans%NULL%0,                   Annick%Demeyere%NULL%2,                   Annick%Demeyere%NULL%0,                   Rolf%Symons%rolf.symons@imelda.be%0,                   Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,                    Zhenlu%Yang%NULL%2,                    Zhenlu%Yang%NULL%0,                    Hongyan%Hou%NULL%2,                    Hongyan%Hou%NULL%0,                    Chenao%Zhan%NULL%1,                    Chong%Chen%NULL%1,                    Wenzhi%Lv%NULL%2,                    Wenzhi%Lv%NULL%0,                    Qian%Tao%NULL%2,                    Qian%Tao%NULL%0,                    Ziyong%Sun%NULL%0,                    Ziyong%Sun%NULL%0,                    Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,                    Ben%Hsieh%NULL%1,                    Zeng%Xiong%NULL%2,                    Zeng%Xiong%NULL%0,                    Kasey%Halsey%NULL%2,                    Kasey%Halsey%NULL%0,                    Ji Whae%Choi%NULL%2,                    Ji Whae%Choi%NULL%0,                    Thi My Linh%Tran%NULL%2,                    Thi My Linh%Tran%NULL%0,                    Ian%Pan%NULL%2,                    Ian%Pan%NULL%0,                    Lin-Bo%Shi%NULL%2,                    Lin-Bo%Shi%NULL%0,                    Dong-Cui%Wang%NULL%1,                    Ji%Mei%NULL%2,                    Ji%Mei%NULL%0,                    Xiao-Long%Jiang%NULL%1,                    Qiu-Hua%Zeng%NULL%1,                    Thomas K.%Egglin%NULL%1,                    Ping-Feng%Hu%NULL%2,                    Ping-Feng%Hu%NULL%0,                    Saurabh%Agarwal%NULL%1,                    Fangfang%Xie%NULL%2,                    Fangfang%Xie%NULL%0,                    Sha%Li%NULL%1,                    Terrance%Healey%NULL%2,                    Terrance%Healey%NULL%0,                    Michael K.%Atalay%NULL%1,                    Wei-Hua%Liao%liaoweihua2017@163.com%2,                    Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0, Yong%Lu%xref no email%0, Qiqi%Cao%xref no email%0, Le%Qin%xref no email%0, Zilai%Pan%xref no email%0, Fuhua%Yan%xref no email%0, Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Roentgen Ray Society</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,                    Xiaolong%Qi%NULL%0,                    Xiaolong%Qi%NULL%0,                    Soon Ho%Yoon%yshoka@gmail.com%2,                    Soon Ho%Yoon%yshoka@gmail.com%0,                    Sang Joon%Park%NULL%2,                    Sang Joon%Park%NULL%0,                    Kyung Hee%Lee%NULL%2,                    Kyung Hee%Lee%NULL%0,                    Jin Yong%Kim%NULL%0,                    Jin Yong%Kim%NULL%0,                    Young Kyung%Lee%NULL%2,                    Young Kyung%Lee%NULL%0,                    Hongseok%Ko%NULL%2,                    Hongseok%Ko%NULL%0,                    Ki Hwan%Kim%NULL%2,                    Ki Hwan%Kim%NULL%0,                    Chang Min%Park%NULL%2,                    Chang Min%Park%NULL%0,                    Yun-Hyeon%Kim%NULL%2,                    Yun-Hyeon%Kim%NULL%0,                    Junqiang%Lei%NULL%2,                    Junqiang%Lei%NULL%0,                    Jung Hee%Hong%NULL%2,                    Jung Hee%Hong%NULL%0,                    Hyungjin%Kim%NULL%2,                    Hyungjin%Kim%NULL%0,                    Eui Jin%Hwang%NULL%2,                    Eui Jin%Hwang%NULL%0,                    Seung Jin%Yoo%NULL%2,                    Seung Jin%Yoo%NULL%0,                    Ju Gang%Nam%NULL%2,                    Ju Gang%Nam%NULL%0,                    Chang Hyun%Lee%NULL%2,                    Chang Hyun%Lee%NULL%0,                    Jin Mo%Goo%NULL%2,                    Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,                    Yanyan%Tang%NULL%1,                    Yongkang%Mo%NULL%1,                    Shengkai%Li%NULL%1,                    Daiying%Lin%NULL%1,                    Zhijian%Yang%NULL%1,                    Zhiqi%Yang%NULL%1,                    Hongfu%Sun%NULL%1,                    Jinming%Qiu%NULL%1,                    Yuting%Liao%NULL%1,                    Jianning%Xiao%NULL%1,                    Xiangguang%Chen%NULL%1,                    Xianheng%Wu%NULL%1,                    Renhua%Wu%NULL%1,                    Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,                    Marta%Zerunian%NULL%2,                    Marta%Zerunian%NULL%0,                    Michela%Polici%NULL%2,                    Michela%Polici%NULL%0,                    Francesco%Pucciarelli%NULL%2,                    Francesco%Pucciarelli%NULL%0,                    Tiziano%Polidori%NULL%2,                    Tiziano%Polidori%NULL%0,                    Carlotta%Rucci%NULL%2,                    Carlotta%Rucci%NULL%0,                    Gisella%Guido%NULL%2,                    Gisella%Guido%NULL%0,                    Benedetta%Bracci%NULL%2,                    Benedetta%Bracci%NULL%0,                    Chiara%de Dominicis%NULL%2,                    Chiara%de Dominicis%NULL%0,                    Andrea%Laghi%andrea.laghi@uniroma1.it%2,                    Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,                    Akihiko%Sakata%NULL%1,                    Mitsuhiro%Kirita%NULL%1,                    Takashi%Hiroi%NULL%1,                    Ken-ichiro%Kobayashi%NULL%1,                    Kenji%Kubo%NULL%1,                    Hyunjin%Kim%NULL%1,                    Azusa%Nishimoto%NULL%1,                    Chikara%Maeda%NULL%1,                    Akira%Kawamura%NULL%1,                    Nobuhiro%Komiya%NULL%1,                    Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,                    Huaxiang%Xu%NULL%1,                    Qinglin%Shen%NULL%1,                    Xianghai%Zhang%NULL%1,                    Bing%Fan%26171381@qq.com%0,                    Chuanhong%Wang%NULL%1,                    Bingliang%Zeng%NULL%1,                    Zicong%Li%NULL%1,                    Xiaofen%Li%NULL%1,                    Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0,                    Mengdi%Jin%NULL%1,                    Li%Miao%NULL%1,                    Xinying%Yang%NULL%1,                    Peng%Huang%NULL%1,                    Huanwen%Xiong%NULL%1,                    Peijie%Huang%NULL%1,                    Qi%Zhao%NULL%1,                    Jiang%Du%NULL%1,                    Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0,                    Yonge%Chi%NULL%2,                    Yonge%Chi%NULL%0,                    Liang%Zhang%NULL%2,                    Liang%Zhang%NULL%0,                    Huan%Liu%NULL%0,                    Huan%Liu%NULL%0,                    Kun%Du%NULL%1,                    Zhengxing%Li%NULL%2,                    Zhengxing%Li%NULL%0,                    Jie%Chen%NULL%2,                    Jie%Chen%NULL%0,                    Liuhui%Cheng%NULL%2,                    Liuhui%Cheng%NULL%0,                    Daoqing%Wang%wangdaoqing1215@126.com%2,                    Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,                    Guoqiang%Sun%NULL%0,                    Fei%Tang%NULL%1,                    Min%Peng%NULL%0,                    Ying%Gao%NULL%1,                    Jing%Peng%NULL%1,                    Hui%Xie%NULL%1,                    Yun%Zhao%NULL%1,                    Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                    Kai%Xie%NULL%0,                    Kai%Xie%NULL%0,                    Hui%Lu%NULL%0,                    Lei%Xu%bayinhexl@126.com%0,                    Shusheng%Zhou%zhouss108@163.com%0,                    Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,                    Christopher%Gieraerts%NULL%2,                    Christopher%Gieraerts%NULL%0,                    Yves%De Bruecker%NULL%2,                    Yves%De Bruecker%NULL%0,                    Lode%Janssen%NULL%2,                    Lode%Janssen%NULL%0,                    Hanne%Valgaeren%NULL%2,                    Hanne%Valgaeren%NULL%0,                    Dagmar%Obbels%NULL%2,                    Dagmar%Obbels%NULL%0,                    Marc%Gillis%NULL%2,                    Marc%Gillis%NULL%0,                    Marc%Van Ranst%NULL%0,                    Marc%Van Ranst%NULL%0,                    Johan%Frans%NULL%0,                    Annick%Demeyere%NULL%2,                    Annick%Demeyere%NULL%0,                    Rolf%Symons%rolf.symons@imelda.be%0,                    Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,                     Zhenlu%Yang%NULL%2,                     Zhenlu%Yang%NULL%0,                     Hongyan%Hou%NULL%2,                     Hongyan%Hou%NULL%0,                     Chenao%Zhan%NULL%1,                     Chong%Chen%NULL%1,                     Wenzhi%Lv%NULL%2,                     Wenzhi%Lv%NULL%0,                     Qian%Tao%NULL%2,                     Qian%Tao%NULL%0,                     Ziyong%Sun%NULL%0,                     Ziyong%Sun%NULL%0,                     Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,                     Ben%Hsieh%NULL%1,                     Zeng%Xiong%NULL%2,                     Zeng%Xiong%NULL%0,                     Kasey%Halsey%NULL%2,                     Kasey%Halsey%NULL%0,                     Ji Whae%Choi%NULL%2,                     Ji Whae%Choi%NULL%0,                     Thi My Linh%Tran%NULL%2,                     Thi My Linh%Tran%NULL%0,                     Ian%Pan%NULL%2,                     Ian%Pan%NULL%0,                     Lin-Bo%Shi%NULL%2,                     Lin-Bo%Shi%NULL%0,                     Dong-Cui%Wang%NULL%1,                     Ji%Mei%NULL%2,                     Ji%Mei%NULL%0,                     Xiao-Long%Jiang%NULL%1,                     Qiu-Hua%Zeng%NULL%1,                     Thomas K.%Egglin%NULL%1,                     Ping-Feng%Hu%NULL%2,                     Ping-Feng%Hu%NULL%0,                     Saurabh%Agarwal%NULL%1,                     Fangfang%Xie%NULL%2,                     Fangfang%Xie%NULL%0,                     Sha%Li%NULL%1,                     Terrance%Healey%NULL%2,                     Terrance%Healey%NULL%0,                     Michael K.%Atalay%NULL%1,                     Wei-Hua%Liao%liaoweihua2017@163.com%2,                     Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,  Yong%Lu%xref no email%0,  Qiqi%Cao%xref no email%0,  Le%Qin%xref no email%0,  Zilai%Pan%xref no email%0,  Fuhua%Yan%xref no email%0,  Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,                     Xiaolong%Qi%NULL%0,                     Xiaolong%Qi%NULL%0,                     Soon Ho%Yoon%yshoka@gmail.com%2,                     Soon Ho%Yoon%yshoka@gmail.com%0,                     Sang Joon%Park%NULL%2,                     Sang Joon%Park%NULL%0,                     Kyung Hee%Lee%NULL%2,                     Kyung Hee%Lee%NULL%0,                     Jin Yong%Kim%NULL%0,                     Jin Yong%Kim%NULL%0,                     Young Kyung%Lee%NULL%2,                     Young Kyung%Lee%NULL%0,                     Hongseok%Ko%NULL%2,                     Hongseok%Ko%NULL%0,                     Ki Hwan%Kim%NULL%2,                     Ki Hwan%Kim%NULL%0,                     Chang Min%Park%NULL%2,                     Chang Min%Park%NULL%0,                     Yun-Hyeon%Kim%NULL%2,                     Yun-Hyeon%Kim%NULL%0,                     Junqiang%Lei%NULL%2,                     Junqiang%Lei%NULL%0,                     Jung Hee%Hong%NULL%2,                     Jung Hee%Hong%NULL%0,                     Hyungjin%Kim%NULL%2,                     Hyungjin%Kim%NULL%0,                     Eui Jin%Hwang%NULL%2,                     Eui Jin%Hwang%NULL%0,                     Seung Jin%Yoo%NULL%2,                     Seung Jin%Yoo%NULL%0,                     Ju Gang%Nam%NULL%2,                     Ju Gang%Nam%NULL%0,                     Chang Hyun%Lee%NULL%2,                     Chang Hyun%Lee%NULL%0,                     Jin Mo%Goo%NULL%2,                     Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,                     Yanyan%Tang%NULL%1,                     Yongkang%Mo%NULL%1,                     Shengkai%Li%NULL%1,                     Daiying%Lin%NULL%1,                     Zhijian%Yang%NULL%1,                     Zhiqi%Yang%NULL%1,                     Hongfu%Sun%NULL%1,                     Jinming%Qiu%NULL%1,                     Yuting%Liao%NULL%1,                     Jianning%Xiao%NULL%1,                     Xiangguang%Chen%NULL%1,                     Xianheng%Wu%NULL%1,                     Renhua%Wu%NULL%1,                     Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,                     Marta%Zerunian%NULL%2,                     Marta%Zerunian%NULL%0,                     Michela%Polici%NULL%2,                     Michela%Polici%NULL%0,                     Francesco%Pucciarelli%NULL%2,                     Francesco%Pucciarelli%NULL%0,                     Tiziano%Polidori%NULL%2,                     Tiziano%Polidori%NULL%0,                     Carlotta%Rucci%NULL%2,                     Carlotta%Rucci%NULL%0,                     Gisella%Guido%NULL%2,                     Gisella%Guido%NULL%0,                     Benedetta%Bracci%NULL%2,                     Benedetta%Bracci%NULL%0,                     Chiara%de Dominicis%NULL%2,                     Chiara%de Dominicis%NULL%0,                     Andrea%Laghi%andrea.laghi@uniroma1.it%2,                     Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,                     Akihiko%Sakata%NULL%1,                     Mitsuhiro%Kirita%NULL%1,                     Takashi%Hiroi%NULL%1,                     Ken-ichiro%Kobayashi%NULL%1,                     Kenji%Kubo%NULL%1,                     Hyunjin%Kim%NULL%1,                     Azusa%Nishimoto%NULL%1,                     Chikara%Maeda%NULL%1,                     Akira%Kawamura%NULL%1,                     Nobuhiro%Komiya%NULL%1,                     Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,                     Huaxiang%Xu%NULL%1,                     Qinglin%Shen%NULL%1,                     Xianghai%Zhang%NULL%1,                     Bing%Fan%26171381@qq.com%0,                     Chuanhong%Wang%NULL%1,                     Bingliang%Zeng%NULL%1,                     Zicong%Li%NULL%1,                     Xiaofen%Li%NULL%1,                     Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0,                     Mengdi%Jin%NULL%1,                     Li%Miao%NULL%1,                     Xinying%Yang%NULL%1,                     Peng%Huang%NULL%1,                     Huanwen%Xiong%NULL%1,                     Peijie%Huang%NULL%1,                     Qi%Zhao%NULL%1,                     Jiang%Du%NULL%1,                     Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0,                     Yonge%Chi%NULL%2,                     Yonge%Chi%NULL%0,                     Liang%Zhang%NULL%2,                     Liang%Zhang%NULL%0,                     Huan%Liu%NULL%0,                     Huan%Liu%NULL%0,                     Kun%Du%NULL%1,                     Zhengxing%Li%NULL%2,                     Zhengxing%Li%NULL%0,                     Jie%Chen%NULL%2,                     Jie%Chen%NULL%0,                     Liuhui%Cheng%NULL%2,                     Liuhui%Cheng%NULL%0,                     Daoqing%Wang%wangdaoqing1215@126.com%2,                     Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,                     Guoqiang%Sun%NULL%0,                     Fei%Tang%NULL%1,                     Min%Peng%NULL%0,                     Ying%Gao%NULL%1,                     Jing%Peng%NULL%1,                     Hui%Xie%NULL%1,                     Yun%Zhao%NULL%1,                     Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                     Kai%Xie%NULL%0,                     Kai%Xie%NULL%0,                     Hui%Lu%NULL%0,                     Lei%Xu%bayinhexl@126.com%0,                     Shusheng%Zhou%zhouss108@163.com%0,                     Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,                     Christopher%Gieraerts%NULL%2,                     Christopher%Gieraerts%NULL%0,                     Yves%De Bruecker%NULL%2,                     Yves%De Bruecker%NULL%0,                     Lode%Janssen%NULL%2,                     Lode%Janssen%NULL%0,                     Hanne%Valgaeren%NULL%2,                     Hanne%Valgaeren%NULL%0,                     Dagmar%Obbels%NULL%2,                     Dagmar%Obbels%NULL%0,                     Marc%Gillis%NULL%2,                     Marc%Gillis%NULL%0,                     Marc%Van Ranst%NULL%0,                     Marc%Van Ranst%NULL%0,                     Johan%Frans%NULL%0,                     Annick%Demeyere%NULL%2,                     Annick%Demeyere%NULL%0,                     Rolf%Symons%rolf.symons@imelda.be%0,                     Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,                      Zhenlu%Yang%NULL%2,                      Zhenlu%Yang%NULL%0,                      Hongyan%Hou%NULL%2,                      Hongyan%Hou%NULL%0,                      Chenao%Zhan%NULL%1,                      Chong%Chen%NULL%1,                      Wenzhi%Lv%NULL%2,                      Wenzhi%Lv%NULL%0,                      Qian%Tao%NULL%2,                      Qian%Tao%NULL%0,                      Ziyong%Sun%NULL%0,                      Ziyong%Sun%NULL%0,                      Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,                      Ben%Hsieh%NULL%1,                      Zeng%Xiong%NULL%2,                      Zeng%Xiong%NULL%0,                      Kasey%Halsey%NULL%2,                      Kasey%Halsey%NULL%0,                      Ji Whae%Choi%NULL%2,                      Ji Whae%Choi%NULL%0,                      Thi My Linh%Tran%NULL%2,                      Thi My Linh%Tran%NULL%0,                      Ian%Pan%NULL%2,                      Ian%Pan%NULL%0,                      Lin-Bo%Shi%NULL%2,                      Lin-Bo%Shi%NULL%0,                      Dong-Cui%Wang%NULL%1,                      Ji%Mei%NULL%2,                      Ji%Mei%NULL%0,                      Xiao-Long%Jiang%NULL%1,                      Qiu-Hua%Zeng%NULL%1,                      Thomas K.%Egglin%NULL%1,                      Ping-Feng%Hu%NULL%2,                      Ping-Feng%Hu%NULL%0,                      Saurabh%Agarwal%NULL%1,                      Fangfang%Xie%NULL%2,                      Fangfang%Xie%NULL%0,                      Sha%Li%NULL%1,                      Terrance%Healey%NULL%2,                      Terrance%Healey%NULL%0,                      Michael K.%Atalay%NULL%1,                      Wei-Hua%Liao%liaoweihua2017@163.com%2,                      Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,   Yong%Lu%xref no email%0,   Qiqi%Cao%xref no email%0,   Le%Qin%xref no email%0,   Zilai%Pan%xref no email%0,   Fuhua%Yan%xref no email%0,   Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,                      Xiaolong%Qi%NULL%0,                      Xiaolong%Qi%NULL%0,                      Soon Ho%Yoon%yshoka@gmail.com%2,                      Soon Ho%Yoon%yshoka@gmail.com%0,                      Sang Joon%Park%NULL%2,                      Sang Joon%Park%NULL%0,                      Kyung Hee%Lee%NULL%2,                      Kyung Hee%Lee%NULL%0,                      Jin Yong%Kim%NULL%0,                      Jin Yong%Kim%NULL%0,                      Young Kyung%Lee%NULL%2,                      Young Kyung%Lee%NULL%0,                      Hongseok%Ko%NULL%2,                      Hongseok%Ko%NULL%0,                      Ki Hwan%Kim%NULL%2,                      Ki Hwan%Kim%NULL%0,                      Chang Min%Park%NULL%2,                      Chang Min%Park%NULL%0,                      Yun-Hyeon%Kim%NULL%2,                      Yun-Hyeon%Kim%NULL%0,                      Junqiang%Lei%NULL%2,                      Junqiang%Lei%NULL%0,                      Jung Hee%Hong%NULL%2,                      Jung Hee%Hong%NULL%0,                      Hyungjin%Kim%NULL%2,                      Hyungjin%Kim%NULL%0,                      Eui Jin%Hwang%NULL%2,                      Eui Jin%Hwang%NULL%0,                      Seung Jin%Yoo%NULL%2,                      Seung Jin%Yoo%NULL%0,                      Ju Gang%Nam%NULL%2,                      Ju Gang%Nam%NULL%0,                      Chang Hyun%Lee%NULL%2,                      Chang Hyun%Lee%NULL%0,                      Jin Mo%Goo%NULL%2,                      Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,                      Yanyan%Tang%NULL%1,                      Yongkang%Mo%NULL%1,                      Shengkai%Li%NULL%1,                      Daiying%Lin%NULL%1,                      Zhijian%Yang%NULL%1,                      Zhiqi%Yang%NULL%1,                      Hongfu%Sun%NULL%1,                      Jinming%Qiu%NULL%1,                      Yuting%Liao%NULL%1,                      Jianning%Xiao%NULL%1,                      Xiangguang%Chen%NULL%1,                      Xianheng%Wu%NULL%1,                      Renhua%Wu%NULL%1,                      Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,                      Marta%Zerunian%NULL%2,                      Marta%Zerunian%NULL%0,                      Michela%Polici%NULL%2,                      Michela%Polici%NULL%0,                      Francesco%Pucciarelli%NULL%2,                      Francesco%Pucciarelli%NULL%0,                      Tiziano%Polidori%NULL%2,                      Tiziano%Polidori%NULL%0,                      Carlotta%Rucci%NULL%2,                      Carlotta%Rucci%NULL%0,                      Gisella%Guido%NULL%2,                      Gisella%Guido%NULL%0,                      Benedetta%Bracci%NULL%2,                      Benedetta%Bracci%NULL%0,                      Chiara%de Dominicis%NULL%2,                      Chiara%de Dominicis%NULL%0,                      Andrea%Laghi%andrea.laghi@uniroma1.it%2,                      Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,                      Akihiko%Sakata%NULL%1,                      Mitsuhiro%Kirita%NULL%1,                      Takashi%Hiroi%NULL%1,                      Ken-ichiro%Kobayashi%NULL%1,                      Kenji%Kubo%NULL%1,                      Hyunjin%Kim%NULL%1,                      Azusa%Nishimoto%NULL%1,                      Chikara%Maeda%NULL%1,                      Akira%Kawamura%NULL%1,                      Nobuhiro%Komiya%NULL%1,                      Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,                      Huaxiang%Xu%NULL%1,                      Qinglin%Shen%NULL%1,                      Xianghai%Zhang%NULL%1,                      Bing%Fan%26171381@qq.com%0,                      Chuanhong%Wang%NULL%1,                      Bingliang%Zeng%NULL%1,                      Zicong%Li%NULL%1,                      Xiaofen%Li%NULL%1,                      Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0,                      Mengdi%Jin%NULL%1,                      Li%Miao%NULL%1,                      Xinying%Yang%NULL%1,                      Peng%Huang%NULL%1,                      Huanwen%Xiong%NULL%1,                      Peijie%Huang%NULL%1,                      Qi%Zhao%NULL%1,                      Jiang%Du%NULL%1,                      Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0,                      Yonge%Chi%NULL%2,                      Yonge%Chi%NULL%0,                      Liang%Zhang%NULL%2,                      Liang%Zhang%NULL%0,                      Huan%Liu%NULL%0,                      Huan%Liu%NULL%0,                      Kun%Du%NULL%1,                      Zhengxing%Li%NULL%2,                      Zhengxing%Li%NULL%0,                      Jie%Chen%NULL%2,                      Jie%Chen%NULL%0,                      Liuhui%Cheng%NULL%2,                      Liuhui%Cheng%NULL%0,                      Daoqing%Wang%wangdaoqing1215@126.com%2,                      Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,                      Guoqiang%Sun%NULL%0,                      Fei%Tang%NULL%1,                      Min%Peng%NULL%0,                      Ying%Gao%NULL%1,                      Jing%Peng%NULL%1,                      Hui%Xie%NULL%1,                      Yun%Zhao%NULL%1,                      Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                      Kai%Xie%NULL%0,                      Kai%Xie%NULL%0,                      Hui%Lu%NULL%0,                      Lei%Xu%bayinhexl@126.com%0,                      Shusheng%Zhou%zhouss108@163.com%0,                      Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,                      Christopher%Gieraerts%NULL%2,                      Christopher%Gieraerts%NULL%0,                      Yves%De Bruecker%NULL%2,                      Yves%De Bruecker%NULL%0,                      Lode%Janssen%NULL%2,                      Lode%Janssen%NULL%0,                      Hanne%Valgaeren%NULL%2,                      Hanne%Valgaeren%NULL%0,                      Dagmar%Obbels%NULL%2,                      Dagmar%Obbels%NULL%0,                      Marc%Gillis%NULL%2,                      Marc%Gillis%NULL%0,                      Marc%Van Ranst%NULL%0,                      Marc%Van Ranst%NULL%0,                      Johan%Frans%NULL%0,                      Annick%Demeyere%NULL%2,                      Annick%Demeyere%NULL%0,                      Rolf%Symons%rolf.symons@imelda.be%0,                      Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,                       Zhenlu%Yang%NULL%2,                       Zhenlu%Yang%NULL%0,                       Hongyan%Hou%NULL%2,                       Hongyan%Hou%NULL%0,                       Chenao%Zhan%NULL%1,                       Chong%Chen%NULL%1,                       Wenzhi%Lv%NULL%2,                       Wenzhi%Lv%NULL%0,                       Qian%Tao%NULL%2,                       Qian%Tao%NULL%0,                       Ziyong%Sun%NULL%0,                       Ziyong%Sun%NULL%0,                       Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,                       Ben%Hsieh%NULL%1,                       Zeng%Xiong%NULL%2,                       Zeng%Xiong%NULL%0,                       Kasey%Halsey%NULL%2,                       Kasey%Halsey%NULL%0,                       Ji Whae%Choi%NULL%2,                       Ji Whae%Choi%NULL%0,                       Thi My Linh%Tran%NULL%2,                       Thi My Linh%Tran%NULL%0,                       Ian%Pan%NULL%2,                       Ian%Pan%NULL%0,                       Lin-Bo%Shi%NULL%2,                       Lin-Bo%Shi%NULL%0,                       Dong-Cui%Wang%NULL%1,                       Ji%Mei%NULL%2,                       Ji%Mei%NULL%0,                       Xiao-Long%Jiang%NULL%1,                       Qiu-Hua%Zeng%NULL%1,                       Thomas K.%Egglin%NULL%1,                       Ping-Feng%Hu%NULL%2,                       Ping-Feng%Hu%NULL%0,                       Saurabh%Agarwal%NULL%1,                       Fangfang%Xie%NULL%2,                       Fangfang%Xie%NULL%0,                       Sha%Li%NULL%1,                       Terrance%Healey%NULL%2,                       Terrance%Healey%NULL%0,                       Michael K.%Atalay%NULL%1,                       Wei-Hua%Liao%liaoweihua2017@163.com%2,                       Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,    Yong%Lu%xref no email%0,    Qiqi%Cao%xref no email%0,    Le%Qin%xref no email%0,    Zilai%Pan%xref no email%0,    Fuhua%Yan%xref no email%0,    Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,                       Xiaolong%Qi%NULL%0,                       Xiaolong%Qi%NULL%0,                       Soon Ho%Yoon%yshoka@gmail.com%2,                       Soon Ho%Yoon%yshoka@gmail.com%0,                       Sang Joon%Park%NULL%2,                       Sang Joon%Park%NULL%0,                       Kyung Hee%Lee%NULL%2,                       Kyung Hee%Lee%NULL%0,                       Jin Yong%Kim%NULL%0,                       Jin Yong%Kim%NULL%0,                       Young Kyung%Lee%NULL%2,                       Young Kyung%Lee%NULL%0,                       Hongseok%Ko%NULL%2,                       Hongseok%Ko%NULL%0,                       Ki Hwan%Kim%NULL%2,                       Ki Hwan%Kim%NULL%0,                       Chang Min%Park%NULL%2,                       Chang Min%Park%NULL%0,                       Yun-Hyeon%Kim%NULL%2,                       Yun-Hyeon%Kim%NULL%0,                       Junqiang%Lei%NULL%2,                       Junqiang%Lei%NULL%0,                       Jung Hee%Hong%NULL%2,                       Jung Hee%Hong%NULL%0,                       Hyungjin%Kim%NULL%2,                       Hyungjin%Kim%NULL%0,                       Eui Jin%Hwang%NULL%2,                       Eui Jin%Hwang%NULL%0,                       Seung Jin%Yoo%NULL%2,                       Seung Jin%Yoo%NULL%0,                       Ju Gang%Nam%NULL%2,                       Ju Gang%Nam%NULL%0,                       Chang Hyun%Lee%NULL%2,                       Chang Hyun%Lee%NULL%0,                       Jin Mo%Goo%NULL%2,                       Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,                       Yanyan%Tang%NULL%1,                       Yongkang%Mo%NULL%1,                       Shengkai%Li%NULL%1,                       Daiying%Lin%NULL%1,                       Zhijian%Yang%NULL%1,                       Zhiqi%Yang%NULL%1,                       Hongfu%Sun%NULL%1,                       Jinming%Qiu%NULL%1,                       Yuting%Liao%NULL%1,                       Jianning%Xiao%NULL%1,                       Xiangguang%Chen%NULL%1,                       Xianheng%Wu%NULL%1,                       Renhua%Wu%NULL%1,                       Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,                       Marta%Zerunian%NULL%2,                       Marta%Zerunian%NULL%0,                       Michela%Polici%NULL%2,                       Michela%Polici%NULL%0,                       Francesco%Pucciarelli%NULL%2,                       Francesco%Pucciarelli%NULL%0,                       Tiziano%Polidori%NULL%2,                       Tiziano%Polidori%NULL%0,                       Carlotta%Rucci%NULL%2,                       Carlotta%Rucci%NULL%0,                       Gisella%Guido%NULL%2,                       Gisella%Guido%NULL%0,                       Benedetta%Bracci%NULL%2,                       Benedetta%Bracci%NULL%0,                       Chiara%de Dominicis%NULL%2,                       Chiara%de Dominicis%NULL%0,                       Andrea%Laghi%andrea.laghi@uniroma1.it%2,                       Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,                       Akihiko%Sakata%NULL%1,                       Mitsuhiro%Kirita%NULL%1,                       Takashi%Hiroi%NULL%1,                       Ken-ichiro%Kobayashi%NULL%1,                       Kenji%Kubo%NULL%1,                       Hyunjin%Kim%NULL%1,                       Azusa%Nishimoto%NULL%1,                       Chikara%Maeda%NULL%1,                       Akira%Kawamura%NULL%1,                       Nobuhiro%Komiya%NULL%1,                       Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,                       Huaxiang%Xu%NULL%1,                       Qinglin%Shen%NULL%1,                       Xianghai%Zhang%NULL%1,                       Bing%Fan%26171381@qq.com%0,                       Chuanhong%Wang%NULL%1,                       Bingliang%Zeng%NULL%1,                       Zicong%Li%NULL%1,                       Xiaofen%Li%NULL%1,                       Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0,                       Mengdi%Jin%NULL%1,                       Li%Miao%NULL%1,                       Xinying%Yang%NULL%1,                       Peng%Huang%NULL%1,                       Huanwen%Xiong%NULL%1,                       Peijie%Huang%NULL%1,                       Qi%Zhao%NULL%1,                       Jiang%Du%NULL%1,                       Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0,                       Yonge%Chi%NULL%2,                       Yonge%Chi%NULL%0,                       Liang%Zhang%NULL%2,                       Liang%Zhang%NULL%0,                       Huan%Liu%NULL%0,                       Huan%Liu%NULL%0,                       Kun%Du%NULL%1,                       Zhengxing%Li%NULL%2,                       Zhengxing%Li%NULL%0,                       Jie%Chen%NULL%2,                       Jie%Chen%NULL%0,                       Liuhui%Cheng%NULL%2,                       Liuhui%Cheng%NULL%0,                       Daoqing%Wang%wangdaoqing1215@126.com%2,                       Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,                       Guoqiang%Sun%NULL%0,                       Fei%Tang%NULL%1,                       Min%Peng%NULL%0,                       Ying%Gao%NULL%1,                       Jing%Peng%NULL%1,                       Hui%Xie%NULL%1,                       Yun%Zhao%NULL%1,                       Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                       Kai%Xie%NULL%0,                       Kai%Xie%NULL%0,                       Hui%Lu%NULL%0,                       Lei%Xu%bayinhexl@126.com%0,                       Shusheng%Zhou%zhouss108@163.com%0,                       Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,                       Christopher%Gieraerts%NULL%2,                       Christopher%Gieraerts%NULL%0,                       Yves%De Bruecker%NULL%2,                       Yves%De Bruecker%NULL%0,                       Lode%Janssen%NULL%2,                       Lode%Janssen%NULL%0,                       Hanne%Valgaeren%NULL%2,                       Hanne%Valgaeren%NULL%0,                       Dagmar%Obbels%NULL%2,                       Dagmar%Obbels%NULL%0,                       Marc%Gillis%NULL%2,                       Marc%Gillis%NULL%0,                       Marc%Van Ranst%NULL%0,                       Marc%Van Ranst%NULL%0,                       Johan%Frans%NULL%0,                       Annick%Demeyere%NULL%2,                       Annick%Demeyere%NULL%0,                       Rolf%Symons%rolf.symons@imelda.be%0,                       Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,                        Zhenlu%Yang%NULL%2,                        Zhenlu%Yang%NULL%0,                        Hongyan%Hou%NULL%2,                        Hongyan%Hou%NULL%0,                        Chenao%Zhan%NULL%1,                        Chong%Chen%NULL%1,                        Wenzhi%Lv%NULL%2,                        Wenzhi%Lv%NULL%0,                        Qian%Tao%NULL%2,                        Qian%Tao%NULL%0,                        Ziyong%Sun%NULL%0,                        Ziyong%Sun%NULL%0,                        Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,                        Ben%Hsieh%NULL%1,                        Zeng%Xiong%NULL%2,                        Zeng%Xiong%NULL%0,                        Kasey%Halsey%NULL%2,                        Kasey%Halsey%NULL%0,                        Ji Whae%Choi%NULL%2,                        Ji Whae%Choi%NULL%0,                        Thi My Linh%Tran%NULL%2,                        Thi My Linh%Tran%NULL%0,                        Ian%Pan%NULL%2,                        Ian%Pan%NULL%0,                        Lin-Bo%Shi%NULL%2,                        Lin-Bo%Shi%NULL%0,                        Dong-Cui%Wang%NULL%1,                        Ji%Mei%NULL%2,                        Ji%Mei%NULL%0,                        Xiao-Long%Jiang%NULL%1,                        Qiu-Hua%Zeng%NULL%1,                        Thomas K.%Egglin%NULL%1,                        Ping-Feng%Hu%NULL%2,                        Ping-Feng%Hu%NULL%0,                        Saurabh%Agarwal%NULL%1,                        Fangfang%Xie%NULL%2,                        Fangfang%Xie%NULL%0,                        Sha%Li%NULL%1,                        Terrance%Healey%NULL%2,                        Terrance%Healey%NULL%0,                        Michael K.%Atalay%NULL%1,                        Wei-Hua%Liao%liaoweihua2017@163.com%2,                        Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,     Yong%Lu%xref no email%0,     Qiqi%Cao%xref no email%0,     Le%Qin%xref no email%0,     Zilai%Pan%xref no email%0,     Fuhua%Yan%xref no email%0,     Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,                        Xiaolong%Qi%NULL%0,                        Xiaolong%Qi%NULL%0,                        Soon Ho%Yoon%yshoka@gmail.com%2,                        Soon Ho%Yoon%yshoka@gmail.com%0,                        Sang Joon%Park%NULL%2,                        Sang Joon%Park%NULL%0,                        Kyung Hee%Lee%NULL%2,                        Kyung Hee%Lee%NULL%0,                        Jin Yong%Kim%NULL%0,                        Jin Yong%Kim%NULL%0,                        Young Kyung%Lee%NULL%2,                        Young Kyung%Lee%NULL%0,                        Hongseok%Ko%NULL%2,                        Hongseok%Ko%NULL%0,                        Ki Hwan%Kim%NULL%2,                        Ki Hwan%Kim%NULL%0,                        Chang Min%Park%NULL%2,                        Chang Min%Park%NULL%0,                        Yun-Hyeon%Kim%NULL%2,                        Yun-Hyeon%Kim%NULL%0,                        Junqiang%Lei%NULL%2,                        Junqiang%Lei%NULL%0,                        Jung Hee%Hong%NULL%2,                        Jung Hee%Hong%NULL%0,                        Hyungjin%Kim%NULL%2,                        Hyungjin%Kim%NULL%0,                        Eui Jin%Hwang%NULL%2,                        Eui Jin%Hwang%NULL%0,                        Seung Jin%Yoo%NULL%2,                        Seung Jin%Yoo%NULL%0,                        Ju Gang%Nam%NULL%2,                        Ju Gang%Nam%NULL%0,                        Chang Hyun%Lee%NULL%2,                        Chang Hyun%Lee%NULL%0,                        Jin Mo%Goo%NULL%2,                        Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,                        Yanyan%Tang%NULL%1,                        Yongkang%Mo%NULL%1,                        Shengkai%Li%NULL%1,                        Daiying%Lin%NULL%1,                        Zhijian%Yang%NULL%1,                        Zhiqi%Yang%NULL%1,                        Hongfu%Sun%NULL%1,                        Jinming%Qiu%NULL%1,                        Yuting%Liao%NULL%1,                        Jianning%Xiao%NULL%1,                        Xiangguang%Chen%NULL%1,                        Xianheng%Wu%NULL%1,                        Renhua%Wu%NULL%1,                        Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,                        Marta%Zerunian%NULL%2,                        Marta%Zerunian%NULL%0,                        Michela%Polici%NULL%2,                        Michela%Polici%NULL%0,                        Francesco%Pucciarelli%NULL%2,                        Francesco%Pucciarelli%NULL%0,                        Tiziano%Polidori%NULL%2,                        Tiziano%Polidori%NULL%0,                        Carlotta%Rucci%NULL%2,                        Carlotta%Rucci%NULL%0,                        Gisella%Guido%NULL%2,                        Gisella%Guido%NULL%0,                        Benedetta%Bracci%NULL%2,                        Benedetta%Bracci%NULL%0,                        Chiara%de Dominicis%NULL%2,                        Chiara%de Dominicis%NULL%0,                        Andrea%Laghi%andrea.laghi@uniroma1.it%2,                        Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,                        Akihiko%Sakata%NULL%1,                        Mitsuhiro%Kirita%NULL%1,                        Takashi%Hiroi%NULL%1,                        Ken-ichiro%Kobayashi%NULL%1,                        Kenji%Kubo%NULL%1,                        Hyunjin%Kim%NULL%1,                        Azusa%Nishimoto%NULL%1,                        Chikara%Maeda%NULL%1,                        Akira%Kawamura%NULL%1,                        Nobuhiro%Komiya%NULL%1,                        Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,                        Huaxiang%Xu%NULL%1,                        Qinglin%Shen%NULL%1,                        Xianghai%Zhang%NULL%1,                        Bing%Fan%26171381@qq.com%0,                        Chuanhong%Wang%NULL%1,                        Bingliang%Zeng%NULL%1,                        Zicong%Li%NULL%1,                        Xiaofen%Li%NULL%1,                        Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0,                        Mengdi%Jin%NULL%1,                        Li%Miao%NULL%1,                        Xinying%Yang%NULL%1,                        Peng%Huang%NULL%1,                        Huanwen%Xiong%NULL%1,                        Peijie%Huang%NULL%1,                        Qi%Zhao%NULL%1,                        Jiang%Du%NULL%1,                        Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0,                        Yonge%Chi%NULL%2,                        Yonge%Chi%NULL%0,                        Liang%Zhang%NULL%2,                        Liang%Zhang%NULL%0,                        Huan%Liu%NULL%0,                        Huan%Liu%NULL%0,                        Kun%Du%NULL%1,                        Zhengxing%Li%NULL%2,                        Zhengxing%Li%NULL%0,                        Jie%Chen%NULL%2,                        Jie%Chen%NULL%0,                        Liuhui%Cheng%NULL%2,                        Liuhui%Cheng%NULL%0,                        Daoqing%Wang%wangdaoqing1215@126.com%2,                        Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,                        Guoqiang%Sun%NULL%0,                        Fei%Tang%NULL%1,                        Min%Peng%NULL%0,                        Ying%Gao%NULL%1,                        Jing%Peng%NULL%1,                        Hui%Xie%NULL%1,                        Yun%Zhao%NULL%1,                        Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                        Kai%Xie%NULL%0,                        Kai%Xie%NULL%0,                        Hui%Lu%NULL%0,                        Lei%Xu%bayinhexl@126.com%0,                        Shusheng%Zhou%zhouss108@163.com%0,                        Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,                        Christopher%Gieraerts%NULL%2,                        Christopher%Gieraerts%NULL%0,                        Yves%De Bruecker%NULL%2,                        Yves%De Bruecker%NULL%0,                        Lode%Janssen%NULL%2,                        Lode%Janssen%NULL%0,                        Hanne%Valgaeren%NULL%2,                        Hanne%Valgaeren%NULL%0,                        Dagmar%Obbels%NULL%2,                        Dagmar%Obbels%NULL%0,                        Marc%Gillis%NULL%2,                        Marc%Gillis%NULL%0,                        Marc%Van Ranst%NULL%0,                        Marc%Van Ranst%NULL%0,                        Johan%Frans%NULL%0,                        Annick%Demeyere%NULL%2,                        Annick%Demeyere%NULL%0,                        Rolf%Symons%rolf.symons@imelda.be%0,                        Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1604,6 +1808,9 @@
       <c r="I1" t="s">
         <v>21</v>
       </c>
+      <c r="J1" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1619,7 +1826,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>385</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1632,6 +1839,9 @@
       </c>
       <c r="I2" t="s">
         <v>301</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1648,7 +1858,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1661,6 +1871,9 @@
       </c>
       <c r="I3" t="s">
         <v>301</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1677,7 +1890,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>319</v>
+        <v>387</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1686,10 +1899,13 @@
         <v>156</v>
       </c>
       <c r="H4" t="s">
-        <v>157</v>
+        <v>334</v>
       </c>
       <c r="I4" t="s">
-        <v>304</v>
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1706,7 +1922,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>388</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1719,6 +1935,9 @@
       </c>
       <c r="I5" t="s">
         <v>301</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1735,7 +1954,7 @@
         <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>321</v>
+        <v>389</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1748,6 +1967,9 @@
       </c>
       <c r="I6" t="s">
         <v>307</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1764,7 +1986,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -1777,6 +1999,9 @@
       </c>
       <c r="I7" t="s">
         <v>301</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1793,7 +2018,7 @@
         <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>323</v>
+        <v>391</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -1806,6 +2031,9 @@
       </c>
       <c r="I8" t="s">
         <v>307</v>
+      </c>
+      <c r="J8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1822,7 +2050,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>324</v>
+        <v>392</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -1835,6 +2063,9 @@
       </c>
       <c r="I9" t="s">
         <v>311</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1851,7 +2082,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -1864,6 +2095,9 @@
       </c>
       <c r="I10" t="s">
         <v>311</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1880,7 +2114,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>326</v>
+        <v>394</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1893,6 +2127,9 @@
       </c>
       <c r="I11" t="s">
         <v>301</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1909,7 +2146,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -1922,6 +2159,9 @@
       </c>
       <c r="I12" t="s">
         <v>311</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1938,7 +2178,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -1951,6 +2191,9 @@
       </c>
       <c r="I13" t="s">
         <v>301</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1967,7 +2210,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>
@@ -1980,6 +2223,9 @@
       </c>
       <c r="I14" t="s">
         <v>301</v>
+      </c>
+      <c r="J14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/31.xlsx
+++ b/Covid_19_Dataset_and_References/References/31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="424">
   <si>
     <t>Doi</t>
   </si>
@@ -1458,6 +1458,84 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,                        Christopher%Gieraerts%NULL%2,                        Christopher%Gieraerts%NULL%0,                        Yves%De Bruecker%NULL%2,                        Yves%De Bruecker%NULL%0,                        Lode%Janssen%NULL%2,                        Lode%Janssen%NULL%0,                        Hanne%Valgaeren%NULL%2,                        Hanne%Valgaeren%NULL%0,                        Dagmar%Obbels%NULL%2,                        Dagmar%Obbels%NULL%0,                        Marc%Gillis%NULL%2,                        Marc%Gillis%NULL%0,                        Marc%Van Ranst%NULL%0,                        Marc%Van Ranst%NULL%0,                        Johan%Frans%NULL%0,                        Annick%Demeyere%NULL%2,                        Annick%Demeyere%NULL%0,                        Rolf%Symons%rolf.symons@imelda.be%0,                        Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,                         Zhenlu%Yang%NULL%2,                         Zhenlu%Yang%NULL%0,                         Hongyan%Hou%NULL%2,                         Hongyan%Hou%NULL%0,                         Chenao%Zhan%NULL%1,                         Chong%Chen%NULL%1,                         Wenzhi%Lv%NULL%2,                         Wenzhi%Lv%NULL%0,                         Qian%Tao%NULL%2,                         Qian%Tao%NULL%0,                         Ziyong%Sun%NULL%0,                         Ziyong%Sun%NULL%0,                         Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,                         Ben%Hsieh%NULL%1,                         Zeng%Xiong%NULL%2,                         Zeng%Xiong%NULL%0,                         Kasey%Halsey%NULL%2,                         Kasey%Halsey%NULL%0,                         Ji Whae%Choi%NULL%2,                         Ji Whae%Choi%NULL%0,                         Thi My Linh%Tran%NULL%2,                         Thi My Linh%Tran%NULL%0,                         Ian%Pan%NULL%2,                         Ian%Pan%NULL%0,                         Lin-Bo%Shi%NULL%2,                         Lin-Bo%Shi%NULL%0,                         Dong-Cui%Wang%NULL%1,                         Ji%Mei%NULL%2,                         Ji%Mei%NULL%0,                         Xiao-Long%Jiang%NULL%1,                         Qiu-Hua%Zeng%NULL%1,                         Thomas K.%Egglin%NULL%1,                         Ping-Feng%Hu%NULL%2,                         Ping-Feng%Hu%NULL%0,                         Saurabh%Agarwal%NULL%1,                         Fangfang%Xie%NULL%2,                         Fangfang%Xie%NULL%0,                         Sha%Li%NULL%1,                         Terrance%Healey%NULL%2,                         Terrance%Healey%NULL%0,                         Michael K.%Atalay%NULL%1,                         Wei-Hua%Liao%liaoweihua2017@163.com%2,                         Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,      Yong%Lu%xref no email%0,      Qiqi%Cao%xref no email%0,      Le%Qin%xref no email%0,      Zilai%Pan%xref no email%0,      Fuhua%Yan%xref no email%0,      Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,                         Xiaolong%Qi%NULL%0,                         Xiaolong%Qi%NULL%0,                         Soon Ho%Yoon%yshoka@gmail.com%2,                         Soon Ho%Yoon%yshoka@gmail.com%0,                         Sang Joon%Park%NULL%2,                         Sang Joon%Park%NULL%0,                         Kyung Hee%Lee%NULL%2,                         Kyung Hee%Lee%NULL%0,                         Jin Yong%Kim%NULL%0,                         Jin Yong%Kim%NULL%0,                         Young Kyung%Lee%NULL%2,                         Young Kyung%Lee%NULL%0,                         Hongseok%Ko%NULL%2,                         Hongseok%Ko%NULL%0,                         Ki Hwan%Kim%NULL%2,                         Ki Hwan%Kim%NULL%0,                         Chang Min%Park%NULL%2,                         Chang Min%Park%NULL%0,                         Yun-Hyeon%Kim%NULL%2,                         Yun-Hyeon%Kim%NULL%0,                         Junqiang%Lei%NULL%2,                         Junqiang%Lei%NULL%0,                         Jung Hee%Hong%NULL%2,                         Jung Hee%Hong%NULL%0,                         Hyungjin%Kim%NULL%2,                         Hyungjin%Kim%NULL%0,                         Eui Jin%Hwang%NULL%2,                         Eui Jin%Hwang%NULL%0,                         Seung Jin%Yoo%NULL%2,                         Seung Jin%Yoo%NULL%0,                         Ju Gang%Nam%NULL%2,                         Ju Gang%Nam%NULL%0,                         Chang Hyun%Lee%NULL%2,                         Chang Hyun%Lee%NULL%0,                         Jin Mo%Goo%NULL%2,                         Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,                         Yanyan%Tang%NULL%1,                         Yongkang%Mo%NULL%1,                         Shengkai%Li%NULL%1,                         Daiying%Lin%NULL%1,                         Zhijian%Yang%NULL%1,                         Zhiqi%Yang%NULL%1,                         Hongfu%Sun%NULL%1,                         Jinming%Qiu%NULL%1,                         Yuting%Liao%NULL%1,                         Jianning%Xiao%NULL%1,                         Xiangguang%Chen%NULL%1,                         Xianheng%Wu%NULL%1,                         Renhua%Wu%NULL%1,                         Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,                         Marta%Zerunian%NULL%2,                         Marta%Zerunian%NULL%0,                         Michela%Polici%NULL%2,                         Michela%Polici%NULL%0,                         Francesco%Pucciarelli%NULL%2,                         Francesco%Pucciarelli%NULL%0,                         Tiziano%Polidori%NULL%2,                         Tiziano%Polidori%NULL%0,                         Carlotta%Rucci%NULL%2,                         Carlotta%Rucci%NULL%0,                         Gisella%Guido%NULL%2,                         Gisella%Guido%NULL%0,                         Benedetta%Bracci%NULL%2,                         Benedetta%Bracci%NULL%0,                         Chiara%de Dominicis%NULL%2,                         Chiara%de Dominicis%NULL%0,                         Andrea%Laghi%andrea.laghi@uniroma1.it%2,                         Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,                         Akihiko%Sakata%NULL%1,                         Mitsuhiro%Kirita%NULL%1,                         Takashi%Hiroi%NULL%1,                         Ken-ichiro%Kobayashi%NULL%1,                         Kenji%Kubo%NULL%1,                         Hyunjin%Kim%NULL%1,                         Azusa%Nishimoto%NULL%1,                         Chikara%Maeda%NULL%1,                         Akira%Kawamura%NULL%1,                         Nobuhiro%Komiya%NULL%1,                         Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,                         Huaxiang%Xu%NULL%1,                         Qinglin%Shen%NULL%1,                         Xianghai%Zhang%NULL%1,                         Bing%Fan%26171381@qq.com%0,                         Chuanhong%Wang%NULL%1,                         Bingliang%Zeng%NULL%1,                         Zicong%Li%NULL%1,                         Xiaofen%Li%NULL%1,                         Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0,                         Mengdi%Jin%NULL%1,                         Li%Miao%NULL%1,                         Xinying%Yang%NULL%1,                         Peng%Huang%NULL%1,                         Huanwen%Xiong%NULL%1,                         Peijie%Huang%NULL%1,                         Qi%Zhao%NULL%1,                         Jiang%Du%NULL%1,                         Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0,                         Yonge%Chi%NULL%2,                         Yonge%Chi%NULL%0,                         Liang%Zhang%NULL%2,                         Liang%Zhang%NULL%0,                         Huan%Liu%NULL%0,                         Huan%Liu%NULL%0,                         Kun%Du%NULL%1,                         Zhengxing%Li%NULL%2,                         Zhengxing%Li%NULL%0,                         Jie%Chen%NULL%2,                         Jie%Chen%NULL%0,                         Liuhui%Cheng%NULL%2,                         Liuhui%Cheng%NULL%0,                         Daoqing%Wang%wangdaoqing1215@126.com%2,                         Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,                         Guoqiang%Sun%NULL%0,                         Fei%Tang%NULL%1,                         Min%Peng%NULL%0,                         Ying%Gao%NULL%1,                         Jing%Peng%NULL%1,                         Hui%Xie%NULL%1,                         Yun%Zhao%NULL%1,                         Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                         Kai%Xie%NULL%0,                         Kai%Xie%NULL%0,                         Hui%Lu%NULL%0,                         Lei%Xu%bayinhexl@126.com%0,                         Shusheng%Zhou%zhouss108@163.com%0,                         Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,                         Christopher%Gieraerts%NULL%2,                         Christopher%Gieraerts%NULL%0,                         Yves%De Bruecker%NULL%2,                         Yves%De Bruecker%NULL%0,                         Lode%Janssen%NULL%2,                         Lode%Janssen%NULL%0,                         Hanne%Valgaeren%NULL%2,                         Hanne%Valgaeren%NULL%0,                         Dagmar%Obbels%NULL%2,                         Dagmar%Obbels%NULL%0,                         Marc%Gillis%NULL%2,                         Marc%Gillis%NULL%0,                         Marc%Van Ranst%NULL%0,                         Marc%Van Ranst%NULL%0,                         Johan%Frans%NULL%0,                         Annick%Demeyere%NULL%2,                         Annick%Demeyere%NULL%0,                         Rolf%Symons%rolf.symons@imelda.be%0,                         Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,                          Zhenlu%Yang%NULL%2,                          Zhenlu%Yang%NULL%0,                          Hongyan%Hou%NULL%2,                          Hongyan%Hou%NULL%0,                          Chenao%Zhan%NULL%1,                          Chong%Chen%NULL%1,                          Wenzhi%Lv%NULL%2,                          Wenzhi%Lv%NULL%0,                          Qian%Tao%NULL%2,                          Qian%Tao%NULL%0,                          Ziyong%Sun%NULL%0,                          Ziyong%Sun%NULL%0,                          Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,                          Ben%Hsieh%NULL%1,                          Zeng%Xiong%NULL%2,                          Zeng%Xiong%NULL%0,                          Kasey%Halsey%NULL%2,                          Kasey%Halsey%NULL%0,                          Ji Whae%Choi%NULL%2,                          Ji Whae%Choi%NULL%0,                          Thi My Linh%Tran%NULL%2,                          Thi My Linh%Tran%NULL%0,                          Ian%Pan%NULL%2,                          Ian%Pan%NULL%0,                          Lin-Bo%Shi%NULL%2,                          Lin-Bo%Shi%NULL%0,                          Dong-Cui%Wang%NULL%1,                          Ji%Mei%NULL%2,                          Ji%Mei%NULL%0,                          Xiao-Long%Jiang%NULL%1,                          Qiu-Hua%Zeng%NULL%1,                          Thomas K.%Egglin%NULL%1,                          Ping-Feng%Hu%NULL%2,                          Ping-Feng%Hu%NULL%0,                          Saurabh%Agarwal%NULL%1,                          Fangfang%Xie%NULL%2,                          Fangfang%Xie%NULL%0,                          Sha%Li%NULL%1,                          Terrance%Healey%NULL%2,                          Terrance%Healey%NULL%0,                          Michael K.%Atalay%NULL%1,                          Wei-Hua%Liao%liaoweihua2017@163.com%2,                          Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Zenghui%Cheng%xref no email%0,       Yong%Lu%xref no email%0,       Qiqi%Cao%xref no email%0,       Le%Qin%xref no email%0,       Zilai%Pan%xref no email%0,       Fuhua%Yan%xref no email%0,       Wenjie%Yang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,                          Xiaolong%Qi%NULL%0,                          Xiaolong%Qi%NULL%0,                          Soon Ho%Yoon%yshoka@gmail.com%2,                          Soon Ho%Yoon%yshoka@gmail.com%0,                          Sang Joon%Park%NULL%2,                          Sang Joon%Park%NULL%0,                          Kyung Hee%Lee%NULL%2,                          Kyung Hee%Lee%NULL%0,                          Jin Yong%Kim%NULL%0,                          Jin Yong%Kim%NULL%0,                          Young Kyung%Lee%NULL%2,                          Young Kyung%Lee%NULL%0,                          Hongseok%Ko%NULL%2,                          Hongseok%Ko%NULL%0,                          Ki Hwan%Kim%NULL%2,                          Ki Hwan%Kim%NULL%0,                          Chang Min%Park%NULL%2,                          Chang Min%Park%NULL%0,                          Yun-Hyeon%Kim%NULL%2,                          Yun-Hyeon%Kim%NULL%0,                          Junqiang%Lei%NULL%2,                          Junqiang%Lei%NULL%0,                          Jung Hee%Hong%NULL%2,                          Jung Hee%Hong%NULL%0,                          Hyungjin%Kim%NULL%2,                          Hyungjin%Kim%NULL%0,                          Eui Jin%Hwang%NULL%2,                          Eui Jin%Hwang%NULL%0,                          Seung Jin%Yoo%NULL%2,                          Seung Jin%Yoo%NULL%0,                          Ju Gang%Nam%NULL%2,                          Ju Gang%Nam%NULL%0,                          Chang Hyun%Lee%NULL%2,                          Chang Hyun%Lee%NULL%0,                          Jin Mo%Goo%NULL%2,                          Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,                          Yanyan%Tang%NULL%1,                          Yongkang%Mo%NULL%1,                          Shengkai%Li%NULL%1,                          Daiying%Lin%NULL%1,                          Zhijian%Yang%NULL%1,                          Zhiqi%Yang%NULL%1,                          Hongfu%Sun%NULL%1,                          Jinming%Qiu%NULL%1,                          Yuting%Liao%NULL%1,                          Jianning%Xiao%NULL%1,                          Xiangguang%Chen%NULL%1,                          Xianheng%Wu%NULL%1,                          Renhua%Wu%NULL%1,                          Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,                          Marta%Zerunian%NULL%2,                          Marta%Zerunian%NULL%0,                          Michela%Polici%NULL%2,                          Michela%Polici%NULL%0,                          Francesco%Pucciarelli%NULL%2,                          Francesco%Pucciarelli%NULL%0,                          Tiziano%Polidori%NULL%2,                          Tiziano%Polidori%NULL%0,                          Carlotta%Rucci%NULL%2,                          Carlotta%Rucci%NULL%0,                          Gisella%Guido%NULL%2,                          Gisella%Guido%NULL%0,                          Benedetta%Bracci%NULL%2,                          Benedetta%Bracci%NULL%0,                          Chiara%de Dominicis%NULL%2,                          Chiara%de Dominicis%NULL%0,                          Andrea%Laghi%andrea.laghi@uniroma1.it%2,                          Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,                          Akihiko%Sakata%NULL%1,                          Mitsuhiro%Kirita%NULL%1,                          Takashi%Hiroi%NULL%1,                          Ken-ichiro%Kobayashi%NULL%1,                          Kenji%Kubo%NULL%1,                          Hyunjin%Kim%NULL%1,                          Azusa%Nishimoto%NULL%1,                          Chikara%Maeda%NULL%1,                          Akira%Kawamura%NULL%1,                          Nobuhiro%Komiya%NULL%1,                          Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,                          Huaxiang%Xu%NULL%1,                          Qinglin%Shen%NULL%1,                          Xianghai%Zhang%NULL%1,                          Bing%Fan%26171381@qq.com%0,                          Chuanhong%Wang%NULL%1,                          Bingliang%Zeng%NULL%1,                          Zicong%Li%NULL%1,                          Xiaofen%Li%NULL%1,                          Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0,                          Mengdi%Jin%NULL%1,                          Li%Miao%NULL%1,                          Xinying%Yang%NULL%1,                          Peng%Huang%NULL%1,                          Huanwen%Xiong%NULL%1,                          Peijie%Huang%NULL%1,                          Qi%Zhao%NULL%1,                          Jiang%Du%NULL%1,                          Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0,                          Yonge%Chi%NULL%2,                          Yonge%Chi%NULL%0,                          Liang%Zhang%NULL%2,                          Liang%Zhang%NULL%0,                          Huan%Liu%NULL%0,                          Huan%Liu%NULL%0,                          Kun%Du%NULL%1,                          Zhengxing%Li%NULL%2,                          Zhengxing%Li%NULL%0,                          Jie%Chen%NULL%2,                          Jie%Chen%NULL%0,                          Liuhui%Cheng%NULL%2,                          Liuhui%Cheng%NULL%0,                          Daoqing%Wang%wangdaoqing1215@126.com%2,                          Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,                          Guoqiang%Sun%NULL%0,                          Fei%Tang%NULL%1,                          Min%Peng%NULL%0,                          Ying%Gao%NULL%1,                          Jing%Peng%NULL%1,                          Hui%Xie%NULL%1,                          Yun%Zhao%NULL%1,                          Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                          Kai%Xie%NULL%0,                          Kai%Xie%NULL%0,                          Hui%Lu%NULL%0,                          Lei%Xu%bayinhexl@126.com%0,                          Shusheng%Zhou%zhouss108@163.com%0,                          Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,                          Christopher%Gieraerts%NULL%2,                          Christopher%Gieraerts%NULL%0,                          Yves%De Bruecker%NULL%2,                          Yves%De Bruecker%NULL%0,                          Lode%Janssen%NULL%2,                          Lode%Janssen%NULL%0,                          Hanne%Valgaeren%NULL%2,                          Hanne%Valgaeren%NULL%0,                          Dagmar%Obbels%NULL%2,                          Dagmar%Obbels%NULL%0,                          Marc%Gillis%NULL%2,                          Marc%Gillis%NULL%0,                          Marc%Van Ranst%NULL%0,                          Marc%Van Ranst%NULL%0,                          Johan%Frans%NULL%0,                          Annick%Demeyere%NULL%2,                          Annick%Demeyere%NULL%0,                          Rolf%Symons%rolf.symons@imelda.be%0,                          Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +1904,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1858,7 +1936,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1890,7 +1968,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1922,7 +2000,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -1954,7 +2032,7 @@
         <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -1986,7 +2064,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -2018,7 +2096,7 @@
         <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -2050,7 +2128,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -2082,7 +2160,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -2114,7 +2192,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -2146,7 +2224,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -2178,7 +2256,7 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2210,7 +2288,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>
